--- a/REGULAR/LIMBOC, FLORDELIZA.xlsx
+++ b/REGULAR/LIMBOC, FLORDELIZA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\LCR - LOCAL CIVIL REGISTRY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BA4A5-4CE6-4247-A51D-C7FB8114395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2164,7 +2163,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2206,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2270,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2330,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2396,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2459,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2557,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2616,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2681,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2724,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2799,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2985,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3051,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3109,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3175,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3231,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3306,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3349,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3415,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3471,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +3569,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3632,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3699,25 +3698,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K846" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K846" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3729,13 +3728,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3744,14 +3743,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4055,7 +4054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4065,7 +4064,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4073,7 +4072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4082,25 +4081,25 @@
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="3240" topLeftCell="A705" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B714" sqref="B714"/>
+      <selection pane="bottomLeft" activeCell="D714" sqref="D714"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +4120,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4139,7 +4138,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4161,7 +4160,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4169,7 +4168,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4182,7 +4181,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4199,7 +4198,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4243,7 +4242,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.82399999999987</v>
+        <v>29.07399999999987</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4253,12 +4252,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.897999999999996</v>
+        <v>63.147999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>42</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35248</v>
       </c>
@@ -4300,7 +4299,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35278</v>
       </c>
@@ -4320,7 +4319,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>35309</v>
@@ -4341,7 +4340,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A104" si="0">EDATE(A13,1)</f>
         <v>35339</v>
@@ -4362,7 +4361,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4383,7 +4382,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4404,7 +4403,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>45</v>
       </c>
@@ -4422,7 +4421,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35431</v>
@@ -4449,7 +4448,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4470,7 +4469,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4497,7 +4496,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4518,7 +4517,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4545,7 +4544,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4566,7 +4565,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4593,7 +4592,7 @@
         <v>35632</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>163</v>
@@ -4613,7 +4612,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="47"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -4635,7 +4634,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35643</v>
@@ -4656,7 +4655,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4683,7 +4682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4710,7 +4709,7 @@
         <v>35718</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4737,7 +4736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4764,7 +4763,7 @@
         <v>35737</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
@@ -4782,7 +4781,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>35796</v>
@@ -4803,7 +4802,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4830,7 +4829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4857,7 +4856,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>56</v>
@@ -4877,7 +4876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35886</v>
@@ -4904,7 +4903,7 @@
         <v>35888</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A37,1)</f>
         <v>35916</v>
@@ -4931,7 +4930,7 @@
         <v>35919</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4953,7 +4952,7 @@
         <v>35933</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35947</v>
@@ -4978,7 +4977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>61</v>
@@ -4998,7 +4997,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>60</v>
@@ -5020,7 +5019,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A40,1)</f>
         <v>35977</v>
@@ -5047,7 +5046,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -5068,7 +5067,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -5095,7 +5094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -5122,7 +5121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -5143,7 +5142,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -5164,7 +5163,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>47</v>
       </c>
@@ -5182,7 +5181,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>36161</v>
@@ -5209,7 +5208,7 @@
         <v>36165</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -5236,7 +5235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -5261,7 +5260,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -5283,7 +5282,7 @@
         <v>36245</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -5303,7 +5302,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>36251</v>
@@ -5328,7 +5327,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5353,7 +5352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>73</v>
@@ -5373,7 +5372,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36312</v>
@@ -5400,7 +5399,7 @@
         <v>36336</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5427,7 +5426,7 @@
         <v>36363</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5448,7 +5447,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5475,7 +5474,7 @@
         <v>36425</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -5484,7 +5483,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.82399999999987</v>
+        <v>29.07399999999987</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -5494,12 +5493,12 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.897999999999996</v>
+        <v>63.147999999999996</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="47"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36434</v>
@@ -5526,7 +5525,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5553,7 +5552,7 @@
         <v>36480</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>75</v>
@@ -5573,7 +5572,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36495</v>
@@ -5600,7 +5599,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>76</v>
@@ -5620,7 +5619,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
         <v>66</v>
       </c>
@@ -5638,7 +5637,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>36526</v>
@@ -5663,7 +5662,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5688,7 +5687,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>50</v>
@@ -5710,7 +5709,7 @@
         <v>36571</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5735,7 +5734,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -5755,7 +5754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A72,1)</f>
         <v>36617</v>
@@ -5782,7 +5781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>83</v>
@@ -5802,7 +5801,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>59</v>
@@ -5813,7 +5812,7 @@
       </c>
       <c r="E76" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.82399999999987</v>
+        <v>29.07399999999987</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -5823,14 +5822,14 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.897999999999996</v>
+        <v>63.147999999999996</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="47">
         <v>36641</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A74,1)</f>
         <v>36647</v>
@@ -5857,7 +5856,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -5879,7 +5878,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -5901,7 +5900,7 @@
         <v>36665</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>84</v>
@@ -5923,7 +5922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>86</v>
@@ -5943,7 +5942,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36678</v>
@@ -5970,7 +5969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5992,7 +5991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>88</v>
@@ -6014,7 +6013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36708</v>
@@ -6039,7 +6038,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -6066,7 +6065,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>94</v>
@@ -6086,7 +6085,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36770</v>
@@ -6111,7 +6110,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -6138,7 +6137,7 @@
         <v>36802</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>60</v>
@@ -6160,7 +6159,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>96</v>
@@ -6180,7 +6179,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="47"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>36831</v>
@@ -6207,7 +6206,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>98</v>
@@ -6227,7 +6226,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="47"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36861</v>
@@ -6252,7 +6251,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
         <v>100</v>
       </c>
@@ -6270,7 +6269,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>36892</v>
@@ -6291,7 +6290,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -6318,7 +6317,7 @@
         <v>36942</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -6345,7 +6344,7 @@
         <v>36980</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -6372,7 +6371,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>67</v>
@@ -6394,7 +6393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37012</v>
@@ -6419,7 +6418,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -6440,7 +6439,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -6467,7 +6466,7 @@
         <v>37076</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -6494,7 +6493,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>59</v>
@@ -6516,7 +6515,7 @@
         <v>37128</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>50</v>
@@ -6538,7 +6537,7 @@
         <v>37105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>37135</v>
@@ -6565,7 +6564,7 @@
         <v>37146</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6587,7 +6586,7 @@
         <v>37149</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>50</v>
@@ -6609,7 +6608,7 @@
         <v>37160</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>50</v>
@@ -6631,7 +6630,7 @@
         <v>37163</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A107,1)</f>
         <v>37165</v>
@@ -6658,7 +6657,7 @@
         <v>37167</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>51</v>
@@ -6680,7 +6679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>105</v>
@@ -6700,7 +6699,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A111,1)</f>
         <v>37196</v>
@@ -6727,7 +6726,7 @@
         <v>37209</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>59</v>
@@ -6749,7 +6748,7 @@
         <v>37219</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>78</v>
@@ -6769,7 +6768,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="47"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -6790,7 +6789,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="46" t="s">
         <v>103</v>
       </c>
@@ -6808,7 +6807,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6835,7 +6834,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>131</v>
@@ -6859,7 +6858,7 @@
         <v>37279</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>127</v>
@@ -6879,7 +6878,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -6908,7 +6907,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>56</v>
@@ -6928,7 +6927,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>37316</v>
@@ -6949,7 +6948,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A231" si="1">EDATE(A124,1)</f>
         <v>37347</v>
@@ -6970,7 +6969,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6997,7 +6996,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -7018,7 +7017,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -7045,7 +7044,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -7070,7 +7069,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -7095,7 +7094,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -7122,7 +7121,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -7149,7 +7148,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>137</v>
@@ -7169,7 +7168,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="47"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37591</v>
@@ -7194,7 +7193,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>139</v>
@@ -7214,7 +7213,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="46" t="s">
         <v>106</v>
       </c>
@@ -7232,7 +7231,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A134,1)</f>
         <v>37622</v>
@@ -7257,7 +7256,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -7278,7 +7277,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -7305,7 +7304,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>56</v>
@@ -7325,7 +7324,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>37712</v>
@@ -7352,7 +7351,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -7372,7 +7371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>143</v>
@@ -7392,7 +7391,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>37742</v>
@@ -7419,7 +7418,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -7446,7 +7445,7 @@
         <v>37773</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>50</v>
@@ -7468,7 +7467,7 @@
         <v>37797</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>144</v>
@@ -7488,7 +7487,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="47"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A145,1)</f>
         <v>37803</v>
@@ -7509,7 +7508,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -7536,7 +7535,7 @@
         <v>37837</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -7561,7 +7560,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -7588,7 +7587,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>147</v>
@@ -7608,7 +7607,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="47"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>37926</v>
@@ -7635,7 +7634,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>148</v>
@@ -7655,7 +7654,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="47"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f>EDATE(A153,1)</f>
         <v>37956</v>
@@ -7680,7 +7679,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>150</v>
@@ -7700,7 +7699,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="46" t="s">
         <v>107</v>
       </c>
@@ -7718,7 +7717,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>37987</v>
@@ -7743,7 +7742,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -7770,7 +7769,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>153</v>
@@ -7790,7 +7789,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38047</v>
@@ -7817,7 +7816,7 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -7839,7 +7838,7 @@
         <v>38054</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7861,7 +7860,7 @@
         <v>38069</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>56</v>
@@ -7881,7 +7880,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A161,1)</f>
         <v>38078</v>
@@ -7906,7 +7905,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -7933,7 +7932,7 @@
         <v>38110</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>50</v>
@@ -7955,7 +7954,7 @@
         <v>38121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>50</v>
@@ -7977,7 +7976,7 @@
         <v>38132</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>156</v>
@@ -7997,7 +7996,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A166,1)</f>
         <v>38139</v>
@@ -8024,7 +8023,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -8051,7 +8050,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -8073,7 +8072,7 @@
         <v>38187</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>157</v>
@@ -8093,7 +8092,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A171,1)</f>
         <v>38200</v>
@@ -8120,7 +8119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>48</v>
@@ -8142,7 +8141,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>59</v>
@@ -8164,7 +8163,7 @@
         <v>38216</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>160</v>
@@ -8184,7 +8183,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="47"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A174,1)</f>
         <v>38231</v>
@@ -8211,7 +8210,7 @@
         <v>38236</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>50</v>
@@ -8233,7 +8232,7 @@
         <v>38253</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>161</v>
@@ -8253,7 +8252,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="47"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38261</v>
@@ -8274,7 +8273,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -8301,7 +8300,7 @@
         <v>38309</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -8326,7 +8325,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="46" t="s">
         <v>108</v>
       </c>
@@ -8344,7 +8343,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38353</v>
@@ -8365,7 +8364,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -8386,7 +8385,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -8407,7 +8406,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -8432,7 +8431,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -8453,7 +8452,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -8474,7 +8473,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -8495,7 +8494,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -8516,7 +8515,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -8537,7 +8536,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -8558,7 +8557,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -8579,7 +8578,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -8604,7 +8603,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="46" t="s">
         <v>109</v>
       </c>
@@ -8622,7 +8621,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>38718</v>
@@ -8649,7 +8648,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>163</v>
@@ -8671,7 +8670,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>163</v>
@@ -8693,7 +8692,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>38749</v>
@@ -8720,7 +8719,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>168</v>
@@ -8740,7 +8739,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38777</v>
@@ -8761,7 +8760,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -8786,7 +8785,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>48</v>
@@ -8808,7 +8807,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>170</v>
@@ -8828,7 +8827,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>38838</v>
@@ -8855,7 +8854,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="15" t="s">
         <v>172</v>
@@ -8875,7 +8874,7 @@
       <c r="J208" s="12"/>
       <c r="K208" s="49"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>38869</v>
@@ -8902,7 +8901,7 @@
         <v>38870</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>173</v>
@@ -8922,7 +8921,7 @@
       <c r="J210" s="12"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>38899</v>
@@ -8949,7 +8948,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>50</v>
@@ -8971,7 +8970,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>174</v>
@@ -8991,7 +8990,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>38930</v>
@@ -9016,7 +9015,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A214,1)</f>
         <v>38961</v>
@@ -9043,7 +9042,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>50</v>
@@ -9065,7 +9064,7 @@
         <v>38994</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>176</v>
@@ -9085,7 +9084,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38991</v>
@@ -9112,7 +9111,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>177</v>
@@ -9132,7 +9131,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="47"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39022</v>
@@ -9157,7 +9156,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
@@ -9184,7 +9183,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>179</v>
@@ -9204,7 +9203,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>181</v>
@@ -9224,7 +9223,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="46" t="s">
         <v>110</v>
       </c>
@@ -9242,7 +9241,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A221,1)</f>
         <v>39083</v>
@@ -9269,7 +9268,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>50</v>
@@ -9291,7 +9290,7 @@
         <v>39104</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>50</v>
@@ -9313,7 +9312,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>182</v>
@@ -9333,7 +9332,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A225,1)</f>
         <v>39114</v>
@@ -9358,7 +9357,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -9383,7 +9382,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -9410,7 +9409,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>56</v>
@@ -9430,7 +9429,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>56</v>
@@ -9450,7 +9449,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -9472,7 +9471,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>188</v>
@@ -9492,7 +9491,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="47"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A231,1)</f>
         <v>39203</v>
@@ -9519,7 +9518,7 @@
         <v>39209</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9541,7 +9540,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>56</v>
@@ -9561,7 +9560,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>67</v>
@@ -9583,7 +9582,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>191</v>
@@ -9603,7 +9602,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A236,1)</f>
         <v>39234</v>
@@ -9628,7 +9627,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" ref="A242:A423" si="2">EDATE(A241,1)</f>
         <v>39264</v>
@@ -9655,7 +9654,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>194</v>
@@ -9675,7 +9674,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39295</v>
@@ -9700,7 +9699,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9727,7 +9726,7 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>50</v>
@@ -9749,7 +9748,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>196</v>
@@ -9769,7 +9768,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A245,1)</f>
         <v>39356</v>
@@ -9794,7 +9793,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -9821,7 +9820,7 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>138</v>
@@ -9843,7 +9842,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>198</v>
@@ -9863,7 +9862,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>39417</v>
@@ -9888,7 +9887,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="46" t="s">
         <v>111</v>
       </c>
@@ -9906,7 +9905,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>39448</v>
@@ -9933,7 +9932,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>201</v>
@@ -9953,7 +9952,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="47"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39479</v>
@@ -9980,7 +9979,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>127</v>
@@ -10000,7 +9999,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>50</v>
@@ -10022,7 +10021,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>203</v>
@@ -10042,7 +10041,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="47"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39508</v>
@@ -10067,7 +10066,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -10089,7 +10088,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>50</v>
@@ -10111,7 +10110,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -10133,7 +10132,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>205</v>
@@ -10153,7 +10152,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A260,1)</f>
         <v>39539</v>
@@ -10180,7 +10179,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>48</v>
@@ -10202,7 +10201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>61</v>
@@ -10224,7 +10223,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>50</v>
@@ -10246,7 +10245,7 @@
         <v>39559</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>208</v>
@@ -10266,7 +10265,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A265,1)</f>
         <v>39569</v>
@@ -10293,7 +10292,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>50</v>
@@ -10315,7 +10314,7 @@
         <v>39575</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>50</v>
@@ -10337,7 +10336,7 @@
         <v>39582</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>48</v>
@@ -10359,7 +10358,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>138</v>
@@ -10381,7 +10380,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>210</v>
@@ -10401,7 +10400,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A270,1)</f>
         <v>39600</v>
@@ -10426,7 +10425,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>50</v>
@@ -10446,7 +10445,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>50</v>
@@ -10466,7 +10465,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>178</v>
@@ -10486,7 +10485,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>39630</v>
@@ -10513,7 +10512,7 @@
         <v>39636</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>48</v>
@@ -10539,7 +10538,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>39661</v>
@@ -10566,7 +10565,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>131</v>
@@ -10588,7 +10587,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>131</v>
@@ -10610,7 +10609,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>215</v>
@@ -10630,7 +10629,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>39692</v>
@@ -10657,7 +10656,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>216</v>
@@ -10677,7 +10676,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="47"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39722</v>
@@ -10704,7 +10703,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>131</v>
@@ -10728,7 +10727,7 @@
         <v>39737</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>61</v>
@@ -10750,7 +10749,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>131</v>
@@ -10772,7 +10771,7 @@
         <v>39742</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>131</v>
@@ -10794,7 +10793,7 @@
         <v>39751</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>217</v>
@@ -10814,7 +10813,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A288,1)</f>
         <v>39753</v>
@@ -10845,7 +10844,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>131</v>
@@ -10867,7 +10866,7 @@
         <v>39772</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>131</v>
@@ -10889,7 +10888,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10911,7 +10910,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>218</v>
@@ -10931,7 +10930,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A294,1)</f>
         <v>39783</v>
@@ -10958,7 +10957,7 @@
         <v>39793</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>220</v>
@@ -10978,7 +10977,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="46" t="s">
         <v>112</v>
       </c>
@@ -10996,7 +10995,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39814</v>
@@ -11025,7 +11024,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>131</v>
@@ -11047,7 +11046,7 @@
         <v>39822</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>61</v>
@@ -11069,7 +11068,7 @@
         <v>39843</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>221</v>
@@ -11089,7 +11088,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A302,1)</f>
         <v>39845</v>
@@ -11116,7 +11115,7 @@
         <v>39856</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>222</v>
@@ -11140,7 +11139,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>61</v>
@@ -11162,7 +11161,7 @@
         <v>39864</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>223</v>
@@ -11182,7 +11181,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>39873</v>
@@ -11209,7 +11208,7 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>131</v>
@@ -11229,7 +11228,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>56</v>
@@ -11249,7 +11248,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>131</v>
@@ -11271,7 +11270,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>131</v>
@@ -11293,7 +11292,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -11313,7 +11312,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>226</v>
@@ -11333,7 +11332,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A310,1)</f>
         <v>39904</v>
@@ -11362,7 +11361,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>56</v>
@@ -11382,7 +11381,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>131</v>
@@ -11402,7 +11401,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>229</v>
@@ -11422,7 +11421,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A317,1)</f>
         <v>39934</v>
@@ -11451,7 +11450,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>131</v>
@@ -11473,7 +11472,7 @@
         <v>39941</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>131</v>
@@ -11495,7 +11494,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>233</v>
@@ -11517,7 +11516,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="47"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A321,1)</f>
         <v>39965</v>
@@ -11546,7 +11545,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>131</v>
@@ -11568,7 +11567,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>131</v>
@@ -11590,7 +11589,7 @@
         <v>39989</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>234</v>
@@ -11610,7 +11609,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>39995</v>
@@ -11637,7 +11636,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>222</v>
@@ -11661,7 +11660,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>236</v>
@@ -11681,7 +11680,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="47"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A329,1)</f>
         <v>40026</v>
@@ -11708,7 +11707,7 @@
         <v>40039</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>50</v>
@@ -11732,7 +11731,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>238</v>
@@ -11752,7 +11751,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A332,1)</f>
         <v>40057</v>
@@ -11785,7 +11784,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>131</v>
@@ -11809,7 +11808,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>240</v>
@@ -11829,7 +11828,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A335,1)</f>
         <v>40087</v>
@@ -11856,7 +11855,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>131</v>
@@ -11880,7 +11879,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>222</v>
@@ -11906,7 +11905,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>242</v>
@@ -11926,7 +11925,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A338,1)</f>
         <v>40118</v>
@@ -11953,7 +11952,7 @@
         <v>40129</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>131</v>
@@ -11975,7 +11974,7 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>244</v>
@@ -11995,7 +11994,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="47"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A342,1)</f>
         <v>40148</v>
@@ -12022,7 +12021,7 @@
         <v>40176</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>245</v>
@@ -12042,7 +12041,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="47"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="46" t="s">
         <v>113</v>
       </c>
@@ -12060,7 +12059,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40179</v>
@@ -12085,7 +12084,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -12110,7 +12109,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>48</v>
@@ -12132,7 +12131,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>50</v>
@@ -12154,7 +12153,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>56</v>
@@ -12174,7 +12173,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>247</v>
@@ -12194,7 +12193,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A349,1)</f>
         <v>40238</v>
@@ -12225,7 +12224,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>50</v>
@@ -12247,7 +12246,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>56</v>
@@ -12267,7 +12266,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>250</v>
@@ -12287,7 +12286,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A354,1)</f>
         <v>40269</v>
@@ -12314,7 +12313,7 @@
         <v>40283</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>253</v>
@@ -12334,7 +12333,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="47"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40299</v>
@@ -12361,7 +12360,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>50</v>
@@ -12383,7 +12382,7 @@
         <v>40309</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>50</v>
@@ -12405,7 +12404,7 @@
         <v>40311</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>59</v>
@@ -12424,7 +12423,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>254</v>
@@ -12441,7 +12440,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="47"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f>EDATE(A360,1)</f>
         <v>40330</v>
@@ -12468,7 +12467,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>255</v>
@@ -12488,7 +12487,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="47"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A365,1)</f>
         <v>40360</v>
@@ -12515,7 +12514,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>256</v>
@@ -12535,7 +12534,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A367,1)</f>
         <v>40391</v>
@@ -12562,7 +12561,7 @@
         <v>40407</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>257</v>
@@ -12582,7 +12581,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="47"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>40422</v>
@@ -12609,7 +12608,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>50</v>
@@ -12631,7 +12630,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>258</v>
@@ -12651,7 +12650,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>40452</v>
@@ -12676,7 +12675,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -12703,7 +12702,7 @@
         <v>40484</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>260</v>
@@ -12723,7 +12722,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="47"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>40513</v>
@@ -12750,7 +12749,7 @@
         <v>40519</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>261</v>
@@ -12770,7 +12769,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="46" t="s">
         <v>114</v>
       </c>
@@ -12788,7 +12787,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>40544</v>
@@ -12815,7 +12814,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>50</v>
@@ -12837,7 +12836,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>50</v>
@@ -12859,7 +12858,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>262</v>
@@ -12879,7 +12878,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="47"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A380,1)</f>
         <v>40575</v>
@@ -12906,7 +12905,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>263</v>
@@ -12926,7 +12925,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="47"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>40603</v>
@@ -12951,7 +12950,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>131</v>
@@ -12973,7 +12972,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>48</v>
@@ -12995,7 +12994,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>56</v>
@@ -13015,7 +13014,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>266</v>
@@ -13035,7 +13034,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A386,1)</f>
         <v>40634</v>
@@ -13068,7 +13067,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>56</v>
@@ -13088,7 +13087,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>50</v>
@@ -13110,7 +13109,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>50</v>
@@ -13132,7 +13131,7 @@
         <v>40658</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>269</v>
@@ -13152,7 +13151,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A391,1)</f>
         <v>40664</v>
@@ -13181,7 +13180,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -13203,7 +13202,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>50</v>
@@ -13225,7 +13224,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>56</v>
@@ -13245,7 +13244,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>270</v>
@@ -13265,7 +13264,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A396,1)</f>
         <v>40695</v>
@@ -13298,7 +13297,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>275</v>
@@ -13320,7 +13319,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f>EDATE(A401,1)</f>
         <v>40725</v>
@@ -13343,7 +13342,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="2"/>
         <v>40756</v>
@@ -13372,7 +13371,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>277</v>
@@ -13394,7 +13393,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f>EDATE(A404,1)</f>
         <v>40787</v>
@@ -13421,7 +13420,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>278</v>
@@ -13441,7 +13440,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>40817</v>
@@ -13468,7 +13467,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>50</v>
@@ -13490,7 +13489,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>50</v>
@@ -13512,7 +13511,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>279</v>
@@ -13532,7 +13531,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A408,1)</f>
         <v>40848</v>
@@ -13557,7 +13556,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="2"/>
         <v>40878</v>
@@ -13584,7 +13583,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>281</v>
@@ -13606,7 +13605,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="47"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="46" t="s">
         <v>115</v>
       </c>
@@ -13624,7 +13623,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A413,1)</f>
         <v>40909</v>
@@ -13651,7 +13650,7 @@
         <v>40911</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>56</v>
@@ -13671,7 +13670,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>50</v>
@@ -13693,7 +13692,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13715,7 +13714,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>84</v>
@@ -13737,7 +13736,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>284</v>
@@ -13759,7 +13758,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A416,1)</f>
         <v>40940</v>
@@ -13786,7 +13785,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="2"/>
         <v>40969</v>
@@ -13813,7 +13812,7 @@
         <v>40991</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>286</v>
@@ -13835,7 +13834,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="47"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>41000</v>
@@ -13862,7 +13861,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>56</v>
@@ -13880,7 +13879,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>222</v>
@@ -13908,7 +13907,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>289</v>
@@ -13928,7 +13927,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A425,1)</f>
         <v>41030</v>
@@ -13955,7 +13954,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -13977,7 +13976,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>50</v>
@@ -13999,7 +13998,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>50</v>
@@ -14021,7 +14020,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>290</v>
@@ -14041,7 +14040,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A429,1)</f>
         <v>41061</v>
@@ -14068,7 +14067,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>50</v>
@@ -14090,7 +14089,7 @@
         <v>41079</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>50</v>
@@ -14112,7 +14111,7 @@
         <v>41085</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>50</v>
@@ -14134,7 +14133,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>293</v>
@@ -14154,7 +14153,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="47"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A434,1)</f>
         <v>41091</v>
@@ -14181,7 +14180,7 @@
         <v>41101</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -14203,7 +14202,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>84</v>
@@ -14225,7 +14224,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>294</v>
@@ -14245,7 +14244,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A439,1)</f>
         <v>41122</v>
@@ -14272,7 +14271,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>50</v>
@@ -14294,7 +14293,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>297</v>
@@ -14314,7 +14313,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A443,1)</f>
         <v>41153</v>
@@ -14345,7 +14344,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>59</v>
@@ -14367,7 +14366,7 @@
         <v>41173</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>50</v>
@@ -14389,7 +14388,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>275</v>
@@ -14411,7 +14410,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="47"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A446,1)</f>
         <v>41183</v>
@@ -14438,7 +14437,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>50</v>
@@ -14460,7 +14459,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>131</v>
@@ -14482,7 +14481,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="47"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>298</v>
@@ -14504,7 +14503,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="47"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A450,1)</f>
         <v>41214</v>
@@ -14531,7 +14530,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>50</v>
@@ -14553,7 +14552,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>299</v>
@@ -14577,7 +14576,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>41244</v>
@@ -14604,7 +14603,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="46" t="s">
         <v>116</v>
       </c>
@@ -14622,7 +14621,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f>EDATE(A457,1)</f>
         <v>41275</v>
@@ -14649,7 +14648,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>50</v>
@@ -14671,7 +14670,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>222</v>
@@ -14693,7 +14692,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>303</v>
@@ -14713,7 +14712,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A459,1)</f>
         <v>41306</v>
@@ -14742,7 +14741,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -14764,7 +14763,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>50</v>
@@ -14786,7 +14785,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>50</v>
@@ -14808,7 +14807,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>304</v>
@@ -14828,7 +14827,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A463,1)</f>
         <v>41334</v>
@@ -14855,7 +14854,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14879,7 +14878,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>307</v>
@@ -14899,7 +14898,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A468,1)</f>
         <v>41365</v>
@@ -14926,7 +14925,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>56</v>
@@ -14946,7 +14945,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>127</v>
@@ -14966,7 +14965,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>60</v>
@@ -14986,7 +14985,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>309</v>
@@ -15006,7 +15005,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -15035,7 +15034,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -15057,7 +15056,7 @@
         <v>41425</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -15079,7 +15078,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>316</v>
@@ -15099,7 +15098,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="47"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f>EDATE(A476,1)</f>
         <v>41426</v>
@@ -15126,7 +15125,7 @@
         <v>41438</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>316</v>
@@ -15146,7 +15145,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>41456</v>
@@ -15173,7 +15172,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>50</v>
@@ -15195,7 +15194,7 @@
         <v>41470</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>84</v>
@@ -15217,7 +15216,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>48</v>
@@ -15239,7 +15238,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>67</v>
@@ -15261,7 +15260,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>317</v>
@@ -15281,7 +15280,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="47"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -15308,7 +15307,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>321</v>
@@ -15328,7 +15327,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="47"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>41518</v>
@@ -15355,7 +15354,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>50</v>
@@ -15377,7 +15376,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>322</v>
@@ -15397,7 +15396,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>41548</v>
@@ -15424,7 +15423,7 @@
         <v>41540</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>131</v>
@@ -15448,7 +15447,7 @@
         <v>41550</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>50</v>
@@ -15470,7 +15469,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>323</v>
@@ -15490,7 +15489,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>41579</v>
@@ -15517,7 +15516,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>324</v>
@@ -15537,7 +15536,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="47"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A497,1)</f>
         <v>41609</v>
@@ -15564,7 +15563,7 @@
         <v>41624</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>222</v>
@@ -15588,7 +15587,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>326</v>
@@ -15608,7 +15607,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="46" t="s">
         <v>117</v>
       </c>
@@ -15626,7 +15625,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A499,1)</f>
         <v>41640</v>
@@ -15653,7 +15652,7 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>327</v>
@@ -15673,7 +15672,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="47"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>41671</v>
@@ -15700,7 +15699,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>131</v>
@@ -15726,7 +15725,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>56</v>
@@ -15746,7 +15745,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>48</v>
@@ -15768,7 +15767,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>50</v>
@@ -15790,7 +15789,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>59</v>
@@ -15812,7 +15811,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>56</v>
@@ -15832,7 +15831,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>50</v>
@@ -15854,7 +15853,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>56</v>
@@ -15874,7 +15873,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>328</v>
@@ -15894,7 +15893,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>50</v>
@@ -15916,7 +15915,7 @@
         <v>41752</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f>EDATE(A505,1)</f>
         <v>41699</v>
@@ -15941,7 +15940,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>48</v>
@@ -15963,7 +15962,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>41730</v>
@@ -15988,7 +15987,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -16010,7 +16009,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>41760</v>
@@ -16035,7 +16034,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>48</v>
@@ -16057,7 +16056,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>41791</v>
@@ -16082,7 +16081,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>50</v>
@@ -16102,7 +16101,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>41821</v>
@@ -16127,7 +16126,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>50</v>
@@ -16149,7 +16148,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>50</v>
@@ -16171,7 +16170,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f>EDATE(A524,1)</f>
         <v>41852</v>
@@ -16196,7 +16195,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>50</v>
@@ -16218,7 +16217,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f>EDATE(A527,1)</f>
         <v>41883</v>
@@ -16243,7 +16242,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>50</v>
@@ -16265,7 +16264,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>41913</v>
@@ -16290,7 +16289,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>50</v>
@@ -16312,7 +16311,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>399</v>
@@ -16334,7 +16333,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -16356,7 +16355,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f>EDATE(A531,1)</f>
         <v>41944</v>
@@ -16381,7 +16380,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>50</v>
@@ -16403,7 +16402,7 @@
         <v>41954</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f>EDATE(A535,1)</f>
         <v>41974</v>
@@ -16430,7 +16429,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>170</v>
@@ -16450,7 +16449,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="46" t="s">
         <v>118</v>
       </c>
@@ -16468,7 +16467,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f>EDATE(A537,1)</f>
         <v>42005</v>
@@ -16495,7 +16494,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>50</v>
@@ -16517,7 +16516,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>56</v>
@@ -16537,7 +16536,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>56</v>
@@ -16557,7 +16556,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A540,1)</f>
         <v>42036</v>
@@ -16584,7 +16583,7 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" ref="A545:A598" si="3">EDATE(A544,1)</f>
         <v>42064</v>
@@ -16605,7 +16604,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="3"/>
         <v>42095</v>
@@ -16630,7 +16629,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>50</v>
@@ -16652,7 +16651,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f>EDATE(A546,1)</f>
         <v>42125</v>
@@ -16673,7 +16672,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f t="shared" si="3"/>
         <v>42156</v>
@@ -16700,7 +16699,7 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f t="shared" si="3"/>
         <v>42186</v>
@@ -16721,7 +16720,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -16742,7 +16741,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -16769,7 +16768,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -16796,7 +16795,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f>EDATE(A553,1)</f>
         <v>42309</v>
@@ -16823,7 +16822,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f t="shared" si="3"/>
         <v>42339</v>
@@ -16844,7 +16843,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="46" t="s">
         <v>119</v>
       </c>
@@ -16862,7 +16861,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f>EDATE(A555,1)</f>
         <v>42370</v>
@@ -16887,7 +16886,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -16912,7 +16911,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f t="shared" si="3"/>
         <v>42430</v>
@@ -16937,7 +16936,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -16962,7 +16961,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>50</v>
@@ -16984,7 +16983,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>346</v>
@@ -17004,7 +17003,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f>EDATE(A560,1)</f>
         <v>42491</v>
@@ -17029,7 +17028,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -17054,7 +17053,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -17079,7 +17078,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -17104,7 +17103,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -17131,7 +17130,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>50</v>
@@ -17151,7 +17150,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>50</v>
@@ -17173,7 +17172,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>50</v>
@@ -17195,7 +17194,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>84</v>
@@ -17217,7 +17216,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>50</v>
@@ -17239,7 +17238,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>353</v>
@@ -17259,7 +17258,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>354</v>
@@ -17281,7 +17280,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>355</v>
@@ -17303,7 +17302,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A567,1)</f>
         <v>42644</v>
@@ -17330,7 +17329,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>359</v>
@@ -17350,7 +17349,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -17372,7 +17371,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>48</v>
@@ -17394,7 +17393,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>50</v>
@@ -17416,7 +17415,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>50</v>
@@ -17438,7 +17437,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f>EDATE(A576,1)</f>
         <v>42675</v>
@@ -17463,7 +17462,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>48</v>
@@ -17485,7 +17484,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <f>EDATE(A582,1)</f>
         <v>42705</v>
@@ -17510,7 +17509,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="46" t="s">
         <v>120</v>
       </c>
@@ -17528,7 +17527,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <f>EDATE(A584,1)</f>
         <v>42736</v>
@@ -17555,7 +17554,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>84</v>
@@ -17577,7 +17576,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>84</v>
@@ -17599,7 +17598,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>42767</v>
@@ -17620,7 +17619,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f t="shared" si="3"/>
         <v>42795</v>
@@ -17647,7 +17646,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>84</v>
@@ -17669,7 +17668,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17696,7 +17695,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f t="shared" si="3"/>
         <v>42856</v>
@@ -17725,7 +17724,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <f t="shared" si="3"/>
         <v>42887</v>
@@ -17750,7 +17749,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <f t="shared" si="3"/>
         <v>42917</v>
@@ -17771,7 +17770,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f t="shared" si="3"/>
         <v>42948</v>
@@ -17798,7 +17797,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <f t="shared" si="3"/>
         <v>42979</v>
@@ -17825,7 +17824,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <f t="shared" si="3"/>
         <v>43009</v>
@@ -17852,7 +17851,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>50</v>
@@ -17874,7 +17873,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>50</v>
@@ -17896,7 +17895,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>50</v>
@@ -17918,7 +17917,7 @@
         <v>43038</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <f>EDATE(A598,1)</f>
         <v>43040</v>
@@ -17945,7 +17944,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>131</v>
@@ -17967,7 +17966,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43070</v>
@@ -17994,7 +17993,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>84</v>
@@ -18016,7 +18015,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="46" t="s">
         <v>121</v>
       </c>
@@ -18034,7 +18033,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <f>EDATE(A604,1)</f>
         <v>43101</v>
@@ -18061,7 +18060,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>222</v>
@@ -18087,7 +18086,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f>EDATE(A607,1)</f>
         <v>43132</v>
@@ -18116,7 +18115,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>84</v>
@@ -18138,7 +18137,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -18160,7 +18159,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>48</v>
@@ -18182,7 +18181,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>50</v>
@@ -18204,7 +18203,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -18225,7 +18224,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f t="shared" ref="A615:A702" si="4">EDATE(A614,1)</f>
         <v>43191</v>
@@ -18246,7 +18245,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <f t="shared" si="4"/>
         <v>43221</v>
@@ -18273,7 +18272,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>50</v>
@@ -18295,7 +18294,7 @@
         <v>43273</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>50</v>
@@ -18317,7 +18316,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <f>EDATE(A616,1)</f>
         <v>43252</v>
@@ -18342,7 +18341,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f t="shared" si="4"/>
         <v>43282</v>
@@ -18363,7 +18362,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <f t="shared" si="4"/>
         <v>43313</v>
@@ -18384,7 +18383,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <f t="shared" si="4"/>
         <v>43344</v>
@@ -18405,7 +18404,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f t="shared" si="4"/>
         <v>43374</v>
@@ -18432,7 +18431,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f t="shared" si="4"/>
         <v>43405</v>
@@ -18459,7 +18458,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>50</v>
@@ -18481,7 +18480,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>50</v>
@@ -18503,7 +18502,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f>EDATE(A624,1)</f>
         <v>43435</v>
@@ -18530,7 +18529,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>131</v>
@@ -18554,7 +18553,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="46" t="s">
         <v>122</v>
       </c>
@@ -18572,7 +18571,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -18599,7 +18598,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>127</v>
@@ -18619,7 +18618,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <f>EDATE(A630,1)</f>
         <v>43497</v>
@@ -18646,7 +18645,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>131</v>
@@ -18670,7 +18669,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>131</v>
@@ -18692,7 +18691,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>131</v>
@@ -18714,7 +18713,7 @@
         <v>43163</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <f>EDATE(A632,1)</f>
         <v>43525</v>
@@ -18743,7 +18742,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <f t="shared" si="4"/>
         <v>43556</v>
@@ -18770,7 +18769,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>131</v>
@@ -18792,7 +18791,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>131</v>
@@ -18814,7 +18813,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>50</v>
@@ -18836,7 +18835,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>48</v>
@@ -18858,7 +18857,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>375</v>
@@ -18880,7 +18879,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>50</v>
@@ -18902,7 +18901,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>56</v>
@@ -18922,7 +18921,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <f>EDATE(A637,1)</f>
         <v>43586</v>
@@ -18943,7 +18942,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <f t="shared" si="4"/>
         <v>43617</v>
@@ -18964,7 +18963,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <f t="shared" si="4"/>
         <v>43647</v>
@@ -18991,7 +18990,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>50</v>
@@ -19013,7 +19012,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>222</v>
@@ -19035,7 +19034,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>131</v>
@@ -19059,7 +19058,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43678</v>
@@ -19080,7 +19079,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <f t="shared" si="4"/>
         <v>43709</v>
@@ -19107,7 +19106,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>50</v>
@@ -19129,7 +19128,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>222</v>
@@ -19151,7 +19150,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>131</v>
@@ -19175,7 +19174,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
         <v>48</v>
@@ -19197,7 +19196,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <f>EDATE(A652,1)</f>
         <v>43739</v>
@@ -19224,7 +19223,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>50</v>
@@ -19250,7 +19249,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>48</v>
@@ -19272,7 +19271,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <f>EDATE(A657,1)</f>
         <v>43770</v>
@@ -19299,7 +19298,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>131</v>
@@ -19323,7 +19322,7 @@
       </c>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>131</v>
@@ -19345,7 +19344,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>48</v>
@@ -19367,7 +19366,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>43800</v>
@@ -19398,7 +19397,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="46" t="s">
         <v>123</v>
       </c>
@@ -19416,7 +19415,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>43831</v>
@@ -19441,7 +19440,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>384</v>
@@ -19461,7 +19460,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>56</v>
@@ -19481,7 +19480,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>87</v>
@@ -19503,7 +19502,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <f>EDATE(A666,1)</f>
         <v>43862</v>
@@ -19524,7 +19523,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <f t="shared" si="4"/>
         <v>43891</v>
@@ -19545,7 +19544,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <f t="shared" si="4"/>
         <v>43922</v>
@@ -19572,7 +19571,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <f t="shared" si="4"/>
         <v>43952</v>
@@ -19593,7 +19592,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <f t="shared" si="4"/>
         <v>43983</v>
@@ -19614,7 +19613,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <f t="shared" si="4"/>
         <v>44013</v>
@@ -19641,7 +19640,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <f t="shared" si="4"/>
         <v>44044</v>
@@ -19668,7 +19667,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>50</v>
@@ -19690,7 +19689,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <f>EDATE(A676,1)</f>
         <v>44075</v>
@@ -19717,7 +19716,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>50</v>
@@ -19741,7 +19740,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44105</v>
@@ -19768,7 +19767,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <f t="shared" si="4"/>
         <v>44136</v>
@@ -19789,7 +19788,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <f t="shared" si="4"/>
         <v>44166</v>
@@ -19810,7 +19809,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="46" t="s">
         <v>124</v>
       </c>
@@ -19828,7 +19827,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <f>EDATE(A682,1)</f>
         <v>44197</v>
@@ -19849,7 +19848,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <f t="shared" si="4"/>
         <v>44228</v>
@@ -19870,7 +19869,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <f t="shared" si="4"/>
         <v>44256</v>
@@ -19901,7 +19900,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <f t="shared" si="4"/>
         <v>44287</v>
@@ -19922,7 +19921,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <f t="shared" si="4"/>
         <v>44317</v>
@@ -19943,7 +19942,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <f t="shared" si="4"/>
         <v>44348</v>
@@ -19964,7 +19963,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <f t="shared" si="4"/>
         <v>44378</v>
@@ -19985,7 +19984,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <f t="shared" si="4"/>
         <v>44409</v>
@@ -20006,7 +20005,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <f t="shared" si="4"/>
         <v>44440</v>
@@ -20027,7 +20026,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <f t="shared" si="4"/>
         <v>44470</v>
@@ -20048,7 +20047,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <f t="shared" si="4"/>
         <v>44501</v>
@@ -20069,7 +20068,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <f t="shared" si="4"/>
         <v>44531</v>
@@ -20094,7 +20093,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="46" t="s">
         <v>125</v>
       </c>
@@ -20112,7 +20111,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <f>EDATE(A695,1)</f>
         <v>44562</v>
@@ -20133,7 +20132,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <f t="shared" si="4"/>
         <v>44593</v>
@@ -20154,7 +20153,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <f t="shared" si="4"/>
         <v>44621</v>
@@ -20181,7 +20180,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <f t="shared" si="4"/>
         <v>44652</v>
@@ -20206,7 +20205,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <f t="shared" si="4"/>
         <v>44682</v>
@@ -20233,7 +20232,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <f t="shared" si="4"/>
         <v>44713</v>
@@ -20254,7 +20253,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <f t="shared" ref="A703" si="5">EDATE(A702,1)</f>
         <v>44743</v>
@@ -20281,7 +20280,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>44774</v>
       </c>
@@ -20301,7 +20300,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>44805</v>
       </c>
@@ -20327,7 +20326,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>44835</v>
       </c>
@@ -20353,7 +20352,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>44866</v>
       </c>
@@ -20379,7 +20378,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>44896</v>
       </c>
@@ -20405,7 +20404,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
         <v>50</v>
@@ -20427,7 +20426,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="46" t="s">
         <v>413</v>
       </c>
@@ -20445,7 +20444,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>44927</v>
       </c>
@@ -20471,7 +20470,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
         <v>50</v>
@@ -20493,7 +20492,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>44958</v>
       </c>
@@ -20519,25 +20518,27 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>44986</v>
       </c>
       <c r="B714" s="20"/>
-      <c r="C714" s="13"/>
+      <c r="C714" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D714" s="39"/>
       <c r="E714" s="9"/>
       <c r="F714" s="20"/>
-      <c r="G714" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G714" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H714" s="39"/>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>45017</v>
       </c>
@@ -20555,7 +20556,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>45047</v>
       </c>
@@ -20573,7 +20574,7 @@
       <c r="J716" s="12"/>
       <c r="K716" s="15"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>45078</v>
       </c>
@@ -20591,7 +20592,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>45108</v>
       </c>
@@ -20609,7 +20610,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>45139</v>
       </c>
@@ -20627,7 +20628,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>45170</v>
       </c>
@@ -20645,7 +20646,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>45200</v>
       </c>
@@ -20663,7 +20664,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>45231</v>
       </c>
@@ -20681,7 +20682,7 @@
       <c r="J722" s="12"/>
       <c r="K722" s="15"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>45261</v>
       </c>
@@ -20699,7 +20700,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>45292</v>
       </c>
@@ -20717,7 +20718,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>45323</v>
       </c>
@@ -20735,7 +20736,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>45352</v>
       </c>
@@ -20753,7 +20754,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>45383</v>
       </c>
@@ -20771,7 +20772,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>45413</v>
       </c>
@@ -20789,7 +20790,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>45444</v>
       </c>
@@ -20807,7 +20808,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>45474</v>
       </c>
@@ -20825,7 +20826,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>45505</v>
       </c>
@@ -20843,7 +20844,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>45536</v>
       </c>
@@ -20861,7 +20862,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>45566</v>
       </c>
@@ -20879,7 +20880,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>45597</v>
       </c>
@@ -20897,7 +20898,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>45627</v>
       </c>
@@ -20915,7 +20916,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>45658</v>
       </c>
@@ -20933,7 +20934,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>45689</v>
       </c>
@@ -20951,7 +20952,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
         <v>45717</v>
       </c>
@@ -20969,7 +20970,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
         <v>45748</v>
       </c>
@@ -20987,7 +20988,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
         <v>45778</v>
       </c>
@@ -21005,7 +21006,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
         <v>45809</v>
       </c>
@@ -21023,7 +21024,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
         <v>45839</v>
       </c>
@@ -21041,7 +21042,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
         <v>45870</v>
       </c>
@@ -21059,7 +21060,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
         <v>45901</v>
       </c>
@@ -21077,7 +21078,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
         <v>45931</v>
       </c>
@@ -21095,7 +21096,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
         <v>45962</v>
       </c>
@@ -21113,7 +21114,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
         <v>45992</v>
       </c>
@@ -21131,7 +21132,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
         <v>46023</v>
       </c>
@@ -21149,7 +21150,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
         <v>46054</v>
       </c>
@@ -21167,7 +21168,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
         <v>46082</v>
       </c>
@@ -21185,7 +21186,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
         <v>46113</v>
       </c>
@@ -21203,7 +21204,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
         <v>46143</v>
       </c>
@@ -21221,7 +21222,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
         <v>46174</v>
       </c>
@@ -21239,7 +21240,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
         <v>46204</v>
       </c>
@@ -21257,7 +21258,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
         <v>46235</v>
       </c>
@@ -21275,7 +21276,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
         <v>46266</v>
       </c>
@@ -21293,7 +21294,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
         <v>46296</v>
       </c>
@@ -21311,7 +21312,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
         <v>46327</v>
       </c>
@@ -21329,7 +21330,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
         <v>46357</v>
       </c>
@@ -21347,7 +21348,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
         <v>46388</v>
       </c>
@@ -21365,7 +21366,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
         <v>46419</v>
       </c>
@@ -21383,7 +21384,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
         <v>46447</v>
       </c>
@@ -21401,7 +21402,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
         <v>46478</v>
       </c>
@@ -21419,7 +21420,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
         <v>46508</v>
       </c>
@@ -21437,7 +21438,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
         <v>46539</v>
       </c>
@@ -21455,7 +21456,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
         <v>46569</v>
       </c>
@@ -21473,7 +21474,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
         <v>46600</v>
       </c>
@@ -21491,7 +21492,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
         <v>46631</v>
       </c>
@@ -21509,7 +21510,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
         <v>46661</v>
       </c>
@@ -21527,7 +21528,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
         <v>46692</v>
       </c>
@@ -21545,7 +21546,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
         <v>46722</v>
       </c>
@@ -21563,7 +21564,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
         <v>46753</v>
       </c>
@@ -21581,7 +21582,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
         <v>46784</v>
       </c>
@@ -21599,7 +21600,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
         <v>46813</v>
       </c>
@@ -21617,7 +21618,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
         <v>46844</v>
       </c>
@@ -21635,7 +21636,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
         <v>46874</v>
       </c>
@@ -21653,7 +21654,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
         <v>46905</v>
       </c>
@@ -21671,7 +21672,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
         <v>46935</v>
       </c>
@@ -21689,7 +21690,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
         <v>46966</v>
       </c>
@@ -21707,7 +21708,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
         <v>46997</v>
       </c>
@@ -21725,7 +21726,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
         <v>47027</v>
       </c>
@@ -21743,7 +21744,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
         <v>47058</v>
       </c>
@@ -21761,7 +21762,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
         <v>47088</v>
       </c>
@@ -21779,7 +21780,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
         <v>47119</v>
       </c>
@@ -21797,7 +21798,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
         <v>47150</v>
       </c>
@@ -21815,7 +21816,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
         <v>47178</v>
       </c>
@@ -21833,7 +21834,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
         <v>47209</v>
       </c>
@@ -21851,7 +21852,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
         <v>47239</v>
       </c>
@@ -21869,7 +21870,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
         <v>47270</v>
       </c>
@@ -21887,7 +21888,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
         <v>47300</v>
       </c>
@@ -21905,7 +21906,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
         <v>47331</v>
       </c>
@@ -21923,7 +21924,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
         <v>47362</v>
       </c>
@@ -21941,7 +21942,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
         <v>47392</v>
       </c>
@@ -21959,7 +21960,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
         <v>47423</v>
       </c>
@@ -21977,7 +21978,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
         <v>47453</v>
       </c>
@@ -21995,7 +21996,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
         <v>47484</v>
       </c>
@@ -22013,7 +22014,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
         <v>47515</v>
       </c>
@@ -22031,7 +22032,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
         <v>47543</v>
       </c>
@@ -22049,7 +22050,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
         <v>47574</v>
       </c>
@@ -22067,7 +22068,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
         <v>47604</v>
       </c>
@@ -22085,7 +22086,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
         <v>47635</v>
       </c>
@@ -22103,7 +22104,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
         <v>47665</v>
       </c>
@@ -22121,7 +22122,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
         <v>47696</v>
       </c>
@@ -22139,7 +22140,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
         <v>47727</v>
       </c>
@@ -22157,7 +22158,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
         <v>47757</v>
       </c>
@@ -22175,7 +22176,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
         <v>47788</v>
       </c>
@@ -22193,7 +22194,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
         <v>47818</v>
       </c>
@@ -22211,7 +22212,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
         <v>47849</v>
       </c>
@@ -22229,7 +22230,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
         <v>47880</v>
       </c>
@@ -22247,7 +22248,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
         <v>47908</v>
       </c>
@@ -22265,7 +22266,7 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
         <v>47939</v>
       </c>
@@ -22283,7 +22284,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
         <v>47969</v>
       </c>
@@ -22301,7 +22302,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
         <v>48000</v>
       </c>
@@ -22319,7 +22320,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
         <v>48030</v>
       </c>
@@ -22337,7 +22338,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
         <v>48061</v>
       </c>
@@ -22355,7 +22356,7 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
         <v>48092</v>
       </c>
@@ -22373,7 +22374,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
         <v>48122</v>
       </c>
@@ -22391,7 +22392,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
         <v>48153</v>
       </c>
@@ -22409,7 +22410,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
         <v>48183</v>
       </c>
@@ -22427,7 +22428,7 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
         <v>48214</v>
       </c>
@@ -22445,7 +22446,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
         <v>48245</v>
       </c>
@@ -22463,7 +22464,7 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
         <v>48274</v>
       </c>
@@ -22481,7 +22482,7 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
         <v>48305</v>
       </c>
@@ -22499,7 +22500,7 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
         <v>48335</v>
       </c>
@@ -22517,7 +22518,7 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
         <v>48366</v>
       </c>
@@ -22535,7 +22536,7 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40">
         <v>48396</v>
       </c>
@@ -22553,7 +22554,7 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="40">
         <v>48427</v>
       </c>
@@ -22571,7 +22572,7 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="40">
         <v>48458</v>
       </c>
@@ -22589,7 +22590,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="40">
         <v>48488</v>
       </c>
@@ -22607,7 +22608,7 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="40">
         <v>48519</v>
       </c>
@@ -22625,7 +22626,7 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="40">
         <v>48549</v>
       </c>
@@ -22643,7 +22644,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="40">
         <v>48580</v>
       </c>
@@ -22661,7 +22662,7 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="40">
         <v>48611</v>
       </c>
@@ -22679,7 +22680,7 @@
       <c r="J833" s="11"/>
       <c r="K833" s="20"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="40">
         <v>48639</v>
       </c>
@@ -22697,7 +22698,7 @@
       <c r="J834" s="11"/>
       <c r="K834" s="20"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="40">
         <v>48670</v>
       </c>
@@ -22715,7 +22716,7 @@
       <c r="J835" s="11"/>
       <c r="K835" s="20"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="40">
         <v>48700</v>
       </c>
@@ -22733,7 +22734,7 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="40">
         <v>48731</v>
       </c>
@@ -22751,7 +22752,7 @@
       <c r="J837" s="11"/>
       <c r="K837" s="20"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="40">
         <v>48761</v>
       </c>
@@ -22769,7 +22770,7 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="40">
         <v>48792</v>
       </c>
@@ -22787,7 +22788,7 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="40">
         <v>48823</v>
       </c>
@@ -22805,7 +22806,7 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="40">
         <v>48853</v>
       </c>
@@ -22823,7 +22824,7 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="40">
         <v>48884</v>
       </c>
@@ -22841,7 +22842,7 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="40">
         <v>48914</v>
       </c>
@@ -22859,7 +22860,7 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="40">
         <v>48945</v>
       </c>
@@ -22877,7 +22878,7 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="40">
         <v>48976</v>
       </c>
@@ -22895,7 +22896,7 @@
       <c r="J845" s="11"/>
       <c r="K845" s="20"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="40">
         <v>49004</v>
       </c>
@@ -22928,10 +22929,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22954,7 +22955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -22962,21 +22963,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -22989,7 +22990,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23018,7 +23019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.208</v>
       </c>
@@ -23046,17 +23047,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -23077,7 +23078,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -23104,7 +23105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -23130,7 +23131,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -23156,7 +23157,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -23182,7 +23183,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -23208,7 +23209,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -23234,7 +23235,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -23260,7 +23261,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -23286,7 +23287,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -23306,7 +23307,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -23326,7 +23327,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -23346,7 +23347,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -23367,7 +23368,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -23388,7 +23389,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -23409,7 +23410,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -23430,7 +23431,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -23451,7 +23452,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -23472,7 +23473,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -23493,7 +23494,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -23514,7 +23515,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -23535,7 +23536,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -23556,7 +23557,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -23577,7 +23578,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -23598,7 +23599,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -23619,7 +23620,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -23640,7 +23641,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -23661,7 +23662,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -23682,7 +23683,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -23703,7 +23704,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -23724,7 +23725,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -23745,7 +23746,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -23766,7 +23767,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -23775,7 +23776,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -23784,7 +23785,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -23793,7 +23794,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -23802,7 +23803,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -23811,7 +23812,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -23820,7 +23821,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -23829,7 +23830,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -23838,7 +23839,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -23847,7 +23848,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -23856,7 +23857,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -23865,7 +23866,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -23874,7 +23875,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -23883,7 +23884,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -23892,7 +23893,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -23901,7 +23902,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -23910,7 +23911,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -23919,7 +23920,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -23928,7 +23929,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -23937,7 +23938,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -23946,7 +23947,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -23955,7 +23956,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -23964,7 +23965,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -23973,7 +23974,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -23982,7 +23983,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -23991,7 +23992,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -24000,7 +24001,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -24009,7 +24010,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -24018,7 +24019,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -24027,7 +24028,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LIMBOC, FLORDELIZA.xlsx
+++ b/REGULAR/LIMBOC, FLORDELIZA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D904539-D0E0-4345-A947-9A69A5FC62D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="415">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2163,7 +2164,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2207,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2271,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2331,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,7 +2397,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2460,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2558,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,7 +2617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2681,7 +2682,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2724,7 +2725,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2799,7 +2800,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +2986,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3052,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3109,7 +3110,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3176,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3231,7 +3232,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3306,7 +3307,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3350,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3415,7 +3416,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3472,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,7 +3570,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3632,7 +3633,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,25 +3699,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K846" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K847" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3728,13 +3729,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3743,14 +3744,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4054,7 +4055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4064,7 +4065,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4072,34 +4073,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K846"/>
+  <dimension ref="A2:K847"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="3240" topLeftCell="A705" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D714" sqref="D714"/>
+      <selection pane="bottomLeft" activeCell="B717" sqref="B717"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4120,7 +4121,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4138,7 +4139,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4160,7 +4161,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4168,7 +4169,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4181,7 +4182,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4198,7 +4199,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4252,12 +4253,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.147999999999996</v>
+        <v>62.147999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>42</v>
       </c>
@@ -4279,7 +4280,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35248</v>
       </c>
@@ -4299,7 +4300,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35278</v>
       </c>
@@ -4319,7 +4320,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>35309</v>
@@ -4340,7 +4341,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A104" si="0">EDATE(A13,1)</f>
         <v>35339</v>
@@ -4361,7 +4362,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4382,7 +4383,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4403,7 +4404,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>45</v>
       </c>
@@ -4421,7 +4422,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35431</v>
@@ -4448,7 +4449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4469,7 +4470,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4496,7 +4497,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4517,7 +4518,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4544,7 +4545,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4565,7 +4566,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4592,7 +4593,7 @@
         <v>35632</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>163</v>
@@ -4612,7 +4613,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="47"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -4634,7 +4635,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35643</v>
@@ -4655,7 +4656,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4682,7 +4683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4709,7 +4710,7 @@
         <v>35718</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4736,7 +4737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4763,7 +4764,7 @@
         <v>35737</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
@@ -4781,7 +4782,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>35796</v>
@@ -4802,7 +4803,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4829,7 +4830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4856,7 +4857,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>56</v>
@@ -4876,7 +4877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35886</v>
@@ -4903,7 +4904,7 @@
         <v>35888</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A37,1)</f>
         <v>35916</v>
@@ -4930,7 +4931,7 @@
         <v>35919</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4952,7 +4953,7 @@
         <v>35933</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35947</v>
@@ -4977,7 +4978,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>61</v>
@@ -4997,7 +4998,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>60</v>
@@ -5019,7 +5020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A40,1)</f>
         <v>35977</v>
@@ -5046,7 +5047,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -5067,7 +5068,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -5094,7 +5095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -5121,7 +5122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -5142,7 +5143,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -5163,7 +5164,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>47</v>
       </c>
@@ -5181,7 +5182,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>36161</v>
@@ -5208,7 +5209,7 @@
         <v>36165</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -5235,7 +5236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -5260,7 +5261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -5282,7 +5283,7 @@
         <v>36245</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -5302,7 +5303,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>36251</v>
@@ -5327,7 +5328,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5352,7 +5353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>73</v>
@@ -5372,7 +5373,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36312</v>
@@ -5399,7 +5400,7 @@
         <v>36336</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5426,7 +5427,7 @@
         <v>36363</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5447,7 +5448,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5474,7 +5475,7 @@
         <v>36425</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -5493,12 +5494,12 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.147999999999996</v>
+        <v>62.147999999999996</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="47"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36434</v>
@@ -5525,7 +5526,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5552,7 +5553,7 @@
         <v>36480</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>75</v>
@@ -5572,7 +5573,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36495</v>
@@ -5599,7 +5600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>76</v>
@@ -5619,7 +5620,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="46" t="s">
         <v>66</v>
       </c>
@@ -5637,7 +5638,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>36526</v>
@@ -5662,7 +5663,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5687,7 +5688,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>50</v>
@@ -5709,7 +5710,7 @@
         <v>36571</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5734,7 +5735,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -5754,7 +5755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A72,1)</f>
         <v>36617</v>
@@ -5781,7 +5782,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>83</v>
@@ -5801,7 +5802,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>59</v>
@@ -5822,14 +5823,14 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.147999999999996</v>
+        <v>62.147999999999996</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="47">
         <v>36641</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A74,1)</f>
         <v>36647</v>
@@ -5856,7 +5857,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -5878,7 +5879,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -5900,7 +5901,7 @@
         <v>36665</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>84</v>
@@ -5922,7 +5923,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>86</v>
@@ -5942,7 +5943,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36678</v>
@@ -5969,7 +5970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5991,7 +5992,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>88</v>
@@ -6013,7 +6014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36708</v>
@@ -6038,7 +6039,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -6065,7 +6066,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>94</v>
@@ -6085,7 +6086,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36770</v>
@@ -6110,7 +6111,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -6137,7 +6138,7 @@
         <v>36802</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>60</v>
@@ -6159,7 +6160,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>96</v>
@@ -6179,7 +6180,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="47"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>36831</v>
@@ -6206,7 +6207,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>98</v>
@@ -6226,7 +6227,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="47"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36861</v>
@@ -6251,7 +6252,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>100</v>
       </c>
@@ -6269,7 +6270,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>36892</v>
@@ -6290,7 +6291,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -6317,7 +6318,7 @@
         <v>36942</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -6344,7 +6345,7 @@
         <v>36980</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -6371,7 +6372,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>67</v>
@@ -6393,7 +6394,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37012</v>
@@ -6418,7 +6419,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -6439,7 +6440,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -6466,7 +6467,7 @@
         <v>37076</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -6493,7 +6494,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>59</v>
@@ -6515,7 +6516,7 @@
         <v>37128</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>50</v>
@@ -6537,7 +6538,7 @@
         <v>37105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>37135</v>
@@ -6564,7 +6565,7 @@
         <v>37146</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6586,7 +6587,7 @@
         <v>37149</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>50</v>
@@ -6608,7 +6609,7 @@
         <v>37160</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>50</v>
@@ -6630,7 +6631,7 @@
         <v>37163</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f>EDATE(A107,1)</f>
         <v>37165</v>
@@ -6657,7 +6658,7 @@
         <v>37167</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>51</v>
@@ -6679,7 +6680,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>105</v>
@@ -6699,7 +6700,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f>EDATE(A111,1)</f>
         <v>37196</v>
@@ -6726,7 +6727,7 @@
         <v>37209</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>59</v>
@@ -6748,7 +6749,7 @@
         <v>37219</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>78</v>
@@ -6768,7 +6769,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="47"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -6789,7 +6790,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="46" t="s">
         <v>103</v>
       </c>
@@ -6807,7 +6808,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6834,7 +6835,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>131</v>
@@ -6858,7 +6859,7 @@
         <v>37279</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>127</v>
@@ -6878,7 +6879,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -6907,7 +6908,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>56</v>
@@ -6927,7 +6928,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>37316</v>
@@ -6948,7 +6949,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A231" si="1">EDATE(A124,1)</f>
         <v>37347</v>
@@ -6969,7 +6970,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6996,7 +6997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -7017,7 +7018,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -7044,7 +7045,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -7069,7 +7070,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -7094,7 +7095,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -7121,7 +7122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -7148,7 +7149,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>137</v>
@@ -7168,7 +7169,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="47"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37591</v>
@@ -7193,7 +7194,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>139</v>
@@ -7213,7 +7214,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="46" t="s">
         <v>106</v>
       </c>
@@ -7231,7 +7232,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A134,1)</f>
         <v>37622</v>
@@ -7256,7 +7257,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -7277,7 +7278,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -7304,7 +7305,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>56</v>
@@ -7324,7 +7325,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>37712</v>
@@ -7351,7 +7352,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -7371,7 +7372,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>143</v>
@@ -7391,7 +7392,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>37742</v>
@@ -7418,7 +7419,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -7445,7 +7446,7 @@
         <v>37773</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>50</v>
@@ -7467,7 +7468,7 @@
         <v>37797</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>144</v>
@@ -7487,7 +7488,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="47"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A145,1)</f>
         <v>37803</v>
@@ -7508,7 +7509,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -7535,7 +7536,7 @@
         <v>37837</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -7560,7 +7561,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -7587,7 +7588,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>147</v>
@@ -7607,7 +7608,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="47"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>37926</v>
@@ -7634,7 +7635,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>148</v>
@@ -7654,7 +7655,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="47"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f>EDATE(A153,1)</f>
         <v>37956</v>
@@ -7679,7 +7680,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>150</v>
@@ -7699,7 +7700,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="46" t="s">
         <v>107</v>
       </c>
@@ -7717,7 +7718,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>37987</v>
@@ -7742,7 +7743,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -7769,7 +7770,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>153</v>
@@ -7789,7 +7790,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38047</v>
@@ -7816,7 +7817,7 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -7838,7 +7839,7 @@
         <v>38054</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7860,7 +7861,7 @@
         <v>38069</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>56</v>
@@ -7880,7 +7881,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A161,1)</f>
         <v>38078</v>
@@ -7905,7 +7906,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -7932,7 +7933,7 @@
         <v>38110</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>50</v>
@@ -7954,7 +7955,7 @@
         <v>38121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>50</v>
@@ -7976,7 +7977,7 @@
         <v>38132</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>156</v>
@@ -7996,7 +7997,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A166,1)</f>
         <v>38139</v>
@@ -8023,7 +8024,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -8050,7 +8051,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -8072,7 +8073,7 @@
         <v>38187</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>157</v>
@@ -8092,7 +8093,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A171,1)</f>
         <v>38200</v>
@@ -8119,7 +8120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>48</v>
@@ -8141,7 +8142,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>59</v>
@@ -8163,7 +8164,7 @@
         <v>38216</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>160</v>
@@ -8183,7 +8184,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="47"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A174,1)</f>
         <v>38231</v>
@@ -8210,7 +8211,7 @@
         <v>38236</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>50</v>
@@ -8232,7 +8233,7 @@
         <v>38253</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>161</v>
@@ -8252,7 +8253,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="47"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38261</v>
@@ -8273,7 +8274,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -8300,7 +8301,7 @@
         <v>38309</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -8325,7 +8326,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="46" t="s">
         <v>108</v>
       </c>
@@ -8343,7 +8344,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38353</v>
@@ -8364,7 +8365,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -8385,7 +8386,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -8406,7 +8407,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -8431,7 +8432,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -8452,7 +8453,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -8473,7 +8474,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -8494,7 +8495,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -8515,7 +8516,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -8536,7 +8537,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -8557,7 +8558,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -8578,7 +8579,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -8603,7 +8604,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="46" t="s">
         <v>109</v>
       </c>
@@ -8621,7 +8622,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>38718</v>
@@ -8648,7 +8649,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>163</v>
@@ -8670,7 +8671,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>163</v>
@@ -8692,7 +8693,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>38749</v>
@@ -8719,7 +8720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>168</v>
@@ -8739,7 +8740,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38777</v>
@@ -8760,7 +8761,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -8785,7 +8786,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>48</v>
@@ -8807,7 +8808,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>170</v>
@@ -8827,7 +8828,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>38838</v>
@@ -8854,7 +8855,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="15" t="s">
         <v>172</v>
@@ -8874,7 +8875,7 @@
       <c r="J208" s="12"/>
       <c r="K208" s="49"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>38869</v>
@@ -8901,7 +8902,7 @@
         <v>38870</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>173</v>
@@ -8921,7 +8922,7 @@
       <c r="J210" s="12"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>38899</v>
@@ -8948,7 +8949,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>50</v>
@@ -8970,7 +8971,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>174</v>
@@ -8990,7 +8991,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>38930</v>
@@ -9015,7 +9016,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A214,1)</f>
         <v>38961</v>
@@ -9042,7 +9043,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>50</v>
@@ -9064,7 +9065,7 @@
         <v>38994</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>176</v>
@@ -9084,7 +9085,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38991</v>
@@ -9111,7 +9112,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>177</v>
@@ -9131,7 +9132,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="47"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39022</v>
@@ -9156,7 +9157,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
@@ -9183,7 +9184,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>179</v>
@@ -9203,7 +9204,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>181</v>
@@ -9223,7 +9224,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="46" t="s">
         <v>110</v>
       </c>
@@ -9241,7 +9242,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A221,1)</f>
         <v>39083</v>
@@ -9268,7 +9269,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>50</v>
@@ -9290,7 +9291,7 @@
         <v>39104</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>50</v>
@@ -9312,7 +9313,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>182</v>
@@ -9332,7 +9333,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A225,1)</f>
         <v>39114</v>
@@ -9357,7 +9358,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -9382,7 +9383,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -9409,7 +9410,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>56</v>
@@ -9429,7 +9430,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>56</v>
@@ -9449,7 +9450,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -9471,7 +9472,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>188</v>
@@ -9491,7 +9492,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="47"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A231,1)</f>
         <v>39203</v>
@@ -9518,7 +9519,7 @@
         <v>39209</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9540,7 +9541,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>56</v>
@@ -9560,7 +9561,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>67</v>
@@ -9582,7 +9583,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>191</v>
@@ -9602,7 +9603,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f>EDATE(A236,1)</f>
         <v>39234</v>
@@ -9627,7 +9628,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" ref="A242:A423" si="2">EDATE(A241,1)</f>
         <v>39264</v>
@@ -9654,7 +9655,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>194</v>
@@ -9674,7 +9675,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39295</v>
@@ -9699,7 +9700,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9726,7 +9727,7 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>50</v>
@@ -9748,7 +9749,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>196</v>
@@ -9768,7 +9769,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A245,1)</f>
         <v>39356</v>
@@ -9793,7 +9794,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -9820,7 +9821,7 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>138</v>
@@ -9842,7 +9843,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>198</v>
@@ -9862,7 +9863,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>39417</v>
@@ -9887,7 +9888,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="46" t="s">
         <v>111</v>
       </c>
@@ -9905,7 +9906,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>39448</v>
@@ -9932,7 +9933,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>201</v>
@@ -9952,7 +9953,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="47"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39479</v>
@@ -9979,7 +9980,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>127</v>
@@ -9999,7 +10000,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>50</v>
@@ -10021,7 +10022,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>203</v>
@@ -10041,7 +10042,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="47"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39508</v>
@@ -10066,7 +10067,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -10088,7 +10089,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>50</v>
@@ -10110,7 +10111,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -10132,7 +10133,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>205</v>
@@ -10152,7 +10153,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f>EDATE(A260,1)</f>
         <v>39539</v>
@@ -10179,7 +10180,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>48</v>
@@ -10201,7 +10202,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>61</v>
@@ -10223,7 +10224,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>50</v>
@@ -10245,7 +10246,7 @@
         <v>39559</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>208</v>
@@ -10265,7 +10266,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A265,1)</f>
         <v>39569</v>
@@ -10292,7 +10293,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>50</v>
@@ -10314,7 +10315,7 @@
         <v>39575</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>50</v>
@@ -10336,7 +10337,7 @@
         <v>39582</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>48</v>
@@ -10358,7 +10359,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>138</v>
@@ -10380,7 +10381,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>210</v>
@@ -10400,7 +10401,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A270,1)</f>
         <v>39600</v>
@@ -10425,7 +10426,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>50</v>
@@ -10445,7 +10446,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>50</v>
@@ -10465,7 +10466,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>178</v>
@@ -10485,7 +10486,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>39630</v>
@@ -10512,7 +10513,7 @@
         <v>39636</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>48</v>
@@ -10538,7 +10539,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>39661</v>
@@ -10565,7 +10566,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>131</v>
@@ -10587,7 +10588,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>131</v>
@@ -10609,7 +10610,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>215</v>
@@ -10629,7 +10630,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>39692</v>
@@ -10656,7 +10657,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>216</v>
@@ -10676,7 +10677,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="47"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39722</v>
@@ -10703,7 +10704,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>131</v>
@@ -10727,7 +10728,7 @@
         <v>39737</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>61</v>
@@ -10749,7 +10750,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>131</v>
@@ -10771,7 +10772,7 @@
         <v>39742</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>131</v>
@@ -10793,7 +10794,7 @@
         <v>39751</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>217</v>
@@ -10813,7 +10814,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A288,1)</f>
         <v>39753</v>
@@ -10844,7 +10845,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>131</v>
@@ -10866,7 +10867,7 @@
         <v>39772</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>131</v>
@@ -10888,7 +10889,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10910,7 +10911,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>218</v>
@@ -10930,7 +10931,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A294,1)</f>
         <v>39783</v>
@@ -10957,7 +10958,7 @@
         <v>39793</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>220</v>
@@ -10977,7 +10978,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="46" t="s">
         <v>112</v>
       </c>
@@ -10995,7 +10996,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39814</v>
@@ -11024,7 +11025,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>131</v>
@@ -11046,7 +11047,7 @@
         <v>39822</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>61</v>
@@ -11068,7 +11069,7 @@
         <v>39843</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>221</v>
@@ -11088,7 +11089,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A302,1)</f>
         <v>39845</v>
@@ -11115,7 +11116,7 @@
         <v>39856</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>222</v>
@@ -11139,7 +11140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>61</v>
@@ -11161,7 +11162,7 @@
         <v>39864</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>223</v>
@@ -11181,7 +11182,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>39873</v>
@@ -11208,7 +11209,7 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>131</v>
@@ -11228,7 +11229,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>56</v>
@@ -11248,7 +11249,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>131</v>
@@ -11270,7 +11271,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>131</v>
@@ -11292,7 +11293,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -11312,7 +11313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>226</v>
@@ -11332,7 +11333,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A310,1)</f>
         <v>39904</v>
@@ -11361,7 +11362,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>56</v>
@@ -11381,7 +11382,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>131</v>
@@ -11401,7 +11402,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>229</v>
@@ -11421,7 +11422,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A317,1)</f>
         <v>39934</v>
@@ -11450,7 +11451,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>131</v>
@@ -11472,7 +11473,7 @@
         <v>39941</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>131</v>
@@ -11494,7 +11495,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>233</v>
@@ -11516,7 +11517,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="47"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A321,1)</f>
         <v>39965</v>
@@ -11545,7 +11546,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>131</v>
@@ -11567,7 +11568,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>131</v>
@@ -11589,7 +11590,7 @@
         <v>39989</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>234</v>
@@ -11609,7 +11610,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>39995</v>
@@ -11636,7 +11637,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>222</v>
@@ -11660,7 +11661,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>236</v>
@@ -11680,7 +11681,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="47"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A329,1)</f>
         <v>40026</v>
@@ -11707,7 +11708,7 @@
         <v>40039</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>50</v>
@@ -11731,7 +11732,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>238</v>
@@ -11751,7 +11752,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A332,1)</f>
         <v>40057</v>
@@ -11784,7 +11785,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>131</v>
@@ -11808,7 +11809,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>240</v>
@@ -11828,7 +11829,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A335,1)</f>
         <v>40087</v>
@@ -11855,7 +11856,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>131</v>
@@ -11879,7 +11880,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>222</v>
@@ -11905,7 +11906,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>242</v>
@@ -11925,7 +11926,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A338,1)</f>
         <v>40118</v>
@@ -11952,7 +11953,7 @@
         <v>40129</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>131</v>
@@ -11974,7 +11975,7 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>244</v>
@@ -11994,7 +11995,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="47"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f>EDATE(A342,1)</f>
         <v>40148</v>
@@ -12021,7 +12022,7 @@
         <v>40176</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>245</v>
@@ -12041,7 +12042,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="47"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="46" t="s">
         <v>113</v>
       </c>
@@ -12059,7 +12060,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40179</v>
@@ -12084,7 +12085,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -12109,7 +12110,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>48</v>
@@ -12131,7 +12132,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>50</v>
@@ -12153,7 +12154,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>56</v>
@@ -12173,7 +12174,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>247</v>
@@ -12193,7 +12194,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A349,1)</f>
         <v>40238</v>
@@ -12224,7 +12225,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>50</v>
@@ -12246,7 +12247,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>56</v>
@@ -12266,7 +12267,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>250</v>
@@ -12286,7 +12287,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A354,1)</f>
         <v>40269</v>
@@ -12313,7 +12314,7 @@
         <v>40283</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>253</v>
@@ -12333,7 +12334,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="47"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40299</v>
@@ -12360,7 +12361,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>50</v>
@@ -12382,7 +12383,7 @@
         <v>40309</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>50</v>
@@ -12404,7 +12405,7 @@
         <v>40311</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>59</v>
@@ -12423,7 +12424,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>254</v>
@@ -12440,7 +12441,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="47"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f>EDATE(A360,1)</f>
         <v>40330</v>
@@ -12467,7 +12468,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>255</v>
@@ -12487,7 +12488,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="47"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A365,1)</f>
         <v>40360</v>
@@ -12514,7 +12515,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>256</v>
@@ -12534,7 +12535,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f>EDATE(A367,1)</f>
         <v>40391</v>
@@ -12561,7 +12562,7 @@
         <v>40407</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>257</v>
@@ -12581,7 +12582,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="47"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>40422</v>
@@ -12608,7 +12609,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>50</v>
@@ -12630,7 +12631,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>258</v>
@@ -12650,7 +12651,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>40452</v>
@@ -12675,7 +12676,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -12702,7 +12703,7 @@
         <v>40484</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>260</v>
@@ -12722,7 +12723,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="47"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>40513</v>
@@ -12749,7 +12750,7 @@
         <v>40519</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>261</v>
@@ -12769,7 +12770,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="46" t="s">
         <v>114</v>
       </c>
@@ -12787,7 +12788,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>40544</v>
@@ -12814,7 +12815,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>50</v>
@@ -12836,7 +12837,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>50</v>
@@ -12858,7 +12859,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>262</v>
@@ -12878,7 +12879,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="47"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A380,1)</f>
         <v>40575</v>
@@ -12905,7 +12906,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>263</v>
@@ -12925,7 +12926,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="47"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>40603</v>
@@ -12950,7 +12951,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>131</v>
@@ -12972,7 +12973,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>48</v>
@@ -12994,7 +12995,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>56</v>
@@ -13014,7 +13015,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>266</v>
@@ -13034,7 +13035,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A386,1)</f>
         <v>40634</v>
@@ -13067,7 +13068,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>56</v>
@@ -13087,7 +13088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>50</v>
@@ -13109,7 +13110,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>50</v>
@@ -13131,7 +13132,7 @@
         <v>40658</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>269</v>
@@ -13151,7 +13152,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A391,1)</f>
         <v>40664</v>
@@ -13180,7 +13181,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -13202,7 +13203,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>50</v>
@@ -13224,7 +13225,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>56</v>
@@ -13244,7 +13245,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>270</v>
@@ -13264,7 +13265,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A396,1)</f>
         <v>40695</v>
@@ -13297,7 +13298,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>275</v>
@@ -13319,7 +13320,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f>EDATE(A401,1)</f>
         <v>40725</v>
@@ -13342,7 +13343,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="2"/>
         <v>40756</v>
@@ -13371,7 +13372,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>277</v>
@@ -13393,7 +13394,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f>EDATE(A404,1)</f>
         <v>40787</v>
@@ -13420,7 +13421,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>278</v>
@@ -13440,7 +13441,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>40817</v>
@@ -13467,7 +13468,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>50</v>
@@ -13489,7 +13490,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>50</v>
@@ -13511,7 +13512,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>279</v>
@@ -13531,7 +13532,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f>EDATE(A408,1)</f>
         <v>40848</v>
@@ -13556,7 +13557,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="2"/>
         <v>40878</v>
@@ -13583,7 +13584,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>281</v>
@@ -13605,7 +13606,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="47"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="46" t="s">
         <v>115</v>
       </c>
@@ -13623,7 +13624,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A413,1)</f>
         <v>40909</v>
@@ -13650,7 +13651,7 @@
         <v>40911</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>56</v>
@@ -13670,7 +13671,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>50</v>
@@ -13692,7 +13693,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13714,7 +13715,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>84</v>
@@ -13736,7 +13737,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>284</v>
@@ -13758,7 +13759,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f>EDATE(A416,1)</f>
         <v>40940</v>
@@ -13785,7 +13786,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="2"/>
         <v>40969</v>
@@ -13812,7 +13813,7 @@
         <v>40991</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>286</v>
@@ -13834,7 +13835,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="47"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>41000</v>
@@ -13861,7 +13862,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>56</v>
@@ -13879,7 +13880,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>222</v>
@@ -13907,7 +13908,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>289</v>
@@ -13927,7 +13928,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f>EDATE(A425,1)</f>
         <v>41030</v>
@@ -13954,7 +13955,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -13976,7 +13977,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>50</v>
@@ -13998,7 +13999,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>50</v>
@@ -14020,7 +14021,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>290</v>
@@ -14040,7 +14041,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A429,1)</f>
         <v>41061</v>
@@ -14067,7 +14068,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>50</v>
@@ -14089,7 +14090,7 @@
         <v>41079</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>50</v>
@@ -14111,7 +14112,7 @@
         <v>41085</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>50</v>
@@ -14133,7 +14134,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>293</v>
@@ -14153,7 +14154,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="47"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A434,1)</f>
         <v>41091</v>
@@ -14180,7 +14181,7 @@
         <v>41101</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -14202,7 +14203,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>84</v>
@@ -14224,7 +14225,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>294</v>
@@ -14244,7 +14245,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A439,1)</f>
         <v>41122</v>
@@ -14271,7 +14272,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>50</v>
@@ -14293,7 +14294,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>297</v>
@@ -14313,7 +14314,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A443,1)</f>
         <v>41153</v>
@@ -14344,7 +14345,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>59</v>
@@ -14366,7 +14367,7 @@
         <v>41173</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>50</v>
@@ -14388,7 +14389,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>275</v>
@@ -14410,7 +14411,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="47"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A446,1)</f>
         <v>41183</v>
@@ -14437,7 +14438,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>50</v>
@@ -14459,7 +14460,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>131</v>
@@ -14481,7 +14482,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="47"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>298</v>
@@ -14503,7 +14504,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="47"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A450,1)</f>
         <v>41214</v>
@@ -14530,7 +14531,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>50</v>
@@ -14552,7 +14553,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>299</v>
@@ -14576,7 +14577,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>41244</v>
@@ -14603,7 +14604,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="46" t="s">
         <v>116</v>
       </c>
@@ -14621,7 +14622,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f>EDATE(A457,1)</f>
         <v>41275</v>
@@ -14648,7 +14649,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>50</v>
@@ -14670,7 +14671,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>222</v>
@@ -14692,7 +14693,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>303</v>
@@ -14712,7 +14713,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A459,1)</f>
         <v>41306</v>
@@ -14741,7 +14742,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -14763,7 +14764,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>50</v>
@@ -14785,7 +14786,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>50</v>
@@ -14807,7 +14808,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>304</v>
@@ -14827,7 +14828,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A463,1)</f>
         <v>41334</v>
@@ -14854,7 +14855,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14878,7 +14879,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>307</v>
@@ -14898,7 +14899,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A468,1)</f>
         <v>41365</v>
@@ -14925,7 +14926,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>56</v>
@@ -14945,7 +14946,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>127</v>
@@ -14965,7 +14966,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>60</v>
@@ -14985,7 +14986,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>309</v>
@@ -15005,7 +15006,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -15034,7 +15035,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -15056,7 +15057,7 @@
         <v>41425</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -15078,7 +15079,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>316</v>
@@ -15098,7 +15099,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="47"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f>EDATE(A476,1)</f>
         <v>41426</v>
@@ -15125,7 +15126,7 @@
         <v>41438</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>316</v>
@@ -15145,7 +15146,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>41456</v>
@@ -15172,7 +15173,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>50</v>
@@ -15194,7 +15195,7 @@
         <v>41470</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>84</v>
@@ -15216,7 +15217,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>48</v>
@@ -15238,7 +15239,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>67</v>
@@ -15260,7 +15261,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>317</v>
@@ -15280,7 +15281,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="47"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -15307,7 +15308,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>321</v>
@@ -15327,7 +15328,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="47"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>41518</v>
@@ -15354,7 +15355,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>50</v>
@@ -15376,7 +15377,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>322</v>
@@ -15396,7 +15397,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>41548</v>
@@ -15423,7 +15424,7 @@
         <v>41540</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>131</v>
@@ -15447,7 +15448,7 @@
         <v>41550</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>50</v>
@@ -15469,7 +15470,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>323</v>
@@ -15489,7 +15490,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>41579</v>
@@ -15516,7 +15517,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>324</v>
@@ -15536,7 +15537,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="47"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A497,1)</f>
         <v>41609</v>
@@ -15563,7 +15564,7 @@
         <v>41624</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>222</v>
@@ -15587,7 +15588,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>326</v>
@@ -15607,7 +15608,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="46" t="s">
         <v>117</v>
       </c>
@@ -15625,7 +15626,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A499,1)</f>
         <v>41640</v>
@@ -15652,7 +15653,7 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>327</v>
@@ -15672,7 +15673,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="47"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>41671</v>
@@ -15699,7 +15700,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>131</v>
@@ -15725,7 +15726,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>56</v>
@@ -15745,7 +15746,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>48</v>
@@ -15767,7 +15768,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>50</v>
@@ -15789,7 +15790,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>59</v>
@@ -15811,7 +15812,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>56</v>
@@ -15831,7 +15832,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>50</v>
@@ -15853,7 +15854,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>56</v>
@@ -15873,7 +15874,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>328</v>
@@ -15893,7 +15894,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>50</v>
@@ -15915,7 +15916,7 @@
         <v>41752</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f>EDATE(A505,1)</f>
         <v>41699</v>
@@ -15940,7 +15941,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>48</v>
@@ -15962,7 +15963,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>41730</v>
@@ -15987,7 +15988,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -16009,7 +16010,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>41760</v>
@@ -16034,7 +16035,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>48</v>
@@ -16056,7 +16057,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>41791</v>
@@ -16081,7 +16082,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>50</v>
@@ -16101,7 +16102,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>41821</v>
@@ -16126,7 +16127,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>50</v>
@@ -16148,7 +16149,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>50</v>
@@ -16170,7 +16171,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <f>EDATE(A524,1)</f>
         <v>41852</v>
@@ -16195,7 +16196,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>50</v>
@@ -16217,7 +16218,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <f>EDATE(A527,1)</f>
         <v>41883</v>
@@ -16242,7 +16243,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>50</v>
@@ -16264,7 +16265,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>41913</v>
@@ -16289,7 +16290,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>50</v>
@@ -16311,7 +16312,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>399</v>
@@ -16333,7 +16334,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -16355,7 +16356,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f>EDATE(A531,1)</f>
         <v>41944</v>
@@ -16380,7 +16381,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>50</v>
@@ -16402,7 +16403,7 @@
         <v>41954</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f>EDATE(A535,1)</f>
         <v>41974</v>
@@ -16429,7 +16430,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>170</v>
@@ -16449,7 +16450,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="46" t="s">
         <v>118</v>
       </c>
@@ -16467,7 +16468,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f>EDATE(A537,1)</f>
         <v>42005</v>
@@ -16494,7 +16495,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>50</v>
@@ -16516,7 +16517,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>56</v>
@@ -16536,7 +16537,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>56</v>
@@ -16556,7 +16557,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f>EDATE(A540,1)</f>
         <v>42036</v>
@@ -16583,7 +16584,7 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f t="shared" ref="A545:A598" si="3">EDATE(A544,1)</f>
         <v>42064</v>
@@ -16604,7 +16605,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="3"/>
         <v>42095</v>
@@ -16629,7 +16630,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>50</v>
@@ -16651,7 +16652,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <f>EDATE(A546,1)</f>
         <v>42125</v>
@@ -16672,7 +16673,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f t="shared" si="3"/>
         <v>42156</v>
@@ -16699,7 +16700,7 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f t="shared" si="3"/>
         <v>42186</v>
@@ -16720,7 +16721,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -16741,7 +16742,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -16768,7 +16769,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -16795,7 +16796,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f>EDATE(A553,1)</f>
         <v>42309</v>
@@ -16822,7 +16823,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="3"/>
         <v>42339</v>
@@ -16843,7 +16844,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="46" t="s">
         <v>119</v>
       </c>
@@ -16861,7 +16862,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f>EDATE(A555,1)</f>
         <v>42370</v>
@@ -16886,7 +16887,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -16911,7 +16912,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f t="shared" si="3"/>
         <v>42430</v>
@@ -16936,7 +16937,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -16961,7 +16962,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>50</v>
@@ -16983,7 +16984,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>346</v>
@@ -17003,7 +17004,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f>EDATE(A560,1)</f>
         <v>42491</v>
@@ -17028,7 +17029,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -17053,7 +17054,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -17078,7 +17079,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -17103,7 +17104,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -17130,7 +17131,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>50</v>
@@ -17150,7 +17151,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>50</v>
@@ -17172,7 +17173,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>50</v>
@@ -17194,7 +17195,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>84</v>
@@ -17216,7 +17217,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>50</v>
@@ -17238,7 +17239,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>353</v>
@@ -17258,7 +17259,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>354</v>
@@ -17280,7 +17281,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>355</v>
@@ -17302,7 +17303,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A567,1)</f>
         <v>42644</v>
@@ -17329,7 +17330,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>359</v>
@@ -17349,7 +17350,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -17371,7 +17372,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>48</v>
@@ -17393,7 +17394,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>50</v>
@@ -17415,7 +17416,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>50</v>
@@ -17437,7 +17438,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <f>EDATE(A576,1)</f>
         <v>42675</v>
@@ -17462,7 +17463,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>48</v>
@@ -17484,7 +17485,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f>EDATE(A582,1)</f>
         <v>42705</v>
@@ -17509,7 +17510,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="46" t="s">
         <v>120</v>
       </c>
@@ -17527,7 +17528,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <f>EDATE(A584,1)</f>
         <v>42736</v>
@@ -17554,7 +17555,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>84</v>
@@ -17576,7 +17577,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>84</v>
@@ -17598,7 +17599,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>42767</v>
@@ -17619,7 +17620,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f t="shared" si="3"/>
         <v>42795</v>
@@ -17646,7 +17647,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>84</v>
@@ -17668,7 +17669,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17695,7 +17696,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f t="shared" si="3"/>
         <v>42856</v>
@@ -17724,7 +17725,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <f t="shared" si="3"/>
         <v>42887</v>
@@ -17749,7 +17750,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <f t="shared" si="3"/>
         <v>42917</v>
@@ -17770,7 +17771,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f t="shared" si="3"/>
         <v>42948</v>
@@ -17797,7 +17798,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <f t="shared" si="3"/>
         <v>42979</v>
@@ -17824,7 +17825,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <f t="shared" si="3"/>
         <v>43009</v>
@@ -17851,7 +17852,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>50</v>
@@ -17873,7 +17874,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>50</v>
@@ -17895,7 +17896,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>50</v>
@@ -17917,7 +17918,7 @@
         <v>43038</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <f>EDATE(A598,1)</f>
         <v>43040</v>
@@ -17944,7 +17945,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>131</v>
@@ -17966,7 +17967,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43070</v>
@@ -17993,7 +17994,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>84</v>
@@ -18015,7 +18016,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="46" t="s">
         <v>121</v>
       </c>
@@ -18033,7 +18034,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <f>EDATE(A604,1)</f>
         <v>43101</v>
@@ -18060,7 +18061,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>222</v>
@@ -18086,7 +18087,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f>EDATE(A607,1)</f>
         <v>43132</v>
@@ -18115,7 +18116,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>84</v>
@@ -18137,7 +18138,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -18159,7 +18160,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>48</v>
@@ -18181,7 +18182,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>50</v>
@@ -18203,7 +18204,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -18224,7 +18225,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <f t="shared" ref="A615:A702" si="4">EDATE(A614,1)</f>
         <v>43191</v>
@@ -18245,7 +18246,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <f t="shared" si="4"/>
         <v>43221</v>
@@ -18272,7 +18273,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>50</v>
@@ -18294,7 +18295,7 @@
         <v>43273</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>50</v>
@@ -18316,7 +18317,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <f>EDATE(A616,1)</f>
         <v>43252</v>
@@ -18341,7 +18342,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <f t="shared" si="4"/>
         <v>43282</v>
@@ -18362,7 +18363,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <f t="shared" si="4"/>
         <v>43313</v>
@@ -18383,7 +18384,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <f t="shared" si="4"/>
         <v>43344</v>
@@ -18404,7 +18405,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <f t="shared" si="4"/>
         <v>43374</v>
@@ -18431,7 +18432,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f t="shared" si="4"/>
         <v>43405</v>
@@ -18458,7 +18459,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>50</v>
@@ -18480,7 +18481,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>50</v>
@@ -18502,7 +18503,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f>EDATE(A624,1)</f>
         <v>43435</v>
@@ -18529,7 +18530,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>131</v>
@@ -18553,7 +18554,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="46" t="s">
         <v>122</v>
       </c>
@@ -18571,7 +18572,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -18598,7 +18599,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>127</v>
@@ -18618,7 +18619,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <f>EDATE(A630,1)</f>
         <v>43497</v>
@@ -18645,7 +18646,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>131</v>
@@ -18669,7 +18670,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>131</v>
@@ -18691,7 +18692,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>131</v>
@@ -18713,7 +18714,7 @@
         <v>43163</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <f>EDATE(A632,1)</f>
         <v>43525</v>
@@ -18742,7 +18743,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f t="shared" si="4"/>
         <v>43556</v>
@@ -18769,7 +18770,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>131</v>
@@ -18791,7 +18792,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>131</v>
@@ -18813,7 +18814,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>50</v>
@@ -18835,7 +18836,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>48</v>
@@ -18857,7 +18858,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>375</v>
@@ -18879,7 +18880,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>50</v>
@@ -18901,7 +18902,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>56</v>
@@ -18921,7 +18922,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <f>EDATE(A637,1)</f>
         <v>43586</v>
@@ -18942,7 +18943,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <f t="shared" si="4"/>
         <v>43617</v>
@@ -18963,7 +18964,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <f t="shared" si="4"/>
         <v>43647</v>
@@ -18990,7 +18991,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>50</v>
@@ -19012,7 +19013,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>222</v>
@@ -19034,7 +19035,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>131</v>
@@ -19058,7 +19059,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43678</v>
@@ -19079,7 +19080,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <f t="shared" si="4"/>
         <v>43709</v>
@@ -19106,7 +19107,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>50</v>
@@ -19128,7 +19129,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>222</v>
@@ -19150,7 +19151,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>131</v>
@@ -19174,7 +19175,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
         <v>48</v>
@@ -19196,7 +19197,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <f>EDATE(A652,1)</f>
         <v>43739</v>
@@ -19223,7 +19224,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>50</v>
@@ -19249,7 +19250,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>48</v>
@@ -19271,7 +19272,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <f>EDATE(A657,1)</f>
         <v>43770</v>
@@ -19298,7 +19299,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>131</v>
@@ -19322,7 +19323,7 @@
       </c>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>131</v>
@@ -19344,7 +19345,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>48</v>
@@ -19366,7 +19367,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>43800</v>
@@ -19397,7 +19398,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="46" t="s">
         <v>123</v>
       </c>
@@ -19415,7 +19416,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>43831</v>
@@ -19440,7 +19441,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>384</v>
@@ -19460,7 +19461,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>56</v>
@@ -19480,7 +19481,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>87</v>
@@ -19502,7 +19503,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <f>EDATE(A666,1)</f>
         <v>43862</v>
@@ -19523,7 +19524,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <f t="shared" si="4"/>
         <v>43891</v>
@@ -19544,7 +19545,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <f t="shared" si="4"/>
         <v>43922</v>
@@ -19571,7 +19572,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <f t="shared" si="4"/>
         <v>43952</v>
@@ -19592,7 +19593,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <f t="shared" si="4"/>
         <v>43983</v>
@@ -19613,7 +19614,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <f t="shared" si="4"/>
         <v>44013</v>
@@ -19640,7 +19641,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <f t="shared" si="4"/>
         <v>44044</v>
@@ -19667,7 +19668,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>50</v>
@@ -19689,7 +19690,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <f>EDATE(A676,1)</f>
         <v>44075</v>
@@ -19716,7 +19717,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>50</v>
@@ -19740,7 +19741,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44105</v>
@@ -19767,7 +19768,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <f t="shared" si="4"/>
         <v>44136</v>
@@ -19788,7 +19789,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <f t="shared" si="4"/>
         <v>44166</v>
@@ -19809,7 +19810,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="46" t="s">
         <v>124</v>
       </c>
@@ -19827,7 +19828,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <f>EDATE(A682,1)</f>
         <v>44197</v>
@@ -19848,7 +19849,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <f t="shared" si="4"/>
         <v>44228</v>
@@ -19869,7 +19870,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <f t="shared" si="4"/>
         <v>44256</v>
@@ -19900,7 +19901,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <f t="shared" si="4"/>
         <v>44287</v>
@@ -19921,7 +19922,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <f t="shared" si="4"/>
         <v>44317</v>
@@ -19942,7 +19943,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <f t="shared" si="4"/>
         <v>44348</v>
@@ -19963,7 +19964,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <f t="shared" si="4"/>
         <v>44378</v>
@@ -19984,7 +19985,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <f t="shared" si="4"/>
         <v>44409</v>
@@ -20005,7 +20006,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <f t="shared" si="4"/>
         <v>44440</v>
@@ -20026,7 +20027,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <f t="shared" si="4"/>
         <v>44470</v>
@@ -20047,7 +20048,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <f t="shared" si="4"/>
         <v>44501</v>
@@ -20068,7 +20069,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <f t="shared" si="4"/>
         <v>44531</v>
@@ -20093,7 +20094,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="46" t="s">
         <v>125</v>
       </c>
@@ -20111,7 +20112,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <f>EDATE(A695,1)</f>
         <v>44562</v>
@@ -20132,7 +20133,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <f t="shared" si="4"/>
         <v>44593</v>
@@ -20153,7 +20154,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
         <f t="shared" si="4"/>
         <v>44621</v>
@@ -20180,7 +20181,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <f t="shared" si="4"/>
         <v>44652</v>
@@ -20205,7 +20206,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <f t="shared" si="4"/>
         <v>44682</v>
@@ -20232,7 +20233,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <f t="shared" si="4"/>
         <v>44713</v>
@@ -20253,7 +20254,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <f t="shared" ref="A703" si="5">EDATE(A702,1)</f>
         <v>44743</v>
@@ -20280,7 +20281,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <v>44774</v>
       </c>
@@ -20300,7 +20301,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>44805</v>
       </c>
@@ -20326,7 +20327,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <v>44835</v>
       </c>
@@ -20352,7 +20353,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <v>44866</v>
       </c>
@@ -20378,7 +20379,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <v>44896</v>
       </c>
@@ -20404,7 +20405,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
         <v>50</v>
@@ -20426,7 +20427,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="46" t="s">
         <v>413</v>
       </c>
@@ -20444,7 +20445,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>44927</v>
       </c>
@@ -20470,7 +20471,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
         <v>50</v>
@@ -20492,7 +20493,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>44958</v>
       </c>
@@ -20518,7 +20519,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>44986</v>
       </c>
@@ -20538,11 +20539,13 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <v>45017</v>
       </c>
-      <c r="B715" s="20"/>
+      <c r="B715" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C715" s="13"/>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
@@ -20551,16 +20554,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H715" s="39"/>
+      <c r="H715" s="39">
+        <v>1</v>
+      </c>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="20"/>
-    </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A716" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B716" s="15"/>
+      <c r="K715" s="47">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A716" s="40"/>
+      <c r="B716" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="C716" s="41"/>
       <c r="D716" s="42"/>
       <c r="E716" s="9"/>
@@ -20572,29 +20579,31 @@
       <c r="H716" s="42"/>
       <c r="I716" s="9"/>
       <c r="J716" s="12"/>
-      <c r="K716" s="15"/>
-    </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K716" s="49">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B717" s="15"/>
+      <c r="C717" s="41"/>
+      <c r="D717" s="42"/>
+      <c r="E717" s="9"/>
+      <c r="F717" s="15"/>
+      <c r="G717" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H717" s="42"/>
+      <c r="I717" s="9"/>
+      <c r="J717" s="12"/>
+      <c r="K717" s="15"/>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A718" s="40">
         <v>45078</v>
-      </c>
-      <c r="B717" s="20"/>
-      <c r="C717" s="13"/>
-      <c r="D717" s="39"/>
-      <c r="E717" s="9"/>
-      <c r="F717" s="20"/>
-      <c r="G717" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H717" s="39"/>
-      <c r="I717" s="9"/>
-      <c r="J717" s="11"/>
-      <c r="K717" s="20"/>
-    </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40">
-        <v>45108</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -20610,9 +20619,9 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20628,9 +20637,9 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20646,9 +20655,9 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20664,45 +20673,45 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B722" s="20"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="39"/>
+      <c r="E722" s="9"/>
+      <c r="F722" s="20"/>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H722" s="39"/>
+      <c r="I722" s="9"/>
+      <c r="J722" s="11"/>
+      <c r="K722" s="20"/>
+    </row>
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A723" s="40">
         <v>45231</v>
       </c>
-      <c r="B722" s="15"/>
-      <c r="C722" s="41"/>
-      <c r="D722" s="42"/>
-      <c r="E722" s="9"/>
-      <c r="F722" s="15"/>
-      <c r="G722" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H722" s="42"/>
-      <c r="I722" s="9"/>
-      <c r="J722" s="12"/>
-      <c r="K722" s="15"/>
-    </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A723" s="40">
+      <c r="B723" s="15"/>
+      <c r="C723" s="41"/>
+      <c r="D723" s="42"/>
+      <c r="E723" s="9"/>
+      <c r="F723" s="15"/>
+      <c r="G723" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="42"/>
+      <c r="I723" s="9"/>
+      <c r="J723" s="12"/>
+      <c r="K723" s="15"/>
+    </row>
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A724" s="40">
         <v>45261</v>
-      </c>
-      <c r="B723" s="20"/>
-      <c r="C723" s="13"/>
-      <c r="D723" s="39"/>
-      <c r="E723" s="9"/>
-      <c r="F723" s="20"/>
-      <c r="G723" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H723" s="39"/>
-      <c r="I723" s="9"/>
-      <c r="J723" s="11"/>
-      <c r="K723" s="20"/>
-    </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="40">
-        <v>45292</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20718,9 +20727,9 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20736,9 +20745,9 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20754,9 +20763,9 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20772,9 +20781,9 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -20790,9 +20799,9 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -20808,9 +20817,9 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -20826,9 +20835,9 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -20844,9 +20853,9 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -20862,9 +20871,9 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -20880,9 +20889,9 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -20898,9 +20907,9 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -20916,9 +20925,9 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -20934,9 +20943,9 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -20952,9 +20961,9 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -20970,9 +20979,9 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -20988,9 +20997,9 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -21006,9 +21015,9 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -21024,9 +21033,9 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -21042,9 +21051,9 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -21060,9 +21069,9 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -21078,9 +21087,9 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -21096,9 +21105,9 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -21114,9 +21123,9 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -21132,9 +21141,9 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -21150,9 +21159,9 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -21168,9 +21177,9 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -21186,9 +21195,9 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -21204,9 +21213,9 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -21222,9 +21231,9 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -21240,9 +21249,9 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -21258,9 +21267,9 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -21276,9 +21285,9 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -21294,9 +21303,9 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -21312,9 +21321,9 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -21330,9 +21339,9 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -21348,9 +21357,9 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -21366,9 +21375,9 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -21384,9 +21393,9 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -21402,9 +21411,9 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -21420,9 +21429,9 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -21438,9 +21447,9 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -21456,9 +21465,9 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -21474,9 +21483,9 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -21492,9 +21501,9 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -21510,9 +21519,9 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -21528,9 +21537,9 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -21546,9 +21555,9 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -21564,9 +21573,9 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -21582,9 +21591,9 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -21600,9 +21609,9 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -21618,9 +21627,9 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -21636,9 +21645,9 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -21654,9 +21663,9 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -21672,9 +21681,9 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -21690,9 +21699,9 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -21708,9 +21717,9 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -21726,9 +21735,9 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -21744,9 +21753,9 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -21762,9 +21771,9 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -21780,9 +21789,9 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -21798,9 +21807,9 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -21816,9 +21825,9 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -21834,9 +21843,9 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -21852,9 +21861,9 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -21870,9 +21879,9 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -21888,9 +21897,9 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -21906,9 +21915,9 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -21924,9 +21933,9 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -21942,9 +21951,9 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -21960,9 +21969,9 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B794" s="20"/>
       <c r="C794" s="13"/>
@@ -21978,9 +21987,9 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B795" s="20"/>
       <c r="C795" s="13"/>
@@ -21996,9 +22005,9 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B796" s="20"/>
       <c r="C796" s="13"/>
@@ -22014,9 +22023,9 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B797" s="20"/>
       <c r="C797" s="13"/>
@@ -22032,9 +22041,9 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B798" s="20"/>
       <c r="C798" s="13"/>
@@ -22050,9 +22059,9 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B799" s="20"/>
       <c r="C799" s="13"/>
@@ -22068,9 +22077,9 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B800" s="20"/>
       <c r="C800" s="13"/>
@@ -22086,9 +22095,9 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B801" s="20"/>
       <c r="C801" s="13"/>
@@ -22104,9 +22113,9 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B802" s="20"/>
       <c r="C802" s="13"/>
@@ -22122,9 +22131,9 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B803" s="20"/>
       <c r="C803" s="13"/>
@@ -22140,9 +22149,9 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B804" s="20"/>
       <c r="C804" s="13"/>
@@ -22158,9 +22167,9 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B805" s="20"/>
       <c r="C805" s="13"/>
@@ -22176,9 +22185,9 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B806" s="20"/>
       <c r="C806" s="13"/>
@@ -22194,9 +22203,9 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B807" s="20"/>
       <c r="C807" s="13"/>
@@ -22212,9 +22221,9 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B808" s="20"/>
       <c r="C808" s="13"/>
@@ -22230,9 +22239,9 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B809" s="20"/>
       <c r="C809" s="13"/>
@@ -22248,9 +22257,9 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B810" s="20"/>
       <c r="C810" s="13"/>
@@ -22266,9 +22275,9 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B811" s="20"/>
       <c r="C811" s="13"/>
@@ -22284,9 +22293,9 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B812" s="20"/>
       <c r="C812" s="13"/>
@@ -22302,9 +22311,9 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B813" s="20"/>
       <c r="C813" s="13"/>
@@ -22320,9 +22329,9 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B814" s="20"/>
       <c r="C814" s="13"/>
@@ -22338,9 +22347,9 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B815" s="20"/>
       <c r="C815" s="13"/>
@@ -22356,9 +22365,9 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B816" s="20"/>
       <c r="C816" s="13"/>
@@ -22374,9 +22383,9 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B817" s="20"/>
       <c r="C817" s="13"/>
@@ -22392,9 +22401,9 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B818" s="20"/>
       <c r="C818" s="13"/>
@@ -22410,9 +22419,9 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="40">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B819" s="20"/>
       <c r="C819" s="13"/>
@@ -22428,9 +22437,9 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="40">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B820" s="20"/>
       <c r="C820" s="13"/>
@@ -22446,9 +22455,9 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="40">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B821" s="20"/>
       <c r="C821" s="13"/>
@@ -22464,9 +22473,9 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="40">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B822" s="20"/>
       <c r="C822" s="13"/>
@@ -22482,9 +22491,9 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="40">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B823" s="20"/>
       <c r="C823" s="13"/>
@@ -22500,9 +22509,9 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="40">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B824" s="20"/>
       <c r="C824" s="13"/>
@@ -22518,9 +22527,9 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="40">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B825" s="20"/>
       <c r="C825" s="13"/>
@@ -22536,9 +22545,9 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="40">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B826" s="20"/>
       <c r="C826" s="13"/>
@@ -22554,9 +22563,9 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="40">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B827" s="20"/>
       <c r="C827" s="13"/>
@@ -22572,9 +22581,9 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="40">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B828" s="20"/>
       <c r="C828" s="13"/>
@@ -22590,9 +22599,9 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="40">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B829" s="20"/>
       <c r="C829" s="13"/>
@@ -22608,9 +22617,9 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="40">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B830" s="20"/>
       <c r="C830" s="13"/>
@@ -22626,9 +22635,9 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="40">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B831" s="20"/>
       <c r="C831" s="13"/>
@@ -22644,9 +22653,9 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="40">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B832" s="20"/>
       <c r="C832" s="13"/>
@@ -22662,9 +22671,9 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="40">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B833" s="20"/>
       <c r="C833" s="13"/>
@@ -22680,9 +22689,9 @@
       <c r="J833" s="11"/>
       <c r="K833" s="20"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="40">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B834" s="20"/>
       <c r="C834" s="13"/>
@@ -22698,9 +22707,9 @@
       <c r="J834" s="11"/>
       <c r="K834" s="20"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="40">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B835" s="20"/>
       <c r="C835" s="13"/>
@@ -22716,9 +22725,9 @@
       <c r="J835" s="11"/>
       <c r="K835" s="20"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="40">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B836" s="20"/>
       <c r="C836" s="13"/>
@@ -22734,9 +22743,9 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A837" s="40">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B837" s="20"/>
       <c r="C837" s="13"/>
@@ -22752,9 +22761,9 @@
       <c r="J837" s="11"/>
       <c r="K837" s="20"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="40">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B838" s="20"/>
       <c r="C838" s="13"/>
@@ -22770,9 +22779,9 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="40">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B839" s="20"/>
       <c r="C839" s="13"/>
@@ -22788,9 +22797,9 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A840" s="40">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B840" s="20"/>
       <c r="C840" s="13"/>
@@ -22806,9 +22815,9 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="40">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B841" s="20"/>
       <c r="C841" s="13"/>
@@ -22824,9 +22833,9 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A842" s="40">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B842" s="20"/>
       <c r="C842" s="13"/>
@@ -22842,9 +22851,9 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A843" s="40">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B843" s="20"/>
       <c r="C843" s="13"/>
@@ -22860,9 +22869,9 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A844" s="40">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B844" s="20"/>
       <c r="C844" s="13"/>
@@ -22878,9 +22887,9 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A845" s="40">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B845" s="20"/>
       <c r="C845" s="13"/>
@@ -22896,9 +22905,9 @@
       <c r="J845" s="11"/>
       <c r="K845" s="20"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A846" s="40">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B846" s="20"/>
       <c r="C846" s="13"/>
@@ -22913,6 +22922,24 @@
       <c r="I846" s="9"/>
       <c r="J846" s="11"/>
       <c r="K846" s="20"/>
+    </row>
+    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A847" s="40">
+        <v>49004</v>
+      </c>
+      <c r="B847" s="20"/>
+      <c r="C847" s="13"/>
+      <c r="D847" s="39"/>
+      <c r="E847" s="9"/>
+      <c r="F847" s="20"/>
+      <c r="G847" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H847" s="39"/>
+      <c r="I847" s="9"/>
+      <c r="J847" s="11"/>
+      <c r="K847" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -22929,10 +22956,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22955,7 +22982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -22963,21 +22990,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -22990,7 +23017,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23019,7 +23046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.208</v>
       </c>
@@ -23047,17 +23074,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -23078,7 +23105,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -23105,7 +23132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -23131,7 +23158,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -23157,7 +23184,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -23183,7 +23210,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -23209,7 +23236,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -23235,7 +23262,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -23261,7 +23288,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -23287,7 +23314,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -23307,7 +23334,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -23327,7 +23354,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -23347,7 +23374,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -23368,7 +23395,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -23389,7 +23416,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -23410,7 +23437,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -23431,7 +23458,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -23452,7 +23479,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -23473,7 +23500,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -23494,7 +23521,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -23515,7 +23542,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -23536,7 +23563,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -23557,7 +23584,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -23578,7 +23605,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -23599,7 +23626,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -23620,7 +23647,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -23641,7 +23668,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -23662,7 +23689,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -23683,7 +23710,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -23704,7 +23731,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -23725,7 +23752,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -23746,7 +23773,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -23767,7 +23794,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -23776,7 +23803,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -23785,7 +23812,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -23794,7 +23821,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -23803,7 +23830,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -23812,7 +23839,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -23821,7 +23848,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -23830,7 +23857,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -23839,7 +23866,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -23848,7 +23875,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -23857,7 +23884,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -23866,7 +23893,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -23875,7 +23902,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -23884,7 +23911,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -23893,7 +23920,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -23902,7 +23929,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -23911,7 +23938,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -23920,7 +23947,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -23929,7 +23956,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -23938,7 +23965,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -23947,7 +23974,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -23956,7 +23983,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -23965,7 +23992,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -23974,7 +24001,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -23983,7 +24010,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -23992,7 +24019,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -24001,7 +24028,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -24010,7 +24037,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -24019,7 +24046,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -24028,7 +24055,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LIMBOC, FLORDELIZA.xlsx
+++ b/REGULAR/LIMBOC, FLORDELIZA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D904539-D0E0-4345-A947-9A69A5FC62D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,17 +24,28 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="416">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1280,12 +1290,15 @@
   </si>
   <si>
     <t>9/2,5</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2164,7 +2177,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2220,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2271,7 +2284,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2344,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2410,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2473,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2571,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2630,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,7 +2695,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,7 +2738,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2813,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,7 +2999,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3065,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3123,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3189,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3232,7 +3245,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3307,7 +3320,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,7 +3363,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3429,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3485,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3570,7 +3583,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +3646,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3699,25 +3712,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K847" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K847" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3729,13 +3742,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3744,14 +3757,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4055,7 +4068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4065,7 +4078,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4073,7 +4086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4082,25 +4095,25 @@
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="3240" topLeftCell="A705" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B717" sqref="B717"/>
+      <selection pane="bottomLeft" activeCell="B718" sqref="B718"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +4134,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4139,7 +4152,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4161,7 +4174,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4169,7 +4182,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4182,7 +4195,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4199,7 +4212,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4243,7 +4256,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.07399999999987</v>
+        <v>30.32399999999987</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4253,12 +4266,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.147999999999996</v>
+        <v>63.397999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>42</v>
       </c>
@@ -4280,7 +4293,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35248</v>
       </c>
@@ -4300,7 +4313,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35278</v>
       </c>
@@ -4320,7 +4333,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>35309</v>
@@ -4341,7 +4354,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A104" si="0">EDATE(A13,1)</f>
         <v>35339</v>
@@ -4362,7 +4375,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4383,7 +4396,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4404,7 +4417,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>45</v>
       </c>
@@ -4422,7 +4435,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35431</v>
@@ -4449,7 +4462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4470,7 +4483,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4497,7 +4510,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4518,7 +4531,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4545,7 +4558,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4566,7 +4579,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4593,7 +4606,7 @@
         <v>35632</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>163</v>
@@ -4613,7 +4626,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="47"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -4635,7 +4648,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35643</v>
@@ -4656,7 +4669,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4683,7 +4696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4710,7 +4723,7 @@
         <v>35718</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4737,7 +4750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4764,7 +4777,7 @@
         <v>35737</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
@@ -4782,7 +4795,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>35796</v>
@@ -4803,7 +4816,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4830,7 +4843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4857,7 +4870,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>56</v>
@@ -4877,7 +4890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35886</v>
@@ -4904,7 +4917,7 @@
         <v>35888</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A37,1)</f>
         <v>35916</v>
@@ -4931,7 +4944,7 @@
         <v>35919</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4953,7 +4966,7 @@
         <v>35933</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35947</v>
@@ -4978,7 +4991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>61</v>
@@ -4998,7 +5011,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>60</v>
@@ -5020,7 +5033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A40,1)</f>
         <v>35977</v>
@@ -5047,7 +5060,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -5068,7 +5081,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -5095,7 +5108,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -5122,7 +5135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -5143,7 +5156,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -5164,7 +5177,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>47</v>
       </c>
@@ -5182,7 +5195,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>36161</v>
@@ -5209,7 +5222,7 @@
         <v>36165</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -5236,7 +5249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -5261,7 +5274,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -5283,7 +5296,7 @@
         <v>36245</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -5303,7 +5316,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>36251</v>
@@ -5328,7 +5341,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5353,7 +5366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>73</v>
@@ -5373,7 +5386,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36312</v>
@@ -5400,7 +5413,7 @@
         <v>36336</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5427,7 +5440,7 @@
         <v>36363</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5448,7 +5461,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5475,7 +5488,7 @@
         <v>36425</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -5484,7 +5497,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.07399999999987</v>
+        <v>30.32399999999987</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -5494,12 +5507,12 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.147999999999996</v>
+        <v>63.397999999999996</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="47"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36434</v>
@@ -5526,7 +5539,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5553,7 +5566,7 @@
         <v>36480</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>75</v>
@@ -5573,7 +5586,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36495</v>
@@ -5600,7 +5613,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>76</v>
@@ -5620,7 +5633,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="46" t="s">
         <v>66</v>
       </c>
@@ -5638,7 +5651,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>36526</v>
@@ -5663,7 +5676,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5688,7 +5701,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>50</v>
@@ -5710,7 +5723,7 @@
         <v>36571</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5735,7 +5748,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -5755,7 +5768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A72,1)</f>
         <v>36617</v>
@@ -5782,7 +5795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>83</v>
@@ -5802,7 +5815,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>59</v>
@@ -5813,7 +5826,7 @@
       </c>
       <c r="E76" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.07399999999987</v>
+        <v>30.32399999999987</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -5823,14 +5836,14 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.147999999999996</v>
+        <v>63.397999999999996</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="47">
         <v>36641</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f>EDATE(A74,1)</f>
         <v>36647</v>
@@ -5857,7 +5870,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -5879,7 +5892,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -5901,7 +5914,7 @@
         <v>36665</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>84</v>
@@ -5923,7 +5936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>86</v>
@@ -5943,7 +5956,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36678</v>
@@ -5970,7 +5983,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5992,7 +6005,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>88</v>
@@ -6014,7 +6027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36708</v>
@@ -6039,7 +6052,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -6066,7 +6079,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>94</v>
@@ -6086,7 +6099,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36770</v>
@@ -6111,7 +6124,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -6138,7 +6151,7 @@
         <v>36802</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>60</v>
@@ -6160,7 +6173,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>96</v>
@@ -6180,7 +6193,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="47"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>36831</v>
@@ -6207,7 +6220,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>98</v>
@@ -6227,7 +6240,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="47"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36861</v>
@@ -6252,7 +6265,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="46" t="s">
         <v>100</v>
       </c>
@@ -6270,7 +6283,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>36892</v>
@@ -6291,7 +6304,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -6318,7 +6331,7 @@
         <v>36942</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -6345,7 +6358,7 @@
         <v>36980</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -6372,7 +6385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>67</v>
@@ -6394,7 +6407,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37012</v>
@@ -6419,7 +6432,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -6440,7 +6453,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -6467,7 +6480,7 @@
         <v>37076</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -6494,7 +6507,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>59</v>
@@ -6516,7 +6529,7 @@
         <v>37128</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>50</v>
@@ -6538,7 +6551,7 @@
         <v>37105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>37135</v>
@@ -6565,7 +6578,7 @@
         <v>37146</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6587,7 +6600,7 @@
         <v>37149</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>50</v>
@@ -6609,7 +6622,7 @@
         <v>37160</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>50</v>
@@ -6631,7 +6644,7 @@
         <v>37163</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A107,1)</f>
         <v>37165</v>
@@ -6658,7 +6671,7 @@
         <v>37167</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>51</v>
@@ -6680,7 +6693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>105</v>
@@ -6700,7 +6713,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f>EDATE(A111,1)</f>
         <v>37196</v>
@@ -6727,7 +6740,7 @@
         <v>37209</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>59</v>
@@ -6749,7 +6762,7 @@
         <v>37219</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>78</v>
@@ -6769,7 +6782,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="47"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -6790,7 +6803,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="46" t="s">
         <v>103</v>
       </c>
@@ -6808,7 +6821,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6835,7 +6848,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>131</v>
@@ -6859,7 +6872,7 @@
         <v>37279</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>127</v>
@@ -6879,7 +6892,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -6908,7 +6921,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>56</v>
@@ -6928,7 +6941,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>37316</v>
@@ -6949,7 +6962,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A231" si="1">EDATE(A124,1)</f>
         <v>37347</v>
@@ -6970,7 +6983,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -6997,7 +7010,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -7018,7 +7031,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -7045,7 +7058,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -7070,7 +7083,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -7095,7 +7108,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -7122,7 +7135,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -7149,7 +7162,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>137</v>
@@ -7169,7 +7182,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="47"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37591</v>
@@ -7194,7 +7207,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>139</v>
@@ -7214,7 +7227,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="46" t="s">
         <v>106</v>
       </c>
@@ -7232,7 +7245,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A134,1)</f>
         <v>37622</v>
@@ -7257,7 +7270,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -7278,7 +7291,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -7305,7 +7318,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>56</v>
@@ -7325,7 +7338,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>37712</v>
@@ -7352,7 +7365,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -7372,7 +7385,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>143</v>
@@ -7392,7 +7405,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>37742</v>
@@ -7419,7 +7432,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -7446,7 +7459,7 @@
         <v>37773</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>50</v>
@@ -7468,7 +7481,7 @@
         <v>37797</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>144</v>
@@ -7488,7 +7501,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="47"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A145,1)</f>
         <v>37803</v>
@@ -7509,7 +7522,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -7536,7 +7549,7 @@
         <v>37837</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -7561,7 +7574,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -7588,7 +7601,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>147</v>
@@ -7608,7 +7621,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="47"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>37926</v>
@@ -7635,7 +7648,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>148</v>
@@ -7655,7 +7668,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="47"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f>EDATE(A153,1)</f>
         <v>37956</v>
@@ -7680,7 +7693,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>150</v>
@@ -7700,7 +7713,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="46" t="s">
         <v>107</v>
       </c>
@@ -7718,7 +7731,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>37987</v>
@@ -7743,7 +7756,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -7770,7 +7783,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>153</v>
@@ -7790,7 +7803,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38047</v>
@@ -7817,7 +7830,7 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -7839,7 +7852,7 @@
         <v>38054</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7861,7 +7874,7 @@
         <v>38069</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>56</v>
@@ -7881,7 +7894,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A161,1)</f>
         <v>38078</v>
@@ -7906,7 +7919,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -7933,7 +7946,7 @@
         <v>38110</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>50</v>
@@ -7955,7 +7968,7 @@
         <v>38121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>50</v>
@@ -7977,7 +7990,7 @@
         <v>38132</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>156</v>
@@ -7997,7 +8010,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f>EDATE(A166,1)</f>
         <v>38139</v>
@@ -8024,7 +8037,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -8051,7 +8064,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -8073,7 +8086,7 @@
         <v>38187</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>157</v>
@@ -8093,7 +8106,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f>EDATE(A171,1)</f>
         <v>38200</v>
@@ -8120,7 +8133,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>48</v>
@@ -8142,7 +8155,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>59</v>
@@ -8164,7 +8177,7 @@
         <v>38216</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>160</v>
@@ -8184,7 +8197,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="47"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A174,1)</f>
         <v>38231</v>
@@ -8211,7 +8224,7 @@
         <v>38236</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>50</v>
@@ -8233,7 +8246,7 @@
         <v>38253</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>161</v>
@@ -8253,7 +8266,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="47"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38261</v>
@@ -8274,7 +8287,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -8301,7 +8314,7 @@
         <v>38309</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -8326,7 +8339,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="46" t="s">
         <v>108</v>
       </c>
@@ -8344,7 +8357,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38353</v>
@@ -8365,7 +8378,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -8386,7 +8399,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -8407,7 +8420,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -8432,7 +8445,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -8453,7 +8466,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -8474,7 +8487,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -8495,7 +8508,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -8516,7 +8529,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -8537,7 +8550,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -8558,7 +8571,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -8579,7 +8592,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -8604,7 +8617,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="46" t="s">
         <v>109</v>
       </c>
@@ -8622,7 +8635,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>38718</v>
@@ -8649,7 +8662,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>163</v>
@@ -8671,7 +8684,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>163</v>
@@ -8693,7 +8706,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>38749</v>
@@ -8720,7 +8733,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>168</v>
@@ -8740,7 +8753,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38777</v>
@@ -8761,7 +8774,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -8786,7 +8799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>48</v>
@@ -8808,7 +8821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>170</v>
@@ -8828,7 +8841,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>38838</v>
@@ -8855,7 +8868,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="15" t="s">
         <v>172</v>
@@ -8875,7 +8888,7 @@
       <c r="J208" s="12"/>
       <c r="K208" s="49"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>38869</v>
@@ -8902,7 +8915,7 @@
         <v>38870</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>173</v>
@@ -8922,7 +8935,7 @@
       <c r="J210" s="12"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>38899</v>
@@ -8949,7 +8962,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>50</v>
@@ -8971,7 +8984,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>174</v>
@@ -8991,7 +9004,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>38930</v>
@@ -9016,7 +9029,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f>EDATE(A214,1)</f>
         <v>38961</v>
@@ -9043,7 +9056,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>50</v>
@@ -9065,7 +9078,7 @@
         <v>38994</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>176</v>
@@ -9085,7 +9098,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38991</v>
@@ -9112,7 +9125,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>177</v>
@@ -9132,7 +9145,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="47"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39022</v>
@@ -9157,7 +9170,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
@@ -9184,7 +9197,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>179</v>
@@ -9204,7 +9217,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>181</v>
@@ -9224,7 +9237,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="46" t="s">
         <v>110</v>
       </c>
@@ -9242,7 +9255,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A221,1)</f>
         <v>39083</v>
@@ -9269,7 +9282,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>50</v>
@@ -9291,7 +9304,7 @@
         <v>39104</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>50</v>
@@ -9313,7 +9326,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>182</v>
@@ -9333,7 +9346,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f>EDATE(A225,1)</f>
         <v>39114</v>
@@ -9358,7 +9371,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -9383,7 +9396,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -9410,7 +9423,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>56</v>
@@ -9430,7 +9443,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>56</v>
@@ -9450,7 +9463,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -9472,7 +9485,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>188</v>
@@ -9492,7 +9505,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="47"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A231,1)</f>
         <v>39203</v>
@@ -9519,7 +9532,7 @@
         <v>39209</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9541,7 +9554,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>56</v>
@@ -9561,7 +9574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>67</v>
@@ -9583,7 +9596,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>191</v>
@@ -9603,7 +9616,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f>EDATE(A236,1)</f>
         <v>39234</v>
@@ -9628,7 +9641,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" ref="A242:A423" si="2">EDATE(A241,1)</f>
         <v>39264</v>
@@ -9655,7 +9668,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>194</v>
@@ -9675,7 +9688,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39295</v>
@@ -9700,7 +9713,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9727,7 +9740,7 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>50</v>
@@ -9749,7 +9762,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>196</v>
@@ -9769,7 +9782,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A245,1)</f>
         <v>39356</v>
@@ -9794,7 +9807,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -9821,7 +9834,7 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>138</v>
@@ -9843,7 +9856,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>198</v>
@@ -9863,7 +9876,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>39417</v>
@@ -9888,7 +9901,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="46" t="s">
         <v>111</v>
       </c>
@@ -9906,7 +9919,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>39448</v>
@@ -9933,7 +9946,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>201</v>
@@ -9953,7 +9966,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="47"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39479</v>
@@ -9980,7 +9993,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>127</v>
@@ -10000,7 +10013,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>50</v>
@@ -10022,7 +10035,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>203</v>
@@ -10042,7 +10055,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="47"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39508</v>
@@ -10067,7 +10080,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -10089,7 +10102,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>50</v>
@@ -10111,7 +10124,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -10133,7 +10146,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>205</v>
@@ -10153,7 +10166,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A260,1)</f>
         <v>39539</v>
@@ -10180,7 +10193,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>48</v>
@@ -10202,7 +10215,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>61</v>
@@ -10224,7 +10237,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>50</v>
@@ -10246,7 +10259,7 @@
         <v>39559</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>208</v>
@@ -10266,7 +10279,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A265,1)</f>
         <v>39569</v>
@@ -10293,7 +10306,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>50</v>
@@ -10315,7 +10328,7 @@
         <v>39575</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>50</v>
@@ -10337,7 +10350,7 @@
         <v>39582</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>48</v>
@@ -10359,7 +10372,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>138</v>
@@ -10381,7 +10394,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>210</v>
@@ -10401,7 +10414,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f>EDATE(A270,1)</f>
         <v>39600</v>
@@ -10426,7 +10439,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>50</v>
@@ -10446,7 +10459,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>50</v>
@@ -10466,7 +10479,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>178</v>
@@ -10486,7 +10499,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>39630</v>
@@ -10513,7 +10526,7 @@
         <v>39636</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>48</v>
@@ -10539,7 +10552,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>39661</v>
@@ -10566,7 +10579,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>131</v>
@@ -10588,7 +10601,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>131</v>
@@ -10610,7 +10623,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>215</v>
@@ -10630,7 +10643,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>39692</v>
@@ -10657,7 +10670,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>216</v>
@@ -10677,7 +10690,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="47"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39722</v>
@@ -10704,7 +10717,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>131</v>
@@ -10728,7 +10741,7 @@
         <v>39737</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>61</v>
@@ -10750,7 +10763,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>131</v>
@@ -10772,7 +10785,7 @@
         <v>39742</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>131</v>
@@ -10794,7 +10807,7 @@
         <v>39751</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>217</v>
@@ -10814,7 +10827,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A288,1)</f>
         <v>39753</v>
@@ -10845,7 +10858,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>131</v>
@@ -10867,7 +10880,7 @@
         <v>39772</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>131</v>
@@ -10889,7 +10902,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10911,7 +10924,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>218</v>
@@ -10931,7 +10944,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A294,1)</f>
         <v>39783</v>
@@ -10958,7 +10971,7 @@
         <v>39793</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>220</v>
@@ -10978,7 +10991,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="46" t="s">
         <v>112</v>
       </c>
@@ -10996,7 +11009,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39814</v>
@@ -11025,7 +11038,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>131</v>
@@ -11047,7 +11060,7 @@
         <v>39822</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>61</v>
@@ -11069,7 +11082,7 @@
         <v>39843</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>221</v>
@@ -11089,7 +11102,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A302,1)</f>
         <v>39845</v>
@@ -11116,7 +11129,7 @@
         <v>39856</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>222</v>
@@ -11140,7 +11153,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>61</v>
@@ -11162,7 +11175,7 @@
         <v>39864</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>223</v>
@@ -11182,7 +11195,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>39873</v>
@@ -11209,7 +11222,7 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>131</v>
@@ -11229,7 +11242,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>56</v>
@@ -11249,7 +11262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>131</v>
@@ -11271,7 +11284,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>131</v>
@@ -11293,7 +11306,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -11313,7 +11326,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>226</v>
@@ -11333,7 +11346,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A310,1)</f>
         <v>39904</v>
@@ -11362,7 +11375,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>56</v>
@@ -11382,7 +11395,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>131</v>
@@ -11402,7 +11415,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>229</v>
@@ -11422,7 +11435,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A317,1)</f>
         <v>39934</v>
@@ -11451,7 +11464,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>131</v>
@@ -11473,7 +11486,7 @@
         <v>39941</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>131</v>
@@ -11495,7 +11508,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>233</v>
@@ -11517,7 +11530,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="47"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A321,1)</f>
         <v>39965</v>
@@ -11546,7 +11559,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>131</v>
@@ -11568,7 +11581,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>131</v>
@@ -11590,7 +11603,7 @@
         <v>39989</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>234</v>
@@ -11610,7 +11623,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>39995</v>
@@ -11637,7 +11650,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>222</v>
@@ -11661,7 +11674,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>236</v>
@@ -11681,7 +11694,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="47"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A329,1)</f>
         <v>40026</v>
@@ -11708,7 +11721,7 @@
         <v>40039</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>50</v>
@@ -11732,7 +11745,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>238</v>
@@ -11752,7 +11765,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A332,1)</f>
         <v>40057</v>
@@ -11785,7 +11798,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>131</v>
@@ -11809,7 +11822,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>240</v>
@@ -11829,7 +11842,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A335,1)</f>
         <v>40087</v>
@@ -11856,7 +11869,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>131</v>
@@ -11880,7 +11893,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>222</v>
@@ -11906,7 +11919,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>242</v>
@@ -11926,7 +11939,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A338,1)</f>
         <v>40118</v>
@@ -11953,7 +11966,7 @@
         <v>40129</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>131</v>
@@ -11975,7 +11988,7 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>244</v>
@@ -11995,7 +12008,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="47"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f>EDATE(A342,1)</f>
         <v>40148</v>
@@ -12022,7 +12035,7 @@
         <v>40176</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>245</v>
@@ -12042,7 +12055,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="47"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="46" t="s">
         <v>113</v>
       </c>
@@ -12060,7 +12073,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40179</v>
@@ -12085,7 +12098,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -12110,7 +12123,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>48</v>
@@ -12132,7 +12145,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>50</v>
@@ -12154,7 +12167,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>56</v>
@@ -12174,7 +12187,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>247</v>
@@ -12194,7 +12207,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A349,1)</f>
         <v>40238</v>
@@ -12225,7 +12238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>50</v>
@@ -12247,7 +12260,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>56</v>
@@ -12267,7 +12280,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>250</v>
@@ -12287,7 +12300,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A354,1)</f>
         <v>40269</v>
@@ -12314,7 +12327,7 @@
         <v>40283</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>253</v>
@@ -12334,7 +12347,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="47"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40299</v>
@@ -12361,7 +12374,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>50</v>
@@ -12383,7 +12396,7 @@
         <v>40309</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>50</v>
@@ -12405,7 +12418,7 @@
         <v>40311</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>59</v>
@@ -12424,7 +12437,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>254</v>
@@ -12441,7 +12454,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="47"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f>EDATE(A360,1)</f>
         <v>40330</v>
@@ -12468,7 +12481,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>255</v>
@@ -12488,7 +12501,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="47"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A365,1)</f>
         <v>40360</v>
@@ -12515,7 +12528,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>256</v>
@@ -12535,7 +12548,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A367,1)</f>
         <v>40391</v>
@@ -12562,7 +12575,7 @@
         <v>40407</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>257</v>
@@ -12582,7 +12595,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="47"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>40422</v>
@@ -12609,7 +12622,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>50</v>
@@ -12631,7 +12644,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>258</v>
@@ -12651,7 +12664,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>40452</v>
@@ -12676,7 +12689,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -12703,7 +12716,7 @@
         <v>40484</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>260</v>
@@ -12723,7 +12736,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="47"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>40513</v>
@@ -12750,7 +12763,7 @@
         <v>40519</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>261</v>
@@ -12770,7 +12783,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="46" t="s">
         <v>114</v>
       </c>
@@ -12788,7 +12801,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>40544</v>
@@ -12815,7 +12828,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>50</v>
@@ -12837,7 +12850,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>50</v>
@@ -12859,7 +12872,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>262</v>
@@ -12879,7 +12892,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="47"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A380,1)</f>
         <v>40575</v>
@@ -12906,7 +12919,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>263</v>
@@ -12926,7 +12939,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="47"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>40603</v>
@@ -12951,7 +12964,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>131</v>
@@ -12973,7 +12986,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>48</v>
@@ -12995,7 +13008,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>56</v>
@@ -13015,7 +13028,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>266</v>
@@ -13035,7 +13048,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A386,1)</f>
         <v>40634</v>
@@ -13068,7 +13081,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>56</v>
@@ -13088,7 +13101,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>50</v>
@@ -13110,7 +13123,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>50</v>
@@ -13132,7 +13145,7 @@
         <v>40658</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>269</v>
@@ -13152,7 +13165,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A391,1)</f>
         <v>40664</v>
@@ -13181,7 +13194,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -13203,7 +13216,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>50</v>
@@ -13225,7 +13238,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>56</v>
@@ -13245,7 +13258,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>270</v>
@@ -13265,7 +13278,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A396,1)</f>
         <v>40695</v>
@@ -13298,7 +13311,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>275</v>
@@ -13320,7 +13333,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f>EDATE(A401,1)</f>
         <v>40725</v>
@@ -13343,7 +13356,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="2"/>
         <v>40756</v>
@@ -13372,7 +13385,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>277</v>
@@ -13394,7 +13407,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f>EDATE(A404,1)</f>
         <v>40787</v>
@@ -13421,7 +13434,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>278</v>
@@ -13441,7 +13454,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>40817</v>
@@ -13468,7 +13481,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>50</v>
@@ -13490,7 +13503,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>50</v>
@@ -13512,7 +13525,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>279</v>
@@ -13532,7 +13545,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f>EDATE(A408,1)</f>
         <v>40848</v>
@@ -13557,7 +13570,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f t="shared" si="2"/>
         <v>40878</v>
@@ -13584,7 +13597,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>281</v>
@@ -13606,7 +13619,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="47"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="46" t="s">
         <v>115</v>
       </c>
@@ -13624,7 +13637,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f>EDATE(A413,1)</f>
         <v>40909</v>
@@ -13651,7 +13664,7 @@
         <v>40911</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>56</v>
@@ -13671,7 +13684,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>50</v>
@@ -13693,7 +13706,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13715,7 +13728,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>84</v>
@@ -13737,7 +13750,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>284</v>
@@ -13759,7 +13772,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f>EDATE(A416,1)</f>
         <v>40940</v>
@@ -13786,7 +13799,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="2"/>
         <v>40969</v>
@@ -13813,7 +13826,7 @@
         <v>40991</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>286</v>
@@ -13835,7 +13848,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="47"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>41000</v>
@@ -13862,7 +13875,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>56</v>
@@ -13880,7 +13893,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>222</v>
@@ -13908,7 +13921,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>289</v>
@@ -13928,7 +13941,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <f>EDATE(A425,1)</f>
         <v>41030</v>
@@ -13955,7 +13968,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -13977,7 +13990,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>50</v>
@@ -13999,7 +14012,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>50</v>
@@ -14021,7 +14034,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>290</v>
@@ -14041,7 +14054,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A429,1)</f>
         <v>41061</v>
@@ -14068,7 +14081,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>50</v>
@@ -14090,7 +14103,7 @@
         <v>41079</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>50</v>
@@ -14112,7 +14125,7 @@
         <v>41085</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>50</v>
@@ -14134,7 +14147,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>293</v>
@@ -14154,7 +14167,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="47"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A434,1)</f>
         <v>41091</v>
@@ -14181,7 +14194,7 @@
         <v>41101</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -14203,7 +14216,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>84</v>
@@ -14225,7 +14238,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>294</v>
@@ -14245,7 +14258,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A439,1)</f>
         <v>41122</v>
@@ -14272,7 +14285,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>50</v>
@@ -14294,7 +14307,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>297</v>
@@ -14314,7 +14327,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f>EDATE(A443,1)</f>
         <v>41153</v>
@@ -14345,7 +14358,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>59</v>
@@ -14367,7 +14380,7 @@
         <v>41173</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>50</v>
@@ -14389,7 +14402,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>275</v>
@@ -14411,7 +14424,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="47"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A446,1)</f>
         <v>41183</v>
@@ -14438,7 +14451,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>50</v>
@@ -14460,7 +14473,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>131</v>
@@ -14482,7 +14495,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="47"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>298</v>
@@ -14504,7 +14517,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="47"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A450,1)</f>
         <v>41214</v>
@@ -14531,7 +14544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>50</v>
@@ -14553,7 +14566,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>299</v>
@@ -14577,7 +14590,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>41244</v>
@@ -14604,7 +14617,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="46" t="s">
         <v>116</v>
       </c>
@@ -14622,7 +14635,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f>EDATE(A457,1)</f>
         <v>41275</v>
@@ -14649,7 +14662,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>50</v>
@@ -14671,7 +14684,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>222</v>
@@ -14693,7 +14706,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>303</v>
@@ -14713,7 +14726,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A459,1)</f>
         <v>41306</v>
@@ -14742,7 +14755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -14764,7 +14777,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>50</v>
@@ -14786,7 +14799,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>50</v>
@@ -14808,7 +14821,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>304</v>
@@ -14828,7 +14841,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <f>EDATE(A463,1)</f>
         <v>41334</v>
@@ -14855,7 +14868,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14879,7 +14892,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>307</v>
@@ -14899,7 +14912,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A468,1)</f>
         <v>41365</v>
@@ -14926,7 +14939,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>56</v>
@@ -14946,7 +14959,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>127</v>
@@ -14966,7 +14979,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>60</v>
@@ -14986,7 +14999,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>309</v>
@@ -15006,7 +15019,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -15035,7 +15048,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -15057,7 +15070,7 @@
         <v>41425</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -15079,7 +15092,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>316</v>
@@ -15099,7 +15112,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="47"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f>EDATE(A476,1)</f>
         <v>41426</v>
@@ -15126,7 +15139,7 @@
         <v>41438</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>316</v>
@@ -15146,7 +15159,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>41456</v>
@@ -15173,7 +15186,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>50</v>
@@ -15195,7 +15208,7 @@
         <v>41470</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>84</v>
@@ -15217,7 +15230,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>48</v>
@@ -15239,7 +15252,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>67</v>
@@ -15261,7 +15274,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>317</v>
@@ -15281,7 +15294,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="47"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -15308,7 +15321,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>321</v>
@@ -15328,7 +15341,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="47"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>41518</v>
@@ -15355,7 +15368,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>50</v>
@@ -15377,7 +15390,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>322</v>
@@ -15397,7 +15410,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>41548</v>
@@ -15424,7 +15437,7 @@
         <v>41540</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>131</v>
@@ -15448,7 +15461,7 @@
         <v>41550</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>50</v>
@@ -15470,7 +15483,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>323</v>
@@ -15490,7 +15503,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>41579</v>
@@ -15517,7 +15530,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>324</v>
@@ -15537,7 +15550,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="47"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A497,1)</f>
         <v>41609</v>
@@ -15564,7 +15577,7 @@
         <v>41624</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>222</v>
@@ -15588,7 +15601,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>326</v>
@@ -15608,7 +15621,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="46" t="s">
         <v>117</v>
       </c>
@@ -15626,7 +15639,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A499,1)</f>
         <v>41640</v>
@@ -15653,7 +15666,7 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>327</v>
@@ -15673,7 +15686,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="47"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>41671</v>
@@ -15700,7 +15713,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>131</v>
@@ -15726,7 +15739,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>56</v>
@@ -15746,7 +15759,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>48</v>
@@ -15768,7 +15781,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>50</v>
@@ -15790,7 +15803,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>59</v>
@@ -15812,7 +15825,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>56</v>
@@ -15832,7 +15845,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>50</v>
@@ -15854,7 +15867,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>56</v>
@@ -15874,7 +15887,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>328</v>
@@ -15894,7 +15907,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>50</v>
@@ -15916,7 +15929,7 @@
         <v>41752</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f>EDATE(A505,1)</f>
         <v>41699</v>
@@ -15941,7 +15954,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>48</v>
@@ -15963,7 +15976,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>41730</v>
@@ -15988,7 +16001,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -16010,7 +16023,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>41760</v>
@@ -16035,7 +16048,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>48</v>
@@ -16057,7 +16070,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>41791</v>
@@ -16082,7 +16095,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>50</v>
@@ -16102,7 +16115,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>41821</v>
@@ -16127,7 +16140,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>50</v>
@@ -16149,7 +16162,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>50</v>
@@ -16171,7 +16184,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f>EDATE(A524,1)</f>
         <v>41852</v>
@@ -16196,7 +16209,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>50</v>
@@ -16218,7 +16231,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <f>EDATE(A527,1)</f>
         <v>41883</v>
@@ -16243,7 +16256,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>50</v>
@@ -16265,7 +16278,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>41913</v>
@@ -16290,7 +16303,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>50</v>
@@ -16312,7 +16325,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>399</v>
@@ -16334,7 +16347,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -16356,7 +16369,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f>EDATE(A531,1)</f>
         <v>41944</v>
@@ -16381,7 +16394,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>50</v>
@@ -16403,7 +16416,7 @@
         <v>41954</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f>EDATE(A535,1)</f>
         <v>41974</v>
@@ -16430,7 +16443,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>170</v>
@@ -16450,7 +16463,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="46" t="s">
         <v>118</v>
       </c>
@@ -16468,7 +16481,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f>EDATE(A537,1)</f>
         <v>42005</v>
@@ -16495,7 +16508,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>50</v>
@@ -16517,7 +16530,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>56</v>
@@ -16537,7 +16550,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>56</v>
@@ -16557,7 +16570,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f>EDATE(A540,1)</f>
         <v>42036</v>
@@ -16584,7 +16597,7 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" ref="A545:A598" si="3">EDATE(A544,1)</f>
         <v>42064</v>
@@ -16605,7 +16618,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f t="shared" si="3"/>
         <v>42095</v>
@@ -16630,7 +16643,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>50</v>
@@ -16652,7 +16665,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f>EDATE(A546,1)</f>
         <v>42125</v>
@@ -16673,7 +16686,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f t="shared" si="3"/>
         <v>42156</v>
@@ -16700,7 +16713,7 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f t="shared" si="3"/>
         <v>42186</v>
@@ -16721,7 +16734,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -16742,7 +16755,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -16769,7 +16782,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -16796,7 +16809,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f>EDATE(A553,1)</f>
         <v>42309</v>
@@ -16823,7 +16836,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f t="shared" si="3"/>
         <v>42339</v>
@@ -16844,7 +16857,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="46" t="s">
         <v>119</v>
       </c>
@@ -16862,7 +16875,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f>EDATE(A555,1)</f>
         <v>42370</v>
@@ -16887,7 +16900,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -16912,7 +16925,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <f t="shared" si="3"/>
         <v>42430</v>
@@ -16937,7 +16950,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -16962,7 +16975,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>50</v>
@@ -16984,7 +16997,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>346</v>
@@ -17004,7 +17017,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f>EDATE(A560,1)</f>
         <v>42491</v>
@@ -17029,7 +17042,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -17054,7 +17067,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -17079,7 +17092,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -17104,7 +17117,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -17131,7 +17144,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>50</v>
@@ -17151,7 +17164,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>50</v>
@@ -17173,7 +17186,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>50</v>
@@ -17195,7 +17208,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>84</v>
@@ -17217,7 +17230,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>50</v>
@@ -17239,7 +17252,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>353</v>
@@ -17259,7 +17272,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>354</v>
@@ -17281,7 +17294,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>355</v>
@@ -17303,7 +17316,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A567,1)</f>
         <v>42644</v>
@@ -17330,7 +17343,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>359</v>
@@ -17350,7 +17363,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -17372,7 +17385,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>48</v>
@@ -17394,7 +17407,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>50</v>
@@ -17416,7 +17429,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>50</v>
@@ -17438,7 +17451,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <f>EDATE(A576,1)</f>
         <v>42675</v>
@@ -17463,7 +17476,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>48</v>
@@ -17485,7 +17498,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <f>EDATE(A582,1)</f>
         <v>42705</v>
@@ -17510,7 +17523,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="46" t="s">
         <v>120</v>
       </c>
@@ -17528,7 +17541,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <f>EDATE(A584,1)</f>
         <v>42736</v>
@@ -17555,7 +17568,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>84</v>
@@ -17577,7 +17590,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>84</v>
@@ -17599,7 +17612,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>42767</v>
@@ -17620,7 +17633,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f t="shared" si="3"/>
         <v>42795</v>
@@ -17647,7 +17660,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>84</v>
@@ -17669,7 +17682,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17696,7 +17709,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f t="shared" si="3"/>
         <v>42856</v>
@@ -17725,7 +17738,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <f t="shared" si="3"/>
         <v>42887</v>
@@ -17750,7 +17763,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <f t="shared" si="3"/>
         <v>42917</v>
@@ -17771,7 +17784,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f t="shared" si="3"/>
         <v>42948</v>
@@ -17798,7 +17811,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <f t="shared" si="3"/>
         <v>42979</v>
@@ -17825,7 +17838,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <f t="shared" si="3"/>
         <v>43009</v>
@@ -17852,7 +17865,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>50</v>
@@ -17874,7 +17887,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>50</v>
@@ -17896,7 +17909,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>50</v>
@@ -17918,7 +17931,7 @@
         <v>43038</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <f>EDATE(A598,1)</f>
         <v>43040</v>
@@ -17945,7 +17958,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>131</v>
@@ -17967,7 +17980,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43070</v>
@@ -17994,7 +18007,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>84</v>
@@ -18016,7 +18029,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="46" t="s">
         <v>121</v>
       </c>
@@ -18034,7 +18047,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <f>EDATE(A604,1)</f>
         <v>43101</v>
@@ -18061,7 +18074,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>222</v>
@@ -18087,7 +18100,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f>EDATE(A607,1)</f>
         <v>43132</v>
@@ -18116,7 +18129,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>84</v>
@@ -18138,7 +18151,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -18160,7 +18173,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>48</v>
@@ -18182,7 +18195,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>50</v>
@@ -18204,7 +18217,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -18225,7 +18238,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <f t="shared" ref="A615:A702" si="4">EDATE(A614,1)</f>
         <v>43191</v>
@@ -18246,7 +18259,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <f t="shared" si="4"/>
         <v>43221</v>
@@ -18273,7 +18286,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>50</v>
@@ -18295,7 +18308,7 @@
         <v>43273</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>50</v>
@@ -18317,7 +18330,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <f>EDATE(A616,1)</f>
         <v>43252</v>
@@ -18342,7 +18355,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <f t="shared" si="4"/>
         <v>43282</v>
@@ -18363,7 +18376,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <f t="shared" si="4"/>
         <v>43313</v>
@@ -18384,7 +18397,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <f t="shared" si="4"/>
         <v>43344</v>
@@ -18405,7 +18418,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <f t="shared" si="4"/>
         <v>43374</v>
@@ -18432,7 +18445,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f t="shared" si="4"/>
         <v>43405</v>
@@ -18459,7 +18472,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>50</v>
@@ -18481,7 +18494,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>50</v>
@@ -18503,7 +18516,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f>EDATE(A624,1)</f>
         <v>43435</v>
@@ -18530,7 +18543,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>131</v>
@@ -18554,7 +18567,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="46" t="s">
         <v>122</v>
       </c>
@@ -18572,7 +18585,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -18599,7 +18612,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>127</v>
@@ -18619,7 +18632,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <f>EDATE(A630,1)</f>
         <v>43497</v>
@@ -18646,7 +18659,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>131</v>
@@ -18670,7 +18683,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>131</v>
@@ -18692,7 +18705,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>131</v>
@@ -18714,7 +18727,7 @@
         <v>43163</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <f>EDATE(A632,1)</f>
         <v>43525</v>
@@ -18743,7 +18756,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <f t="shared" si="4"/>
         <v>43556</v>
@@ -18770,7 +18783,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>131</v>
@@ -18792,7 +18805,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>131</v>
@@ -18814,7 +18827,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>50</v>
@@ -18836,7 +18849,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>48</v>
@@ -18858,7 +18871,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>375</v>
@@ -18880,7 +18893,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>50</v>
@@ -18902,7 +18915,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>56</v>
@@ -18922,7 +18935,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <f>EDATE(A637,1)</f>
         <v>43586</v>
@@ -18943,7 +18956,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <f t="shared" si="4"/>
         <v>43617</v>
@@ -18964,7 +18977,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <f t="shared" si="4"/>
         <v>43647</v>
@@ -18991,7 +19004,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>50</v>
@@ -19013,7 +19026,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>222</v>
@@ -19035,7 +19048,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>131</v>
@@ -19059,7 +19072,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43678</v>
@@ -19080,7 +19093,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <f t="shared" si="4"/>
         <v>43709</v>
@@ -19107,7 +19120,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>50</v>
@@ -19129,7 +19142,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>222</v>
@@ -19151,7 +19164,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>131</v>
@@ -19175,7 +19188,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
         <v>48</v>
@@ -19197,7 +19210,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <f>EDATE(A652,1)</f>
         <v>43739</v>
@@ -19224,7 +19237,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>50</v>
@@ -19250,7 +19263,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>48</v>
@@ -19272,7 +19285,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <f>EDATE(A657,1)</f>
         <v>43770</v>
@@ -19299,7 +19312,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>131</v>
@@ -19323,7 +19336,7 @@
       </c>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>131</v>
@@ -19345,7 +19358,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>48</v>
@@ -19367,7 +19380,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>43800</v>
@@ -19398,7 +19411,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="46" t="s">
         <v>123</v>
       </c>
@@ -19416,7 +19429,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>43831</v>
@@ -19441,7 +19454,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>384</v>
@@ -19461,7 +19474,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>56</v>
@@ -19481,7 +19494,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>87</v>
@@ -19503,7 +19516,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <f>EDATE(A666,1)</f>
         <v>43862</v>
@@ -19524,7 +19537,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <f t="shared" si="4"/>
         <v>43891</v>
@@ -19545,7 +19558,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <f t="shared" si="4"/>
         <v>43922</v>
@@ -19572,7 +19585,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <f t="shared" si="4"/>
         <v>43952</v>
@@ -19593,7 +19606,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <f t="shared" si="4"/>
         <v>43983</v>
@@ -19614,7 +19627,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <f t="shared" si="4"/>
         <v>44013</v>
@@ -19641,7 +19654,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <f t="shared" si="4"/>
         <v>44044</v>
@@ -19668,7 +19681,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>50</v>
@@ -19690,7 +19703,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <f>EDATE(A676,1)</f>
         <v>44075</v>
@@ -19717,7 +19730,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>50</v>
@@ -19741,7 +19754,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44105</v>
@@ -19768,7 +19781,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <f t="shared" si="4"/>
         <v>44136</v>
@@ -19789,7 +19802,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <f t="shared" si="4"/>
         <v>44166</v>
@@ -19810,7 +19823,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="46" t="s">
         <v>124</v>
       </c>
@@ -19828,7 +19841,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <f>EDATE(A682,1)</f>
         <v>44197</v>
@@ -19849,7 +19862,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <f t="shared" si="4"/>
         <v>44228</v>
@@ -19870,7 +19883,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <f t="shared" si="4"/>
         <v>44256</v>
@@ -19901,7 +19914,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <f t="shared" si="4"/>
         <v>44287</v>
@@ -19922,7 +19935,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <f t="shared" si="4"/>
         <v>44317</v>
@@ -19943,7 +19956,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <f t="shared" si="4"/>
         <v>44348</v>
@@ -19964,7 +19977,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <f t="shared" si="4"/>
         <v>44378</v>
@@ -19985,7 +19998,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <f t="shared" si="4"/>
         <v>44409</v>
@@ -20006,7 +20019,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <f t="shared" si="4"/>
         <v>44440</v>
@@ -20027,7 +20040,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <f t="shared" si="4"/>
         <v>44470</v>
@@ -20048,7 +20061,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <f t="shared" si="4"/>
         <v>44501</v>
@@ -20069,7 +20082,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <f t="shared" si="4"/>
         <v>44531</v>
@@ -20094,7 +20107,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="46" t="s">
         <v>125</v>
       </c>
@@ -20112,7 +20125,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <f>EDATE(A695,1)</f>
         <v>44562</v>
@@ -20133,7 +20146,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <f t="shared" si="4"/>
         <v>44593</v>
@@ -20154,7 +20167,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <f t="shared" si="4"/>
         <v>44621</v>
@@ -20181,7 +20194,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <f t="shared" si="4"/>
         <v>44652</v>
@@ -20206,7 +20219,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <f t="shared" si="4"/>
         <v>44682</v>
@@ -20233,7 +20246,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40">
         <f t="shared" si="4"/>
         <v>44713</v>
@@ -20254,7 +20267,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <f t="shared" ref="A703" si="5">EDATE(A702,1)</f>
         <v>44743</v>
@@ -20281,7 +20294,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40">
         <v>44774</v>
       </c>
@@ -20301,7 +20314,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <v>44805</v>
       </c>
@@ -20327,7 +20340,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40">
         <v>44835</v>
       </c>
@@ -20353,7 +20366,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40">
         <v>44866</v>
       </c>
@@ -20379,7 +20392,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40">
         <v>44896</v>
       </c>
@@ -20405,7 +20418,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
         <v>50</v>
@@ -20427,7 +20440,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="46" t="s">
         <v>413</v>
       </c>
@@ -20445,7 +20458,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>44927</v>
       </c>
@@ -20471,7 +20484,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
         <v>50</v>
@@ -20493,7 +20506,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40">
         <v>44958</v>
       </c>
@@ -20519,7 +20532,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>44986</v>
       </c>
@@ -20539,20 +20552,22 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">
         <v>45017</v>
       </c>
       <c r="B715" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C715" s="13"/>
+      <c r="C715" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
-      <c r="G715" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G715" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H715" s="39">
         <v>1</v>
@@ -20563,7 +20578,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="15" t="s">
         <v>56</v>
@@ -20583,11 +20598,13 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>45047</v>
       </c>
-      <c r="B717" s="15"/>
+      <c r="B717" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="C717" s="41"/>
       <c r="D717" s="42"/>
       <c r="E717" s="9"/>
@@ -20599,9 +20616,11 @@
       <c r="H717" s="42"/>
       <c r="I717" s="9"/>
       <c r="J717" s="12"/>
-      <c r="K717" s="15"/>
-    </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K717" s="49">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>45078</v>
       </c>
@@ -20619,7 +20638,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>45108</v>
       </c>
@@ -20637,7 +20656,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>45139</v>
       </c>
@@ -20655,7 +20674,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>45170</v>
       </c>
@@ -20673,7 +20692,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
         <v>45200</v>
       </c>
@@ -20691,7 +20710,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>45231</v>
       </c>
@@ -20709,7 +20728,7 @@
       <c r="J723" s="12"/>
       <c r="K723" s="15"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>45261</v>
       </c>
@@ -20727,7 +20746,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
         <v>45292</v>
       </c>
@@ -20745,7 +20764,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
         <v>45323</v>
       </c>
@@ -20763,7 +20782,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
         <v>45352</v>
       </c>
@@ -20781,7 +20800,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
         <v>45383</v>
       </c>
@@ -20799,7 +20818,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
         <v>45413</v>
       </c>
@@ -20817,7 +20836,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
         <v>45444</v>
       </c>
@@ -20835,7 +20854,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
         <v>45474</v>
       </c>
@@ -20853,7 +20872,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
         <v>45505</v>
       </c>
@@ -20871,7 +20890,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
         <v>45536</v>
       </c>
@@ -20889,7 +20908,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
         <v>45566</v>
       </c>
@@ -20907,7 +20926,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
         <v>45597</v>
       </c>
@@ -20925,7 +20944,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
         <v>45627</v>
       </c>
@@ -20943,7 +20962,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
         <v>45658</v>
       </c>
@@ -20961,7 +20980,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
         <v>45689</v>
       </c>
@@ -20979,7 +20998,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
         <v>45717</v>
       </c>
@@ -20997,7 +21016,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
         <v>45748</v>
       </c>
@@ -21015,7 +21034,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
         <v>45778</v>
       </c>
@@ -21033,7 +21052,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
         <v>45809</v>
       </c>
@@ -21051,7 +21070,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
         <v>45839</v>
       </c>
@@ -21069,7 +21088,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
         <v>45870</v>
       </c>
@@ -21087,7 +21106,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
         <v>45901</v>
       </c>
@@ -21105,7 +21124,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
         <v>45931</v>
       </c>
@@ -21123,7 +21142,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
         <v>45962</v>
       </c>
@@ -21141,7 +21160,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
         <v>45992</v>
       </c>
@@ -21159,7 +21178,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
         <v>46023</v>
       </c>
@@ -21177,7 +21196,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
         <v>46054</v>
       </c>
@@ -21195,7 +21214,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
         <v>46082</v>
       </c>
@@ -21213,7 +21232,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
         <v>46113</v>
       </c>
@@ -21231,7 +21250,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
         <v>46143</v>
       </c>
@@ -21249,7 +21268,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
         <v>46174</v>
       </c>
@@ -21267,7 +21286,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
         <v>46204</v>
       </c>
@@ -21285,7 +21304,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40">
         <v>46235</v>
       </c>
@@ -21303,7 +21322,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40">
         <v>46266</v>
       </c>
@@ -21321,7 +21340,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40">
         <v>46296</v>
       </c>
@@ -21339,7 +21358,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40">
         <v>46327</v>
       </c>
@@ -21357,7 +21376,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40">
         <v>46357</v>
       </c>
@@ -21375,7 +21394,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40">
         <v>46388</v>
       </c>
@@ -21393,7 +21412,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40">
         <v>46419</v>
       </c>
@@ -21411,7 +21430,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40">
         <v>46447</v>
       </c>
@@ -21429,7 +21448,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40">
         <v>46478</v>
       </c>
@@ -21447,7 +21466,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40">
         <v>46508</v>
       </c>
@@ -21465,7 +21484,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40">
         <v>46539</v>
       </c>
@@ -21483,7 +21502,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40">
         <v>46569</v>
       </c>
@@ -21501,7 +21520,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40">
         <v>46600</v>
       </c>
@@ -21519,7 +21538,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40">
         <v>46631</v>
       </c>
@@ -21537,7 +21556,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40">
         <v>46661</v>
       </c>
@@ -21555,7 +21574,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40">
         <v>46692</v>
       </c>
@@ -21573,7 +21592,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40">
         <v>46722</v>
       </c>
@@ -21591,7 +21610,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40">
         <v>46753</v>
       </c>
@@ -21609,7 +21628,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40">
         <v>46784</v>
       </c>
@@ -21627,7 +21646,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40">
         <v>46813</v>
       </c>
@@ -21645,7 +21664,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40">
         <v>46844</v>
       </c>
@@ -21663,7 +21682,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40">
         <v>46874</v>
       </c>
@@ -21681,7 +21700,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40">
         <v>46905</v>
       </c>
@@ -21699,7 +21718,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40">
         <v>46935</v>
       </c>
@@ -21717,7 +21736,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40">
         <v>46966</v>
       </c>
@@ -21735,7 +21754,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40">
         <v>46997</v>
       </c>
@@ -21753,7 +21772,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40">
         <v>47027</v>
       </c>
@@ -21771,7 +21790,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40">
         <v>47058</v>
       </c>
@@ -21789,7 +21808,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40">
         <v>47088</v>
       </c>
@@ -21807,7 +21826,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40">
         <v>47119</v>
       </c>
@@ -21825,7 +21844,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40">
         <v>47150</v>
       </c>
@@ -21843,7 +21862,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40">
         <v>47178</v>
       </c>
@@ -21861,7 +21880,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40">
         <v>47209</v>
       </c>
@@ -21879,7 +21898,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40">
         <v>47239</v>
       </c>
@@ -21897,7 +21916,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40">
         <v>47270</v>
       </c>
@@ -21915,7 +21934,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40">
         <v>47300</v>
       </c>
@@ -21933,7 +21952,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40">
         <v>47331</v>
       </c>
@@ -21951,7 +21970,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40">
         <v>47362</v>
       </c>
@@ -21969,7 +21988,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="40">
         <v>47392</v>
       </c>
@@ -21987,7 +22006,7 @@
       <c r="J794" s="11"/>
       <c r="K794" s="20"/>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="40">
         <v>47423</v>
       </c>
@@ -22005,7 +22024,7 @@
       <c r="J795" s="11"/>
       <c r="K795" s="20"/>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="40">
         <v>47453</v>
       </c>
@@ -22023,7 +22042,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="40">
         <v>47484</v>
       </c>
@@ -22041,7 +22060,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="40">
         <v>47515</v>
       </c>
@@ -22059,7 +22078,7 @@
       <c r="J798" s="11"/>
       <c r="K798" s="20"/>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="40">
         <v>47543</v>
       </c>
@@ -22077,7 +22096,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="40">
         <v>47574</v>
       </c>
@@ -22095,7 +22114,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="40">
         <v>47604</v>
       </c>
@@ -22113,7 +22132,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="40">
         <v>47635</v>
       </c>
@@ -22131,7 +22150,7 @@
       <c r="J802" s="11"/>
       <c r="K802" s="20"/>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="40">
         <v>47665</v>
       </c>
@@ -22149,7 +22168,7 @@
       <c r="J803" s="11"/>
       <c r="K803" s="20"/>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="40">
         <v>47696</v>
       </c>
@@ -22167,7 +22186,7 @@
       <c r="J804" s="11"/>
       <c r="K804" s="20"/>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="40">
         <v>47727</v>
       </c>
@@ -22185,7 +22204,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="40">
         <v>47757</v>
       </c>
@@ -22203,7 +22222,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="40">
         <v>47788</v>
       </c>
@@ -22221,7 +22240,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="40">
         <v>47818</v>
       </c>
@@ -22239,7 +22258,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="40">
         <v>47849</v>
       </c>
@@ -22257,7 +22276,7 @@
       <c r="J809" s="11"/>
       <c r="K809" s="20"/>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="40">
         <v>47880</v>
       </c>
@@ -22275,7 +22294,7 @@
       <c r="J810" s="11"/>
       <c r="K810" s="20"/>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="40">
         <v>47908</v>
       </c>
@@ -22293,7 +22312,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="40">
         <v>47939</v>
       </c>
@@ -22311,7 +22330,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="40">
         <v>47969</v>
       </c>
@@ -22329,7 +22348,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="40">
         <v>48000</v>
       </c>
@@ -22347,7 +22366,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="40">
         <v>48030</v>
       </c>
@@ -22365,7 +22384,7 @@
       <c r="J815" s="11"/>
       <c r="K815" s="20"/>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="40">
         <v>48061</v>
       </c>
@@ -22383,7 +22402,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="20"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="40">
         <v>48092</v>
       </c>
@@ -22401,7 +22420,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="40">
         <v>48122</v>
       </c>
@@ -22419,7 +22438,7 @@
       <c r="J818" s="11"/>
       <c r="K818" s="20"/>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="40">
         <v>48153</v>
       </c>
@@ -22437,7 +22456,7 @@
       <c r="J819" s="11"/>
       <c r="K819" s="20"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="40">
         <v>48183</v>
       </c>
@@ -22455,7 +22474,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="40">
         <v>48214</v>
       </c>
@@ -22473,7 +22492,7 @@
       <c r="J821" s="11"/>
       <c r="K821" s="20"/>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="40">
         <v>48245</v>
       </c>
@@ -22491,7 +22510,7 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="40">
         <v>48274</v>
       </c>
@@ -22509,7 +22528,7 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="40">
         <v>48305</v>
       </c>
@@ -22527,7 +22546,7 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="40">
         <v>48335</v>
       </c>
@@ -22545,7 +22564,7 @@
       <c r="J825" s="11"/>
       <c r="K825" s="20"/>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="40">
         <v>48366</v>
       </c>
@@ -22563,7 +22582,7 @@
       <c r="J826" s="11"/>
       <c r="K826" s="20"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="40">
         <v>48396</v>
       </c>
@@ -22581,7 +22600,7 @@
       <c r="J827" s="11"/>
       <c r="K827" s="20"/>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="40">
         <v>48427</v>
       </c>
@@ -22599,7 +22618,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="20"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="40">
         <v>48458</v>
       </c>
@@ -22617,7 +22636,7 @@
       <c r="J829" s="11"/>
       <c r="K829" s="20"/>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="40">
         <v>48488</v>
       </c>
@@ -22635,7 +22654,7 @@
       <c r="J830" s="11"/>
       <c r="K830" s="20"/>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="40">
         <v>48519</v>
       </c>
@@ -22653,7 +22672,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="20"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="40">
         <v>48549</v>
       </c>
@@ -22671,7 +22690,7 @@
       <c r="J832" s="11"/>
       <c r="K832" s="20"/>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="40">
         <v>48580</v>
       </c>
@@ -22689,7 +22708,7 @@
       <c r="J833" s="11"/>
       <c r="K833" s="20"/>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="40">
         <v>48611</v>
       </c>
@@ -22707,7 +22726,7 @@
       <c r="J834" s="11"/>
       <c r="K834" s="20"/>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="40">
         <v>48639</v>
       </c>
@@ -22725,7 +22744,7 @@
       <c r="J835" s="11"/>
       <c r="K835" s="20"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="40">
         <v>48670</v>
       </c>
@@ -22743,7 +22762,7 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="40">
         <v>48700</v>
       </c>
@@ -22761,7 +22780,7 @@
       <c r="J837" s="11"/>
       <c r="K837" s="20"/>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="40">
         <v>48731</v>
       </c>
@@ -22779,7 +22798,7 @@
       <c r="J838" s="11"/>
       <c r="K838" s="20"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="40">
         <v>48761</v>
       </c>
@@ -22797,7 +22816,7 @@
       <c r="J839" s="11"/>
       <c r="K839" s="20"/>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="40">
         <v>48792</v>
       </c>
@@ -22815,7 +22834,7 @@
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="40">
         <v>48823</v>
       </c>
@@ -22833,7 +22852,7 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="40">
         <v>48853</v>
       </c>
@@ -22851,7 +22870,7 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="40">
         <v>48884</v>
       </c>
@@ -22869,7 +22888,7 @@
       <c r="J843" s="11"/>
       <c r="K843" s="20"/>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="40">
         <v>48914</v>
       </c>
@@ -22887,7 +22906,7 @@
       <c r="J844" s="11"/>
       <c r="K844" s="20"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="40">
         <v>48945</v>
       </c>
@@ -22905,7 +22924,7 @@
       <c r="J845" s="11"/>
       <c r="K845" s="20"/>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="40">
         <v>48976</v>
       </c>
@@ -22923,7 +22942,7 @@
       <c r="J846" s="11"/>
       <c r="K846" s="20"/>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" s="40">
         <v>49004</v>
       </c>
@@ -22956,10 +22975,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22982,29 +23001,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -23017,7 +23036,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -23046,7 +23065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.208</v>
       </c>
@@ -23074,17 +23093,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -23105,7 +23127,11 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>93.721999999999866</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -23132,7 +23158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -23158,7 +23184,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -23184,7 +23210,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -23210,7 +23236,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -23236,7 +23262,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -23262,7 +23288,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -23288,7 +23314,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -23314,7 +23340,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -23334,7 +23360,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -23354,7 +23380,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -23374,7 +23400,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -23395,7 +23421,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -23416,7 +23442,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -23437,7 +23463,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -23458,7 +23484,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -23479,7 +23505,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -23500,7 +23526,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -23521,7 +23547,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -23542,7 +23568,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -23563,7 +23589,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -23584,7 +23610,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -23605,7 +23631,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -23626,7 +23652,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -23647,7 +23673,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -23668,7 +23694,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -23689,7 +23715,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -23710,7 +23736,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -23731,7 +23757,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -23752,7 +23778,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -23773,7 +23799,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -23794,7 +23820,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -23803,7 +23829,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -23812,7 +23838,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -23821,7 +23847,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -23830,7 +23856,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -23839,7 +23865,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -23848,7 +23874,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -23857,7 +23883,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -23866,7 +23892,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -23875,7 +23901,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -23884,7 +23910,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -23893,7 +23919,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -23902,7 +23928,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -23911,7 +23937,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -23920,7 +23946,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -23929,7 +23955,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -23938,7 +23964,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -23947,7 +23973,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -23956,7 +23982,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -23965,7 +23991,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -23974,7 +24000,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -23983,7 +24009,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -23992,7 +24018,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -24001,7 +24027,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -24010,7 +24036,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -24019,7 +24045,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -24028,7 +24054,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -24037,7 +24063,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -24046,7 +24072,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -24055,7 +24081,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LIMBOC, FLORDELIZA.xlsx
+++ b/REGULAR/LIMBOC, FLORDELIZA.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="416">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2177,7 +2177,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2220,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2284,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2410,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2473,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2571,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2630,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2695,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2738,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2813,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +2999,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3065,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3123,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3189,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3245,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3320,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3363,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3429,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3485,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3583,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3646,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3712,7 +3712,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K847" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K726" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4090,12 +4090,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K847"/>
+  <dimension ref="A2:K726"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3240" topLeftCell="A705" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <pane ySplit="4020" topLeftCell="A708" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B718" sqref="B718"/>
+      <selection pane="bottomLeft" activeCell="H719" sqref="H719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,7 +4256,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.32399999999987</v>
+        <v>31.82399999999987</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4266,7 +4266,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.397999999999996</v>
+        <v>64.897999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5497,7 +5497,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.32399999999987</v>
+        <v>31.82399999999987</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="13" t="str">
@@ -5507,7 +5507,7 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.397999999999996</v>
+        <v>64.897999999999996</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="47"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="E76" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.32399999999987</v>
+        <v>31.82399999999987</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="13" t="str">
@@ -5836,7 +5836,7 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.397999999999996</v>
+        <v>64.897999999999996</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="47">
@@ -20605,13 +20605,15 @@
       <c r="B717" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C717" s="41"/>
+      <c r="C717" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D717" s="42"/>
       <c r="E717" s="9"/>
       <c r="F717" s="15"/>
-      <c r="G717" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G717" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H717" s="42"/>
       <c r="I717" s="9"/>
@@ -20621,48 +20623,60 @@
       </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B718" s="20"/>
-      <c r="C718" s="13"/>
-      <c r="D718" s="39"/>
+      <c r="A718" s="40"/>
+      <c r="B718" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C718" s="41"/>
+      <c r="D718" s="42"/>
       <c r="E718" s="9"/>
-      <c r="F718" s="20"/>
-      <c r="G718" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H718" s="39"/>
+      <c r="F718" s="15"/>
+      <c r="G718" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H718" s="42">
+        <v>1</v>
+      </c>
       <c r="I718" s="9"/>
-      <c r="J718" s="11"/>
-      <c r="K718" s="20"/>
+      <c r="J718" s="12"/>
+      <c r="K718" s="49">
+        <v>45075</v>
+      </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B719" s="20"/>
-      <c r="C719" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B719" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C719" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D719" s="39"/>
       <c r="E719" s="9"/>
       <c r="F719" s="20"/>
-      <c r="G719" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G719" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H719" s="39"/>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
-      <c r="K719" s="20"/>
+      <c r="K719" s="47">
+        <v>45085</v>
+      </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A720" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B720" s="20"/>
+      <c r="A720" s="40"/>
+      <c r="B720" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C720" s="13"/>
-      <c r="D720" s="39"/>
+      <c r="D720" s="39">
+        <v>1</v>
+      </c>
       <c r="E720" s="9"/>
       <c r="F720" s="20"/>
       <c r="G720" s="13" t="str">
@@ -20672,11 +20686,13 @@
       <c r="H720" s="39"/>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
-      <c r="K720" s="20"/>
+      <c r="K720" s="47">
+        <v>45086</v>
+      </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20694,7 +20710,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20712,25 +20728,25 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B723" s="15"/>
-      <c r="C723" s="41"/>
-      <c r="D723" s="42"/>
+        <v>45170</v>
+      </c>
+      <c r="B723" s="20"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="39"/>
       <c r="E723" s="9"/>
-      <c r="F723" s="15"/>
-      <c r="G723" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H723" s="42"/>
+      <c r="F723" s="20"/>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H723" s="39"/>
       <c r="I723" s="9"/>
-      <c r="J723" s="12"/>
-      <c r="K723" s="15"/>
+      <c r="J723" s="11"/>
+      <c r="K723" s="20"/>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20748,25 +20764,25 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B725" s="20"/>
-      <c r="C725" s="13"/>
-      <c r="D725" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B725" s="15"/>
+      <c r="C725" s="41"/>
+      <c r="D725" s="42"/>
       <c r="E725" s="9"/>
-      <c r="F725" s="20"/>
-      <c r="G725" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H725" s="39"/>
+      <c r="F725" s="15"/>
+      <c r="G725" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="42"/>
       <c r="I725" s="9"/>
-      <c r="J725" s="11"/>
-      <c r="K725" s="20"/>
+      <c r="J725" s="12"/>
+      <c r="K725" s="15"/>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20781,2184 +20797,6 @@
       <c r="I726" s="9"/>
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
-    </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A727" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B727" s="20"/>
-      <c r="C727" s="13"/>
-      <c r="D727" s="39"/>
-      <c r="E727" s="9"/>
-      <c r="F727" s="20"/>
-      <c r="G727" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H727" s="39"/>
-      <c r="I727" s="9"/>
-      <c r="J727" s="11"/>
-      <c r="K727" s="20"/>
-    </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A728" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B728" s="20"/>
-      <c r="C728" s="13"/>
-      <c r="D728" s="39"/>
-      <c r="E728" s="9"/>
-      <c r="F728" s="20"/>
-      <c r="G728" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H728" s="39"/>
-      <c r="I728" s="9"/>
-      <c r="J728" s="11"/>
-      <c r="K728" s="20"/>
-    </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A729" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B729" s="20"/>
-      <c r="C729" s="13"/>
-      <c r="D729" s="39"/>
-      <c r="E729" s="9"/>
-      <c r="F729" s="20"/>
-      <c r="G729" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H729" s="39"/>
-      <c r="I729" s="9"/>
-      <c r="J729" s="11"/>
-      <c r="K729" s="20"/>
-    </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A730" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B730" s="20"/>
-      <c r="C730" s="13"/>
-      <c r="D730" s="39"/>
-      <c r="E730" s="9"/>
-      <c r="F730" s="20"/>
-      <c r="G730" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H730" s="39"/>
-      <c r="I730" s="9"/>
-      <c r="J730" s="11"/>
-      <c r="K730" s="20"/>
-    </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A731" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B731" s="20"/>
-      <c r="C731" s="13"/>
-      <c r="D731" s="39"/>
-      <c r="E731" s="9"/>
-      <c r="F731" s="20"/>
-      <c r="G731" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H731" s="39"/>
-      <c r="I731" s="9"/>
-      <c r="J731" s="11"/>
-      <c r="K731" s="20"/>
-    </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A732" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B732" s="20"/>
-      <c r="C732" s="13"/>
-      <c r="D732" s="39"/>
-      <c r="E732" s="9"/>
-      <c r="F732" s="20"/>
-      <c r="G732" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H732" s="39"/>
-      <c r="I732" s="9"/>
-      <c r="J732" s="11"/>
-      <c r="K732" s="20"/>
-    </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A733" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B733" s="20"/>
-      <c r="C733" s="13"/>
-      <c r="D733" s="39"/>
-      <c r="E733" s="9"/>
-      <c r="F733" s="20"/>
-      <c r="G733" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H733" s="39"/>
-      <c r="I733" s="9"/>
-      <c r="J733" s="11"/>
-      <c r="K733" s="20"/>
-    </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A734" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B734" s="20"/>
-      <c r="C734" s="13"/>
-      <c r="D734" s="39"/>
-      <c r="E734" s="9"/>
-      <c r="F734" s="20"/>
-      <c r="G734" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H734" s="39"/>
-      <c r="I734" s="9"/>
-      <c r="J734" s="11"/>
-      <c r="K734" s="20"/>
-    </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A735" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B735" s="20"/>
-      <c r="C735" s="13"/>
-      <c r="D735" s="39"/>
-      <c r="E735" s="9"/>
-      <c r="F735" s="20"/>
-      <c r="G735" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H735" s="39"/>
-      <c r="I735" s="9"/>
-      <c r="J735" s="11"/>
-      <c r="K735" s="20"/>
-    </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A736" s="40">
-        <v>45627</v>
-      </c>
-      <c r="B736" s="20"/>
-      <c r="C736" s="13"/>
-      <c r="D736" s="39"/>
-      <c r="E736" s="9"/>
-      <c r="F736" s="20"/>
-      <c r="G736" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H736" s="39"/>
-      <c r="I736" s="9"/>
-      <c r="J736" s="11"/>
-      <c r="K736" s="20"/>
-    </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A737" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B737" s="20"/>
-      <c r="C737" s="13"/>
-      <c r="D737" s="39"/>
-      <c r="E737" s="9"/>
-      <c r="F737" s="20"/>
-      <c r="G737" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H737" s="39"/>
-      <c r="I737" s="9"/>
-      <c r="J737" s="11"/>
-      <c r="K737" s="20"/>
-    </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A738" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B738" s="20"/>
-      <c r="C738" s="13"/>
-      <c r="D738" s="39"/>
-      <c r="E738" s="9"/>
-      <c r="F738" s="20"/>
-      <c r="G738" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H738" s="39"/>
-      <c r="I738" s="9"/>
-      <c r="J738" s="11"/>
-      <c r="K738" s="20"/>
-    </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A739" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B739" s="20"/>
-      <c r="C739" s="13"/>
-      <c r="D739" s="39"/>
-      <c r="E739" s="9"/>
-      <c r="F739" s="20"/>
-      <c r="G739" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H739" s="39"/>
-      <c r="I739" s="9"/>
-      <c r="J739" s="11"/>
-      <c r="K739" s="20"/>
-    </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A740" s="40">
-        <v>45748</v>
-      </c>
-      <c r="B740" s="20"/>
-      <c r="C740" s="13"/>
-      <c r="D740" s="39"/>
-      <c r="E740" s="9"/>
-      <c r="F740" s="20"/>
-      <c r="G740" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H740" s="39"/>
-      <c r="I740" s="9"/>
-      <c r="J740" s="11"/>
-      <c r="K740" s="20"/>
-    </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A741" s="40">
-        <v>45778</v>
-      </c>
-      <c r="B741" s="20"/>
-      <c r="C741" s="13"/>
-      <c r="D741" s="39"/>
-      <c r="E741" s="9"/>
-      <c r="F741" s="20"/>
-      <c r="G741" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H741" s="39"/>
-      <c r="I741" s="9"/>
-      <c r="J741" s="11"/>
-      <c r="K741" s="20"/>
-    </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A742" s="40">
-        <v>45809</v>
-      </c>
-      <c r="B742" s="20"/>
-      <c r="C742" s="13"/>
-      <c r="D742" s="39"/>
-      <c r="E742" s="9"/>
-      <c r="F742" s="20"/>
-      <c r="G742" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H742" s="39"/>
-      <c r="I742" s="9"/>
-      <c r="J742" s="11"/>
-      <c r="K742" s="20"/>
-    </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A743" s="40">
-        <v>45839</v>
-      </c>
-      <c r="B743" s="20"/>
-      <c r="C743" s="13"/>
-      <c r="D743" s="39"/>
-      <c r="E743" s="9"/>
-      <c r="F743" s="20"/>
-      <c r="G743" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H743" s="39"/>
-      <c r="I743" s="9"/>
-      <c r="J743" s="11"/>
-      <c r="K743" s="20"/>
-    </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A744" s="40">
-        <v>45870</v>
-      </c>
-      <c r="B744" s="20"/>
-      <c r="C744" s="13"/>
-      <c r="D744" s="39"/>
-      <c r="E744" s="9"/>
-      <c r="F744" s="20"/>
-      <c r="G744" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H744" s="39"/>
-      <c r="I744" s="9"/>
-      <c r="J744" s="11"/>
-      <c r="K744" s="20"/>
-    </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A745" s="40">
-        <v>45901</v>
-      </c>
-      <c r="B745" s="20"/>
-      <c r="C745" s="13"/>
-      <c r="D745" s="39"/>
-      <c r="E745" s="9"/>
-      <c r="F745" s="20"/>
-      <c r="G745" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H745" s="39"/>
-      <c r="I745" s="9"/>
-      <c r="J745" s="11"/>
-      <c r="K745" s="20"/>
-    </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A746" s="40">
-        <v>45931</v>
-      </c>
-      <c r="B746" s="20"/>
-      <c r="C746" s="13"/>
-      <c r="D746" s="39"/>
-      <c r="E746" s="9"/>
-      <c r="F746" s="20"/>
-      <c r="G746" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H746" s="39"/>
-      <c r="I746" s="9"/>
-      <c r="J746" s="11"/>
-      <c r="K746" s="20"/>
-    </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A747" s="40">
-        <v>45962</v>
-      </c>
-      <c r="B747" s="20"/>
-      <c r="C747" s="13"/>
-      <c r="D747" s="39"/>
-      <c r="E747" s="9"/>
-      <c r="F747" s="20"/>
-      <c r="G747" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H747" s="39"/>
-      <c r="I747" s="9"/>
-      <c r="J747" s="11"/>
-      <c r="K747" s="20"/>
-    </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A748" s="40">
-        <v>45992</v>
-      </c>
-      <c r="B748" s="20"/>
-      <c r="C748" s="13"/>
-      <c r="D748" s="39"/>
-      <c r="E748" s="9"/>
-      <c r="F748" s="20"/>
-      <c r="G748" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H748" s="39"/>
-      <c r="I748" s="9"/>
-      <c r="J748" s="11"/>
-      <c r="K748" s="20"/>
-    </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A749" s="40">
-        <v>46023</v>
-      </c>
-      <c r="B749" s="20"/>
-      <c r="C749" s="13"/>
-      <c r="D749" s="39"/>
-      <c r="E749" s="9"/>
-      <c r="F749" s="20"/>
-      <c r="G749" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H749" s="39"/>
-      <c r="I749" s="9"/>
-      <c r="J749" s="11"/>
-      <c r="K749" s="20"/>
-    </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A750" s="40">
-        <v>46054</v>
-      </c>
-      <c r="B750" s="20"/>
-      <c r="C750" s="13"/>
-      <c r="D750" s="39"/>
-      <c r="E750" s="9"/>
-      <c r="F750" s="20"/>
-      <c r="G750" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H750" s="39"/>
-      <c r="I750" s="9"/>
-      <c r="J750" s="11"/>
-      <c r="K750" s="20"/>
-    </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A751" s="40">
-        <v>46082</v>
-      </c>
-      <c r="B751" s="20"/>
-      <c r="C751" s="13"/>
-      <c r="D751" s="39"/>
-      <c r="E751" s="9"/>
-      <c r="F751" s="20"/>
-      <c r="G751" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H751" s="39"/>
-      <c r="I751" s="9"/>
-      <c r="J751" s="11"/>
-      <c r="K751" s="20"/>
-    </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A752" s="40">
-        <v>46113</v>
-      </c>
-      <c r="B752" s="20"/>
-      <c r="C752" s="13"/>
-      <c r="D752" s="39"/>
-      <c r="E752" s="9"/>
-      <c r="F752" s="20"/>
-      <c r="G752" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H752" s="39"/>
-      <c r="I752" s="9"/>
-      <c r="J752" s="11"/>
-      <c r="K752" s="20"/>
-    </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A753" s="40">
-        <v>46143</v>
-      </c>
-      <c r="B753" s="20"/>
-      <c r="C753" s="13"/>
-      <c r="D753" s="39"/>
-      <c r="E753" s="9"/>
-      <c r="F753" s="20"/>
-      <c r="G753" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H753" s="39"/>
-      <c r="I753" s="9"/>
-      <c r="J753" s="11"/>
-      <c r="K753" s="20"/>
-    </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A754" s="40">
-        <v>46174</v>
-      </c>
-      <c r="B754" s="20"/>
-      <c r="C754" s="13"/>
-      <c r="D754" s="39"/>
-      <c r="E754" s="9"/>
-      <c r="F754" s="20"/>
-      <c r="G754" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H754" s="39"/>
-      <c r="I754" s="9"/>
-      <c r="J754" s="11"/>
-      <c r="K754" s="20"/>
-    </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A755" s="40">
-        <v>46204</v>
-      </c>
-      <c r="B755" s="20"/>
-      <c r="C755" s="13"/>
-      <c r="D755" s="39"/>
-      <c r="E755" s="9"/>
-      <c r="F755" s="20"/>
-      <c r="G755" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H755" s="39"/>
-      <c r="I755" s="9"/>
-      <c r="J755" s="11"/>
-      <c r="K755" s="20"/>
-    </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A756" s="40">
-        <v>46235</v>
-      </c>
-      <c r="B756" s="20"/>
-      <c r="C756" s="13"/>
-      <c r="D756" s="39"/>
-      <c r="E756" s="9"/>
-      <c r="F756" s="20"/>
-      <c r="G756" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H756" s="39"/>
-      <c r="I756" s="9"/>
-      <c r="J756" s="11"/>
-      <c r="K756" s="20"/>
-    </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A757" s="40">
-        <v>46266</v>
-      </c>
-      <c r="B757" s="20"/>
-      <c r="C757" s="13"/>
-      <c r="D757" s="39"/>
-      <c r="E757" s="9"/>
-      <c r="F757" s="20"/>
-      <c r="G757" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H757" s="39"/>
-      <c r="I757" s="9"/>
-      <c r="J757" s="11"/>
-      <c r="K757" s="20"/>
-    </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A758" s="40">
-        <v>46296</v>
-      </c>
-      <c r="B758" s="20"/>
-      <c r="C758" s="13"/>
-      <c r="D758" s="39"/>
-      <c r="E758" s="9"/>
-      <c r="F758" s="20"/>
-      <c r="G758" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H758" s="39"/>
-      <c r="I758" s="9"/>
-      <c r="J758" s="11"/>
-      <c r="K758" s="20"/>
-    </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A759" s="40">
-        <v>46327</v>
-      </c>
-      <c r="B759" s="20"/>
-      <c r="C759" s="13"/>
-      <c r="D759" s="39"/>
-      <c r="E759" s="9"/>
-      <c r="F759" s="20"/>
-      <c r="G759" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H759" s="39"/>
-      <c r="I759" s="9"/>
-      <c r="J759" s="11"/>
-      <c r="K759" s="20"/>
-    </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A760" s="40">
-        <v>46357</v>
-      </c>
-      <c r="B760" s="20"/>
-      <c r="C760" s="13"/>
-      <c r="D760" s="39"/>
-      <c r="E760" s="9"/>
-      <c r="F760" s="20"/>
-      <c r="G760" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H760" s="39"/>
-      <c r="I760" s="9"/>
-      <c r="J760" s="11"/>
-      <c r="K760" s="20"/>
-    </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A761" s="40">
-        <v>46388</v>
-      </c>
-      <c r="B761" s="20"/>
-      <c r="C761" s="13"/>
-      <c r="D761" s="39"/>
-      <c r="E761" s="9"/>
-      <c r="F761" s="20"/>
-      <c r="G761" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H761" s="39"/>
-      <c r="I761" s="9"/>
-      <c r="J761" s="11"/>
-      <c r="K761" s="20"/>
-    </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A762" s="40">
-        <v>46419</v>
-      </c>
-      <c r="B762" s="20"/>
-      <c r="C762" s="13"/>
-      <c r="D762" s="39"/>
-      <c r="E762" s="9"/>
-      <c r="F762" s="20"/>
-      <c r="G762" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H762" s="39"/>
-      <c r="I762" s="9"/>
-      <c r="J762" s="11"/>
-      <c r="K762" s="20"/>
-    </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A763" s="40">
-        <v>46447</v>
-      </c>
-      <c r="B763" s="20"/>
-      <c r="C763" s="13"/>
-      <c r="D763" s="39"/>
-      <c r="E763" s="9"/>
-      <c r="F763" s="20"/>
-      <c r="G763" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H763" s="39"/>
-      <c r="I763" s="9"/>
-      <c r="J763" s="11"/>
-      <c r="K763" s="20"/>
-    </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A764" s="40">
-        <v>46478</v>
-      </c>
-      <c r="B764" s="20"/>
-      <c r="C764" s="13"/>
-      <c r="D764" s="39"/>
-      <c r="E764" s="9"/>
-      <c r="F764" s="20"/>
-      <c r="G764" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H764" s="39"/>
-      <c r="I764" s="9"/>
-      <c r="J764" s="11"/>
-      <c r="K764" s="20"/>
-    </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A765" s="40">
-        <v>46508</v>
-      </c>
-      <c r="B765" s="20"/>
-      <c r="C765" s="13"/>
-      <c r="D765" s="39"/>
-      <c r="E765" s="9"/>
-      <c r="F765" s="20"/>
-      <c r="G765" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H765" s="39"/>
-      <c r="I765" s="9"/>
-      <c r="J765" s="11"/>
-      <c r="K765" s="20"/>
-    </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A766" s="40">
-        <v>46539</v>
-      </c>
-      <c r="B766" s="20"/>
-      <c r="C766" s="13"/>
-      <c r="D766" s="39"/>
-      <c r="E766" s="9"/>
-      <c r="F766" s="20"/>
-      <c r="G766" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H766" s="39"/>
-      <c r="I766" s="9"/>
-      <c r="J766" s="11"/>
-      <c r="K766" s="20"/>
-    </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A767" s="40">
-        <v>46569</v>
-      </c>
-      <c r="B767" s="20"/>
-      <c r="C767" s="13"/>
-      <c r="D767" s="39"/>
-      <c r="E767" s="9"/>
-      <c r="F767" s="20"/>
-      <c r="G767" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H767" s="39"/>
-      <c r="I767" s="9"/>
-      <c r="J767" s="11"/>
-      <c r="K767" s="20"/>
-    </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A768" s="40">
-        <v>46600</v>
-      </c>
-      <c r="B768" s="20"/>
-      <c r="C768" s="13"/>
-      <c r="D768" s="39"/>
-      <c r="E768" s="9"/>
-      <c r="F768" s="20"/>
-      <c r="G768" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H768" s="39"/>
-      <c r="I768" s="9"/>
-      <c r="J768" s="11"/>
-      <c r="K768" s="20"/>
-    </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A769" s="40">
-        <v>46631</v>
-      </c>
-      <c r="B769" s="20"/>
-      <c r="C769" s="13"/>
-      <c r="D769" s="39"/>
-      <c r="E769" s="9"/>
-      <c r="F769" s="20"/>
-      <c r="G769" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H769" s="39"/>
-      <c r="I769" s="9"/>
-      <c r="J769" s="11"/>
-      <c r="K769" s="20"/>
-    </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A770" s="40">
-        <v>46661</v>
-      </c>
-      <c r="B770" s="20"/>
-      <c r="C770" s="13"/>
-      <c r="D770" s="39"/>
-      <c r="E770" s="9"/>
-      <c r="F770" s="20"/>
-      <c r="G770" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H770" s="39"/>
-      <c r="I770" s="9"/>
-      <c r="J770" s="11"/>
-      <c r="K770" s="20"/>
-    </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A771" s="40">
-        <v>46692</v>
-      </c>
-      <c r="B771" s="20"/>
-      <c r="C771" s="13"/>
-      <c r="D771" s="39"/>
-      <c r="E771" s="9"/>
-      <c r="F771" s="20"/>
-      <c r="G771" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H771" s="39"/>
-      <c r="I771" s="9"/>
-      <c r="J771" s="11"/>
-      <c r="K771" s="20"/>
-    </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A772" s="40">
-        <v>46722</v>
-      </c>
-      <c r="B772" s="20"/>
-      <c r="C772" s="13"/>
-      <c r="D772" s="39"/>
-      <c r="E772" s="9"/>
-      <c r="F772" s="20"/>
-      <c r="G772" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H772" s="39"/>
-      <c r="I772" s="9"/>
-      <c r="J772" s="11"/>
-      <c r="K772" s="20"/>
-    </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A773" s="40">
-        <v>46753</v>
-      </c>
-      <c r="B773" s="20"/>
-      <c r="C773" s="13"/>
-      <c r="D773" s="39"/>
-      <c r="E773" s="9"/>
-      <c r="F773" s="20"/>
-      <c r="G773" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H773" s="39"/>
-      <c r="I773" s="9"/>
-      <c r="J773" s="11"/>
-      <c r="K773" s="20"/>
-    </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A774" s="40">
-        <v>46784</v>
-      </c>
-      <c r="B774" s="20"/>
-      <c r="C774" s="13"/>
-      <c r="D774" s="39"/>
-      <c r="E774" s="9"/>
-      <c r="F774" s="20"/>
-      <c r="G774" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H774" s="39"/>
-      <c r="I774" s="9"/>
-      <c r="J774" s="11"/>
-      <c r="K774" s="20"/>
-    </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A775" s="40">
-        <v>46813</v>
-      </c>
-      <c r="B775" s="20"/>
-      <c r="C775" s="13"/>
-      <c r="D775" s="39"/>
-      <c r="E775" s="9"/>
-      <c r="F775" s="20"/>
-      <c r="G775" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H775" s="39"/>
-      <c r="I775" s="9"/>
-      <c r="J775" s="11"/>
-      <c r="K775" s="20"/>
-    </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A776" s="40">
-        <v>46844</v>
-      </c>
-      <c r="B776" s="20"/>
-      <c r="C776" s="13"/>
-      <c r="D776" s="39"/>
-      <c r="E776" s="9"/>
-      <c r="F776" s="20"/>
-      <c r="G776" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H776" s="39"/>
-      <c r="I776" s="9"/>
-      <c r="J776" s="11"/>
-      <c r="K776" s="20"/>
-    </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A777" s="40">
-        <v>46874</v>
-      </c>
-      <c r="B777" s="20"/>
-      <c r="C777" s="13"/>
-      <c r="D777" s="39"/>
-      <c r="E777" s="9"/>
-      <c r="F777" s="20"/>
-      <c r="G777" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H777" s="39"/>
-      <c r="I777" s="9"/>
-      <c r="J777" s="11"/>
-      <c r="K777" s="20"/>
-    </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A778" s="40">
-        <v>46905</v>
-      </c>
-      <c r="B778" s="20"/>
-      <c r="C778" s="13"/>
-      <c r="D778" s="39"/>
-      <c r="E778" s="9"/>
-      <c r="F778" s="20"/>
-      <c r="G778" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H778" s="39"/>
-      <c r="I778" s="9"/>
-      <c r="J778" s="11"/>
-      <c r="K778" s="20"/>
-    </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A779" s="40">
-        <v>46935</v>
-      </c>
-      <c r="B779" s="20"/>
-      <c r="C779" s="13"/>
-      <c r="D779" s="39"/>
-      <c r="E779" s="9"/>
-      <c r="F779" s="20"/>
-      <c r="G779" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H779" s="39"/>
-      <c r="I779" s="9"/>
-      <c r="J779" s="11"/>
-      <c r="K779" s="20"/>
-    </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A780" s="40">
-        <v>46966</v>
-      </c>
-      <c r="B780" s="20"/>
-      <c r="C780" s="13"/>
-      <c r="D780" s="39"/>
-      <c r="E780" s="9"/>
-      <c r="F780" s="20"/>
-      <c r="G780" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H780" s="39"/>
-      <c r="I780" s="9"/>
-      <c r="J780" s="11"/>
-      <c r="K780" s="20"/>
-    </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A781" s="40">
-        <v>46997</v>
-      </c>
-      <c r="B781" s="20"/>
-      <c r="C781" s="13"/>
-      <c r="D781" s="39"/>
-      <c r="E781" s="9"/>
-      <c r="F781" s="20"/>
-      <c r="G781" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H781" s="39"/>
-      <c r="I781" s="9"/>
-      <c r="J781" s="11"/>
-      <c r="K781" s="20"/>
-    </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A782" s="40">
-        <v>47027</v>
-      </c>
-      <c r="B782" s="20"/>
-      <c r="C782" s="13"/>
-      <c r="D782" s="39"/>
-      <c r="E782" s="9"/>
-      <c r="F782" s="20"/>
-      <c r="G782" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H782" s="39"/>
-      <c r="I782" s="9"/>
-      <c r="J782" s="11"/>
-      <c r="K782" s="20"/>
-    </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A783" s="40">
-        <v>47058</v>
-      </c>
-      <c r="B783" s="20"/>
-      <c r="C783" s="13"/>
-      <c r="D783" s="39"/>
-      <c r="E783" s="9"/>
-      <c r="F783" s="20"/>
-      <c r="G783" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H783" s="39"/>
-      <c r="I783" s="9"/>
-      <c r="J783" s="11"/>
-      <c r="K783" s="20"/>
-    </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A784" s="40">
-        <v>47088</v>
-      </c>
-      <c r="B784" s="20"/>
-      <c r="C784" s="13"/>
-      <c r="D784" s="39"/>
-      <c r="E784" s="9"/>
-      <c r="F784" s="20"/>
-      <c r="G784" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H784" s="39"/>
-      <c r="I784" s="9"/>
-      <c r="J784" s="11"/>
-      <c r="K784" s="20"/>
-    </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A785" s="40">
-        <v>47119</v>
-      </c>
-      <c r="B785" s="20"/>
-      <c r="C785" s="13"/>
-      <c r="D785" s="39"/>
-      <c r="E785" s="9"/>
-      <c r="F785" s="20"/>
-      <c r="G785" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H785" s="39"/>
-      <c r="I785" s="9"/>
-      <c r="J785" s="11"/>
-      <c r="K785" s="20"/>
-    </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A786" s="40">
-        <v>47150</v>
-      </c>
-      <c r="B786" s="20"/>
-      <c r="C786" s="13"/>
-      <c r="D786" s="39"/>
-      <c r="E786" s="9"/>
-      <c r="F786" s="20"/>
-      <c r="G786" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H786" s="39"/>
-      <c r="I786" s="9"/>
-      <c r="J786" s="11"/>
-      <c r="K786" s="20"/>
-    </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A787" s="40">
-        <v>47178</v>
-      </c>
-      <c r="B787" s="20"/>
-      <c r="C787" s="13"/>
-      <c r="D787" s="39"/>
-      <c r="E787" s="9"/>
-      <c r="F787" s="20"/>
-      <c r="G787" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H787" s="39"/>
-      <c r="I787" s="9"/>
-      <c r="J787" s="11"/>
-      <c r="K787" s="20"/>
-    </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A788" s="40">
-        <v>47209</v>
-      </c>
-      <c r="B788" s="20"/>
-      <c r="C788" s="13"/>
-      <c r="D788" s="39"/>
-      <c r="E788" s="9"/>
-      <c r="F788" s="20"/>
-      <c r="G788" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H788" s="39"/>
-      <c r="I788" s="9"/>
-      <c r="J788" s="11"/>
-      <c r="K788" s="20"/>
-    </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A789" s="40">
-        <v>47239</v>
-      </c>
-      <c r="B789" s="20"/>
-      <c r="C789" s="13"/>
-      <c r="D789" s="39"/>
-      <c r="E789" s="9"/>
-      <c r="F789" s="20"/>
-      <c r="G789" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H789" s="39"/>
-      <c r="I789" s="9"/>
-      <c r="J789" s="11"/>
-      <c r="K789" s="20"/>
-    </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A790" s="40">
-        <v>47270</v>
-      </c>
-      <c r="B790" s="20"/>
-      <c r="C790" s="13"/>
-      <c r="D790" s="39"/>
-      <c r="E790" s="9"/>
-      <c r="F790" s="20"/>
-      <c r="G790" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H790" s="39"/>
-      <c r="I790" s="9"/>
-      <c r="J790" s="11"/>
-      <c r="K790" s="20"/>
-    </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A791" s="40">
-        <v>47300</v>
-      </c>
-      <c r="B791" s="20"/>
-      <c r="C791" s="13"/>
-      <c r="D791" s="39"/>
-      <c r="E791" s="9"/>
-      <c r="F791" s="20"/>
-      <c r="G791" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H791" s="39"/>
-      <c r="I791" s="9"/>
-      <c r="J791" s="11"/>
-      <c r="K791" s="20"/>
-    </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A792" s="40">
-        <v>47331</v>
-      </c>
-      <c r="B792" s="20"/>
-      <c r="C792" s="13"/>
-      <c r="D792" s="39"/>
-      <c r="E792" s="9"/>
-      <c r="F792" s="20"/>
-      <c r="G792" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H792" s="39"/>
-      <c r="I792" s="9"/>
-      <c r="J792" s="11"/>
-      <c r="K792" s="20"/>
-    </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A793" s="40">
-        <v>47362</v>
-      </c>
-      <c r="B793" s="20"/>
-      <c r="C793" s="13"/>
-      <c r="D793" s="39"/>
-      <c r="E793" s="9"/>
-      <c r="F793" s="20"/>
-      <c r="G793" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H793" s="39"/>
-      <c r="I793" s="9"/>
-      <c r="J793" s="11"/>
-      <c r="K793" s="20"/>
-    </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A794" s="40">
-        <v>47392</v>
-      </c>
-      <c r="B794" s="20"/>
-      <c r="C794" s="13"/>
-      <c r="D794" s="39"/>
-      <c r="E794" s="9"/>
-      <c r="F794" s="20"/>
-      <c r="G794" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H794" s="39"/>
-      <c r="I794" s="9"/>
-      <c r="J794" s="11"/>
-      <c r="K794" s="20"/>
-    </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A795" s="40">
-        <v>47423</v>
-      </c>
-      <c r="B795" s="20"/>
-      <c r="C795" s="13"/>
-      <c r="D795" s="39"/>
-      <c r="E795" s="9"/>
-      <c r="F795" s="20"/>
-      <c r="G795" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H795" s="39"/>
-      <c r="I795" s="9"/>
-      <c r="J795" s="11"/>
-      <c r="K795" s="20"/>
-    </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A796" s="40">
-        <v>47453</v>
-      </c>
-      <c r="B796" s="20"/>
-      <c r="C796" s="13"/>
-      <c r="D796" s="39"/>
-      <c r="E796" s="9"/>
-      <c r="F796" s="20"/>
-      <c r="G796" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H796" s="39"/>
-      <c r="I796" s="9"/>
-      <c r="J796" s="11"/>
-      <c r="K796" s="20"/>
-    </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A797" s="40">
-        <v>47484</v>
-      </c>
-      <c r="B797" s="20"/>
-      <c r="C797" s="13"/>
-      <c r="D797" s="39"/>
-      <c r="E797" s="9"/>
-      <c r="F797" s="20"/>
-      <c r="G797" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H797" s="39"/>
-      <c r="I797" s="9"/>
-      <c r="J797" s="11"/>
-      <c r="K797" s="20"/>
-    </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A798" s="40">
-        <v>47515</v>
-      </c>
-      <c r="B798" s="20"/>
-      <c r="C798" s="13"/>
-      <c r="D798" s="39"/>
-      <c r="E798" s="9"/>
-      <c r="F798" s="20"/>
-      <c r="G798" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H798" s="39"/>
-      <c r="I798" s="9"/>
-      <c r="J798" s="11"/>
-      <c r="K798" s="20"/>
-    </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A799" s="40">
-        <v>47543</v>
-      </c>
-      <c r="B799" s="20"/>
-      <c r="C799" s="13"/>
-      <c r="D799" s="39"/>
-      <c r="E799" s="9"/>
-      <c r="F799" s="20"/>
-      <c r="G799" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H799" s="39"/>
-      <c r="I799" s="9"/>
-      <c r="J799" s="11"/>
-      <c r="K799" s="20"/>
-    </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A800" s="40">
-        <v>47574</v>
-      </c>
-      <c r="B800" s="20"/>
-      <c r="C800" s="13"/>
-      <c r="D800" s="39"/>
-      <c r="E800" s="9"/>
-      <c r="F800" s="20"/>
-      <c r="G800" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H800" s="39"/>
-      <c r="I800" s="9"/>
-      <c r="J800" s="11"/>
-      <c r="K800" s="20"/>
-    </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A801" s="40">
-        <v>47604</v>
-      </c>
-      <c r="B801" s="20"/>
-      <c r="C801" s="13"/>
-      <c r="D801" s="39"/>
-      <c r="E801" s="9"/>
-      <c r="F801" s="20"/>
-      <c r="G801" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H801" s="39"/>
-      <c r="I801" s="9"/>
-      <c r="J801" s="11"/>
-      <c r="K801" s="20"/>
-    </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A802" s="40">
-        <v>47635</v>
-      </c>
-      <c r="B802" s="20"/>
-      <c r="C802" s="13"/>
-      <c r="D802" s="39"/>
-      <c r="E802" s="9"/>
-      <c r="F802" s="20"/>
-      <c r="G802" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H802" s="39"/>
-      <c r="I802" s="9"/>
-      <c r="J802" s="11"/>
-      <c r="K802" s="20"/>
-    </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A803" s="40">
-        <v>47665</v>
-      </c>
-      <c r="B803" s="20"/>
-      <c r="C803" s="13"/>
-      <c r="D803" s="39"/>
-      <c r="E803" s="9"/>
-      <c r="F803" s="20"/>
-      <c r="G803" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H803" s="39"/>
-      <c r="I803" s="9"/>
-      <c r="J803" s="11"/>
-      <c r="K803" s="20"/>
-    </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A804" s="40">
-        <v>47696</v>
-      </c>
-      <c r="B804" s="20"/>
-      <c r="C804" s="13"/>
-      <c r="D804" s="39"/>
-      <c r="E804" s="9"/>
-      <c r="F804" s="20"/>
-      <c r="G804" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H804" s="39"/>
-      <c r="I804" s="9"/>
-      <c r="J804" s="11"/>
-      <c r="K804" s="20"/>
-    </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A805" s="40">
-        <v>47727</v>
-      </c>
-      <c r="B805" s="20"/>
-      <c r="C805" s="13"/>
-      <c r="D805" s="39"/>
-      <c r="E805" s="9"/>
-      <c r="F805" s="20"/>
-      <c r="G805" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H805" s="39"/>
-      <c r="I805" s="9"/>
-      <c r="J805" s="11"/>
-      <c r="K805" s="20"/>
-    </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A806" s="40">
-        <v>47757</v>
-      </c>
-      <c r="B806" s="20"/>
-      <c r="C806" s="13"/>
-      <c r="D806" s="39"/>
-      <c r="E806" s="9"/>
-      <c r="F806" s="20"/>
-      <c r="G806" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H806" s="39"/>
-      <c r="I806" s="9"/>
-      <c r="J806" s="11"/>
-      <c r="K806" s="20"/>
-    </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A807" s="40">
-        <v>47788</v>
-      </c>
-      <c r="B807" s="20"/>
-      <c r="C807" s="13"/>
-      <c r="D807" s="39"/>
-      <c r="E807" s="9"/>
-      <c r="F807" s="20"/>
-      <c r="G807" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H807" s="39"/>
-      <c r="I807" s="9"/>
-      <c r="J807" s="11"/>
-      <c r="K807" s="20"/>
-    </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A808" s="40">
-        <v>47818</v>
-      </c>
-      <c r="B808" s="20"/>
-      <c r="C808" s="13"/>
-      <c r="D808" s="39"/>
-      <c r="E808" s="9"/>
-      <c r="F808" s="20"/>
-      <c r="G808" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H808" s="39"/>
-      <c r="I808" s="9"/>
-      <c r="J808" s="11"/>
-      <c r="K808" s="20"/>
-    </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A809" s="40">
-        <v>47849</v>
-      </c>
-      <c r="B809" s="20"/>
-      <c r="C809" s="13"/>
-      <c r="D809" s="39"/>
-      <c r="E809" s="9"/>
-      <c r="F809" s="20"/>
-      <c r="G809" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H809" s="39"/>
-      <c r="I809" s="9"/>
-      <c r="J809" s="11"/>
-      <c r="K809" s="20"/>
-    </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A810" s="40">
-        <v>47880</v>
-      </c>
-      <c r="B810" s="20"/>
-      <c r="C810" s="13"/>
-      <c r="D810" s="39"/>
-      <c r="E810" s="9"/>
-      <c r="F810" s="20"/>
-      <c r="G810" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H810" s="39"/>
-      <c r="I810" s="9"/>
-      <c r="J810" s="11"/>
-      <c r="K810" s="20"/>
-    </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A811" s="40">
-        <v>47908</v>
-      </c>
-      <c r="B811" s="20"/>
-      <c r="C811" s="13"/>
-      <c r="D811" s="39"/>
-      <c r="E811" s="9"/>
-      <c r="F811" s="20"/>
-      <c r="G811" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H811" s="39"/>
-      <c r="I811" s="9"/>
-      <c r="J811" s="11"/>
-      <c r="K811" s="20"/>
-    </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A812" s="40">
-        <v>47939</v>
-      </c>
-      <c r="B812" s="20"/>
-      <c r="C812" s="13"/>
-      <c r="D812" s="39"/>
-      <c r="E812" s="9"/>
-      <c r="F812" s="20"/>
-      <c r="G812" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H812" s="39"/>
-      <c r="I812" s="9"/>
-      <c r="J812" s="11"/>
-      <c r="K812" s="20"/>
-    </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A813" s="40">
-        <v>47969</v>
-      </c>
-      <c r="B813" s="20"/>
-      <c r="C813" s="13"/>
-      <c r="D813" s="39"/>
-      <c r="E813" s="9"/>
-      <c r="F813" s="20"/>
-      <c r="G813" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H813" s="39"/>
-      <c r="I813" s="9"/>
-      <c r="J813" s="11"/>
-      <c r="K813" s="20"/>
-    </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A814" s="40">
-        <v>48000</v>
-      </c>
-      <c r="B814" s="20"/>
-      <c r="C814" s="13"/>
-      <c r="D814" s="39"/>
-      <c r="E814" s="9"/>
-      <c r="F814" s="20"/>
-      <c r="G814" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H814" s="39"/>
-      <c r="I814" s="9"/>
-      <c r="J814" s="11"/>
-      <c r="K814" s="20"/>
-    </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A815" s="40">
-        <v>48030</v>
-      </c>
-      <c r="B815" s="20"/>
-      <c r="C815" s="13"/>
-      <c r="D815" s="39"/>
-      <c r="E815" s="9"/>
-      <c r="F815" s="20"/>
-      <c r="G815" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H815" s="39"/>
-      <c r="I815" s="9"/>
-      <c r="J815" s="11"/>
-      <c r="K815" s="20"/>
-    </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A816" s="40">
-        <v>48061</v>
-      </c>
-      <c r="B816" s="20"/>
-      <c r="C816" s="13"/>
-      <c r="D816" s="39"/>
-      <c r="E816" s="9"/>
-      <c r="F816" s="20"/>
-      <c r="G816" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H816" s="39"/>
-      <c r="I816" s="9"/>
-      <c r="J816" s="11"/>
-      <c r="K816" s="20"/>
-    </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A817" s="40">
-        <v>48092</v>
-      </c>
-      <c r="B817" s="20"/>
-      <c r="C817" s="13"/>
-      <c r="D817" s="39"/>
-      <c r="E817" s="9"/>
-      <c r="F817" s="20"/>
-      <c r="G817" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H817" s="39"/>
-      <c r="I817" s="9"/>
-      <c r="J817" s="11"/>
-      <c r="K817" s="20"/>
-    </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A818" s="40">
-        <v>48122</v>
-      </c>
-      <c r="B818" s="20"/>
-      <c r="C818" s="13"/>
-      <c r="D818" s="39"/>
-      <c r="E818" s="9"/>
-      <c r="F818" s="20"/>
-      <c r="G818" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H818" s="39"/>
-      <c r="I818" s="9"/>
-      <c r="J818" s="11"/>
-      <c r="K818" s="20"/>
-    </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A819" s="40">
-        <v>48153</v>
-      </c>
-      <c r="B819" s="20"/>
-      <c r="C819" s="13"/>
-      <c r="D819" s="39"/>
-      <c r="E819" s="9"/>
-      <c r="F819" s="20"/>
-      <c r="G819" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H819" s="39"/>
-      <c r="I819" s="9"/>
-      <c r="J819" s="11"/>
-      <c r="K819" s="20"/>
-    </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A820" s="40">
-        <v>48183</v>
-      </c>
-      <c r="B820" s="20"/>
-      <c r="C820" s="13"/>
-      <c r="D820" s="39"/>
-      <c r="E820" s="9"/>
-      <c r="F820" s="20"/>
-      <c r="G820" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H820" s="39"/>
-      <c r="I820" s="9"/>
-      <c r="J820" s="11"/>
-      <c r="K820" s="20"/>
-    </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A821" s="40">
-        <v>48214</v>
-      </c>
-      <c r="B821" s="20"/>
-      <c r="C821" s="13"/>
-      <c r="D821" s="39"/>
-      <c r="E821" s="9"/>
-      <c r="F821" s="20"/>
-      <c r="G821" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H821" s="39"/>
-      <c r="I821" s="9"/>
-      <c r="J821" s="11"/>
-      <c r="K821" s="20"/>
-    </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A822" s="40">
-        <v>48245</v>
-      </c>
-      <c r="B822" s="20"/>
-      <c r="C822" s="13"/>
-      <c r="D822" s="39"/>
-      <c r="E822" s="9"/>
-      <c r="F822" s="20"/>
-      <c r="G822" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H822" s="39"/>
-      <c r="I822" s="9"/>
-      <c r="J822" s="11"/>
-      <c r="K822" s="20"/>
-    </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A823" s="40">
-        <v>48274</v>
-      </c>
-      <c r="B823" s="20"/>
-      <c r="C823" s="13"/>
-      <c r="D823" s="39"/>
-      <c r="E823" s="9"/>
-      <c r="F823" s="20"/>
-      <c r="G823" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H823" s="39"/>
-      <c r="I823" s="9"/>
-      <c r="J823" s="11"/>
-      <c r="K823" s="20"/>
-    </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A824" s="40">
-        <v>48305</v>
-      </c>
-      <c r="B824" s="20"/>
-      <c r="C824" s="13"/>
-      <c r="D824" s="39"/>
-      <c r="E824" s="9"/>
-      <c r="F824" s="20"/>
-      <c r="G824" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H824" s="39"/>
-      <c r="I824" s="9"/>
-      <c r="J824" s="11"/>
-      <c r="K824" s="20"/>
-    </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A825" s="40">
-        <v>48335</v>
-      </c>
-      <c r="B825" s="20"/>
-      <c r="C825" s="13"/>
-      <c r="D825" s="39"/>
-      <c r="E825" s="9"/>
-      <c r="F825" s="20"/>
-      <c r="G825" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H825" s="39"/>
-      <c r="I825" s="9"/>
-      <c r="J825" s="11"/>
-      <c r="K825" s="20"/>
-    </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A826" s="40">
-        <v>48366</v>
-      </c>
-      <c r="B826" s="20"/>
-      <c r="C826" s="13"/>
-      <c r="D826" s="39"/>
-      <c r="E826" s="9"/>
-      <c r="F826" s="20"/>
-      <c r="G826" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H826" s="39"/>
-      <c r="I826" s="9"/>
-      <c r="J826" s="11"/>
-      <c r="K826" s="20"/>
-    </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A827" s="40">
-        <v>48396</v>
-      </c>
-      <c r="B827" s="20"/>
-      <c r="C827" s="13"/>
-      <c r="D827" s="39"/>
-      <c r="E827" s="9"/>
-      <c r="F827" s="20"/>
-      <c r="G827" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H827" s="39"/>
-      <c r="I827" s="9"/>
-      <c r="J827" s="11"/>
-      <c r="K827" s="20"/>
-    </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A828" s="40">
-        <v>48427</v>
-      </c>
-      <c r="B828" s="20"/>
-      <c r="C828" s="13"/>
-      <c r="D828" s="39"/>
-      <c r="E828" s="9"/>
-      <c r="F828" s="20"/>
-      <c r="G828" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H828" s="39"/>
-      <c r="I828" s="9"/>
-      <c r="J828" s="11"/>
-      <c r="K828" s="20"/>
-    </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A829" s="40">
-        <v>48458</v>
-      </c>
-      <c r="B829" s="20"/>
-      <c r="C829" s="13"/>
-      <c r="D829" s="39"/>
-      <c r="E829" s="9"/>
-      <c r="F829" s="20"/>
-      <c r="G829" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H829" s="39"/>
-      <c r="I829" s="9"/>
-      <c r="J829" s="11"/>
-      <c r="K829" s="20"/>
-    </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A830" s="40">
-        <v>48488</v>
-      </c>
-      <c r="B830" s="20"/>
-      <c r="C830" s="13"/>
-      <c r="D830" s="39"/>
-      <c r="E830" s="9"/>
-      <c r="F830" s="20"/>
-      <c r="G830" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H830" s="39"/>
-      <c r="I830" s="9"/>
-      <c r="J830" s="11"/>
-      <c r="K830" s="20"/>
-    </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A831" s="40">
-        <v>48519</v>
-      </c>
-      <c r="B831" s="20"/>
-      <c r="C831" s="13"/>
-      <c r="D831" s="39"/>
-      <c r="E831" s="9"/>
-      <c r="F831" s="20"/>
-      <c r="G831" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H831" s="39"/>
-      <c r="I831" s="9"/>
-      <c r="J831" s="11"/>
-      <c r="K831" s="20"/>
-    </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A832" s="40">
-        <v>48549</v>
-      </c>
-      <c r="B832" s="20"/>
-      <c r="C832" s="13"/>
-      <c r="D832" s="39"/>
-      <c r="E832" s="9"/>
-      <c r="F832" s="20"/>
-      <c r="G832" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H832" s="39"/>
-      <c r="I832" s="9"/>
-      <c r="J832" s="11"/>
-      <c r="K832" s="20"/>
-    </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A833" s="40">
-        <v>48580</v>
-      </c>
-      <c r="B833" s="20"/>
-      <c r="C833" s="13"/>
-      <c r="D833" s="39"/>
-      <c r="E833" s="9"/>
-      <c r="F833" s="20"/>
-      <c r="G833" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H833" s="39"/>
-      <c r="I833" s="9"/>
-      <c r="J833" s="11"/>
-      <c r="K833" s="20"/>
-    </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A834" s="40">
-        <v>48611</v>
-      </c>
-      <c r="B834" s="20"/>
-      <c r="C834" s="13"/>
-      <c r="D834" s="39"/>
-      <c r="E834" s="9"/>
-      <c r="F834" s="20"/>
-      <c r="G834" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H834" s="39"/>
-      <c r="I834" s="9"/>
-      <c r="J834" s="11"/>
-      <c r="K834" s="20"/>
-    </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A835" s="40">
-        <v>48639</v>
-      </c>
-      <c r="B835" s="20"/>
-      <c r="C835" s="13"/>
-      <c r="D835" s="39"/>
-      <c r="E835" s="9"/>
-      <c r="F835" s="20"/>
-      <c r="G835" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H835" s="39"/>
-      <c r="I835" s="9"/>
-      <c r="J835" s="11"/>
-      <c r="K835" s="20"/>
-    </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A836" s="40">
-        <v>48670</v>
-      </c>
-      <c r="B836" s="20"/>
-      <c r="C836" s="13"/>
-      <c r="D836" s="39"/>
-      <c r="E836" s="9"/>
-      <c r="F836" s="20"/>
-      <c r="G836" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H836" s="39"/>
-      <c r="I836" s="9"/>
-      <c r="J836" s="11"/>
-      <c r="K836" s="20"/>
-    </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A837" s="40">
-        <v>48700</v>
-      </c>
-      <c r="B837" s="20"/>
-      <c r="C837" s="13"/>
-      <c r="D837" s="39"/>
-      <c r="E837" s="9"/>
-      <c r="F837" s="20"/>
-      <c r="G837" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H837" s="39"/>
-      <c r="I837" s="9"/>
-      <c r="J837" s="11"/>
-      <c r="K837" s="20"/>
-    </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A838" s="40">
-        <v>48731</v>
-      </c>
-      <c r="B838" s="20"/>
-      <c r="C838" s="13"/>
-      <c r="D838" s="39"/>
-      <c r="E838" s="9"/>
-      <c r="F838" s="20"/>
-      <c r="G838" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H838" s="39"/>
-      <c r="I838" s="9"/>
-      <c r="J838" s="11"/>
-      <c r="K838" s="20"/>
-    </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A839" s="40">
-        <v>48761</v>
-      </c>
-      <c r="B839" s="20"/>
-      <c r="C839" s="13"/>
-      <c r="D839" s="39"/>
-      <c r="E839" s="9"/>
-      <c r="F839" s="20"/>
-      <c r="G839" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H839" s="39"/>
-      <c r="I839" s="9"/>
-      <c r="J839" s="11"/>
-      <c r="K839" s="20"/>
-    </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A840" s="40">
-        <v>48792</v>
-      </c>
-      <c r="B840" s="20"/>
-      <c r="C840" s="13"/>
-      <c r="D840" s="39"/>
-      <c r="E840" s="9"/>
-      <c r="F840" s="20"/>
-      <c r="G840" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H840" s="39"/>
-      <c r="I840" s="9"/>
-      <c r="J840" s="11"/>
-      <c r="K840" s="20"/>
-    </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A841" s="40">
-        <v>48823</v>
-      </c>
-      <c r="B841" s="20"/>
-      <c r="C841" s="13"/>
-      <c r="D841" s="39"/>
-      <c r="E841" s="9"/>
-      <c r="F841" s="20"/>
-      <c r="G841" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H841" s="39"/>
-      <c r="I841" s="9"/>
-      <c r="J841" s="11"/>
-      <c r="K841" s="20"/>
-    </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A842" s="40">
-        <v>48853</v>
-      </c>
-      <c r="B842" s="20"/>
-      <c r="C842" s="13"/>
-      <c r="D842" s="39"/>
-      <c r="E842" s="9"/>
-      <c r="F842" s="20"/>
-      <c r="G842" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H842" s="39"/>
-      <c r="I842" s="9"/>
-      <c r="J842" s="11"/>
-      <c r="K842" s="20"/>
-    </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A843" s="40">
-        <v>48884</v>
-      </c>
-      <c r="B843" s="20"/>
-      <c r="C843" s="13"/>
-      <c r="D843" s="39"/>
-      <c r="E843" s="9"/>
-      <c r="F843" s="20"/>
-      <c r="G843" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H843" s="39"/>
-      <c r="I843" s="9"/>
-      <c r="J843" s="11"/>
-      <c r="K843" s="20"/>
-    </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A844" s="40">
-        <v>48914</v>
-      </c>
-      <c r="B844" s="20"/>
-      <c r="C844" s="13"/>
-      <c r="D844" s="39"/>
-      <c r="E844" s="9"/>
-      <c r="F844" s="20"/>
-      <c r="G844" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H844" s="39"/>
-      <c r="I844" s="9"/>
-      <c r="J844" s="11"/>
-      <c r="K844" s="20"/>
-    </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A845" s="40">
-        <v>48945</v>
-      </c>
-      <c r="B845" s="20"/>
-      <c r="C845" s="13"/>
-      <c r="D845" s="39"/>
-      <c r="E845" s="9"/>
-      <c r="F845" s="20"/>
-      <c r="G845" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H845" s="39"/>
-      <c r="I845" s="9"/>
-      <c r="J845" s="11"/>
-      <c r="K845" s="20"/>
-    </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A846" s="40">
-        <v>48976</v>
-      </c>
-      <c r="B846" s="20"/>
-      <c r="C846" s="13"/>
-      <c r="D846" s="39"/>
-      <c r="E846" s="9"/>
-      <c r="F846" s="20"/>
-      <c r="G846" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H846" s="39"/>
-      <c r="I846" s="9"/>
-      <c r="J846" s="11"/>
-      <c r="K846" s="20"/>
-    </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A847" s="40">
-        <v>49004</v>
-      </c>
-      <c r="B847" s="20"/>
-      <c r="C847" s="13"/>
-      <c r="D847" s="39"/>
-      <c r="E847" s="9"/>
-      <c r="F847" s="20"/>
-      <c r="G847" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H847" s="39"/>
-      <c r="I847" s="9"/>
-      <c r="J847" s="11"/>
-      <c r="K847" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23130,7 +20968,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>93.721999999999866</v>
+        <v>96.721999999999866</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/LIMBOC, FLORDELIZA.xlsx
+++ b/REGULAR/LIMBOC, FLORDELIZA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD0789-676D-44F9-B100-491A688D7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,28 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="417">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1293,12 +1283,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>6/26-27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2177,7 +2170,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2213,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2277,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2337,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2403,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2466,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2564,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2623,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2688,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2731,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2806,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +2992,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3058,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3116,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3182,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3238,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3313,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3356,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3422,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3478,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3576,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3639,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3695,7 +3688,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3712,25 +3705,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K726" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K727" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3742,13 +3735,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3757,14 +3750,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4068,7 +4061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4078,7 +4071,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4086,34 +4079,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K726"/>
+  <dimension ref="A2:K727"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4020" topLeftCell="A708" activePane="bottomLeft"/>
+      <pane ySplit="4020" topLeftCell="A717" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H719" sqref="H719"/>
+      <selection pane="bottomLeft" activeCell="K722" sqref="K722"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4134,7 +4127,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4152,7 +4145,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +4167,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4182,7 +4175,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4195,7 +4188,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -4212,7 +4205,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4266,12 +4259,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.897999999999996</v>
+        <v>62.897999999999996</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>42</v>
       </c>
@@ -4293,7 +4286,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35248</v>
       </c>
@@ -4313,7 +4306,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35278</v>
       </c>
@@ -4333,7 +4326,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>35309</v>
@@ -4354,7 +4347,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A104" si="0">EDATE(A13,1)</f>
         <v>35339</v>
@@ -4375,7 +4368,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -4396,7 +4389,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -4417,7 +4410,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>45</v>
       </c>
@@ -4435,7 +4428,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f>EDATE(A16,1)</f>
         <v>35431</v>
@@ -4462,7 +4455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>35462</v>
@@ -4483,7 +4476,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>35490</v>
@@ -4510,7 +4503,7 @@
         <v>35492</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -4531,7 +4524,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -4558,7 +4551,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -4579,7 +4572,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -4606,7 +4599,7 @@
         <v>35632</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>163</v>
@@ -4626,7 +4619,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="47"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -4648,7 +4641,7 @@
         <v>35642</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f>EDATE(A24,1)</f>
         <v>35643</v>
@@ -4669,7 +4662,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4696,7 +4689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4723,7 +4716,7 @@
         <v>35718</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>35735</v>
@@ -4750,7 +4743,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4777,7 +4770,7 @@
         <v>35737</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="s">
         <v>46</v>
       </c>
@@ -4795,7 +4788,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>35796</v>
@@ -4816,7 +4809,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="0"/>
         <v>35827</v>
@@ -4843,7 +4836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="0"/>
         <v>35855</v>
@@ -4870,7 +4863,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>56</v>
@@ -4890,7 +4883,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A35,1)</f>
         <v>35886</v>
@@ -4917,7 +4910,7 @@
         <v>35888</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A37,1)</f>
         <v>35916</v>
@@ -4944,7 +4937,7 @@
         <v>35919</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4966,7 +4959,7 @@
         <v>35933</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>35947</v>
@@ -4991,7 +4984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>61</v>
@@ -5011,7 +5004,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>60</v>
@@ -5033,7 +5026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A40,1)</f>
         <v>35977</v>
@@ -5060,7 +5053,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="0"/>
         <v>36008</v>
@@ -5081,7 +5074,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="0"/>
         <v>36039</v>
@@ -5108,7 +5101,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="0"/>
         <v>36069</v>
@@ -5135,7 +5128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="0"/>
         <v>36100</v>
@@ -5156,7 +5149,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -5177,7 +5170,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>47</v>
       </c>
@@ -5195,7 +5188,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f>EDATE(A48,1)</f>
         <v>36161</v>
@@ -5222,7 +5215,7 @@
         <v>36165</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="0"/>
         <v>36192</v>
@@ -5249,7 +5242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="0"/>
         <v>36220</v>
@@ -5274,7 +5267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -5296,7 +5289,7 @@
         <v>36245</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>69</v>
@@ -5316,7 +5309,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f>EDATE(A52,1)</f>
         <v>36251</v>
@@ -5341,7 +5334,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="0"/>
         <v>36281</v>
@@ -5366,7 +5359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>73</v>
@@ -5386,7 +5379,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36312</v>
@@ -5413,7 +5406,7 @@
         <v>36336</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -5440,7 +5433,7 @@
         <v>36363</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -5461,7 +5454,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -5488,7 +5481,7 @@
         <v>36425</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -5507,12 +5500,12 @@
       <c r="H62" s="39"/>
       <c r="I62" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.897999999999996</v>
+        <v>62.897999999999996</v>
       </c>
       <c r="J62" s="11"/>
       <c r="K62" s="47"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36434</v>
@@ -5539,7 +5532,7 @@
         <v>36437</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>36465</v>
@@ -5566,7 +5559,7 @@
         <v>36480</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>75</v>
@@ -5586,7 +5579,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36495</v>
@@ -5613,7 +5606,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>76</v>
@@ -5633,7 +5626,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="46" t="s">
         <v>66</v>
       </c>
@@ -5651,7 +5644,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A66,1)</f>
         <v>36526</v>
@@ -5676,7 +5669,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>36557</v>
@@ -5701,7 +5694,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>50</v>
@@ -5723,7 +5716,7 @@
         <v>36571</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A70,1)</f>
         <v>36586</v>
@@ -5748,7 +5741,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -5768,7 +5761,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A72,1)</f>
         <v>36617</v>
@@ -5795,7 +5788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>83</v>
@@ -5815,7 +5808,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>59</v>
@@ -5836,14 +5829,14 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.897999999999996</v>
+        <v>62.897999999999996</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="47">
         <v>36641</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f>EDATE(A74,1)</f>
         <v>36647</v>
@@ -5870,7 +5863,7 @@
         <v>36651</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>59</v>
@@ -5892,7 +5885,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>50</v>
@@ -5914,7 +5907,7 @@
         <v>36665</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>84</v>
@@ -5936,7 +5929,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>86</v>
@@ -5956,7 +5949,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f>EDATE(A77,1)</f>
         <v>36678</v>
@@ -5983,7 +5976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -6005,7 +5998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>88</v>
@@ -6027,7 +6020,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A82,1)</f>
         <v>36708</v>
@@ -6052,7 +6045,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -6079,7 +6072,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>94</v>
@@ -6099,7 +6092,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>36770</v>
@@ -6124,7 +6117,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" si="0"/>
         <v>36800</v>
@@ -6151,7 +6144,7 @@
         <v>36802</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>60</v>
@@ -6173,7 +6166,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>96</v>
@@ -6193,7 +6186,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="47"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>36831</v>
@@ -6220,7 +6213,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>98</v>
@@ -6240,7 +6233,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="47"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A92,1)</f>
         <v>36861</v>
@@ -6265,7 +6258,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="46" t="s">
         <v>100</v>
       </c>
@@ -6283,7 +6276,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>36892</v>
@@ -6304,7 +6297,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="0"/>
         <v>36923</v>
@@ -6331,7 +6324,7 @@
         <v>36942</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -6358,7 +6351,7 @@
         <v>36980</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="0"/>
         <v>36982</v>
@@ -6385,7 +6378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>67</v>
@@ -6407,7 +6400,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A99,1)</f>
         <v>37012</v>
@@ -6432,7 +6425,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -6453,7 +6446,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -6480,7 +6473,7 @@
         <v>37076</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="0"/>
         <v>37104</v>
@@ -6507,7 +6500,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>59</v>
@@ -6529,7 +6522,7 @@
         <v>37128</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>50</v>
@@ -6551,7 +6544,7 @@
         <v>37105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A104,1)</f>
         <v>37135</v>
@@ -6578,7 +6571,7 @@
         <v>37146</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>50</v>
@@ -6600,7 +6593,7 @@
         <v>37149</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>50</v>
@@ -6622,7 +6615,7 @@
         <v>37160</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>50</v>
@@ -6644,7 +6637,7 @@
         <v>37163</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f>EDATE(A107,1)</f>
         <v>37165</v>
@@ -6671,7 +6664,7 @@
         <v>37167</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>51</v>
@@ -6693,7 +6686,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>105</v>
@@ -6713,7 +6706,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f>EDATE(A111,1)</f>
         <v>37196</v>
@@ -6740,7 +6733,7 @@
         <v>37209</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>59</v>
@@ -6762,7 +6755,7 @@
         <v>37219</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>78</v>
@@ -6782,7 +6775,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="47"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f>EDATE(A114,1)</f>
         <v>37226</v>
@@ -6803,7 +6796,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="46" t="s">
         <v>103</v>
       </c>
@@ -6821,7 +6814,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6848,7 +6841,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>131</v>
@@ -6872,7 +6865,7 @@
         <v>37279</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>127</v>
@@ -6892,7 +6885,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A119,1)</f>
         <v>37288</v>
@@ -6921,7 +6914,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>56</v>
@@ -6941,7 +6934,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>37316</v>
@@ -6962,7 +6955,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" ref="A125:A231" si="1">EDATE(A124,1)</f>
         <v>37347</v>
@@ -6983,7 +6976,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="1"/>
         <v>37377</v>
@@ -7010,7 +7003,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="1"/>
         <v>37408</v>
@@ -7031,7 +7024,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="1"/>
         <v>37438</v>
@@ -7058,7 +7051,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="1"/>
         <v>37469</v>
@@ -7083,7 +7076,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="1"/>
         <v>37500</v>
@@ -7108,7 +7101,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="1"/>
         <v>37530</v>
@@ -7135,7 +7128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="1"/>
         <v>37561</v>
@@ -7162,7 +7155,7 @@
         <v>37585</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>137</v>
@@ -7182,7 +7175,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="47"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A132,1)</f>
         <v>37591</v>
@@ -7207,7 +7200,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>139</v>
@@ -7227,7 +7220,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="46" t="s">
         <v>106</v>
       </c>
@@ -7245,7 +7238,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f>EDATE(A134,1)</f>
         <v>37622</v>
@@ -7270,7 +7263,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="1"/>
         <v>37653</v>
@@ -7291,7 +7284,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="1"/>
         <v>37681</v>
@@ -7318,7 +7311,7 @@
         <v>37697</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>56</v>
@@ -7338,7 +7331,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f>EDATE(A139,1)</f>
         <v>37712</v>
@@ -7365,7 +7358,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -7385,7 +7378,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>143</v>
@@ -7405,7 +7398,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>37742</v>
@@ -7432,7 +7425,7 @@
         <v>37753</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="1"/>
         <v>37773</v>
@@ -7459,7 +7452,7 @@
         <v>37773</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>50</v>
@@ -7481,7 +7474,7 @@
         <v>37797</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>144</v>
@@ -7501,7 +7494,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="47"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A145,1)</f>
         <v>37803</v>
@@ -7522,7 +7515,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="1"/>
         <v>37834</v>
@@ -7549,7 +7542,7 @@
         <v>37837</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="1"/>
         <v>37865</v>
@@ -7574,7 +7567,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="1"/>
         <v>37895</v>
@@ -7601,7 +7594,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>147</v>
@@ -7621,7 +7614,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="47"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>37926</v>
@@ -7648,7 +7641,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>148</v>
@@ -7668,7 +7661,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="47"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f>EDATE(A153,1)</f>
         <v>37956</v>
@@ -7693,7 +7686,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>150</v>
@@ -7713,7 +7706,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="46" t="s">
         <v>107</v>
       </c>
@@ -7731,7 +7724,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>37987</v>
@@ -7756,7 +7749,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="1"/>
         <v>38018</v>
@@ -7783,7 +7776,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>153</v>
@@ -7803,7 +7796,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>38047</v>
@@ -7830,7 +7823,7 @@
         <v>38070</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -7852,7 +7845,7 @@
         <v>38054</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7874,7 +7867,7 @@
         <v>38069</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>56</v>
@@ -7894,7 +7887,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A161,1)</f>
         <v>38078</v>
@@ -7919,7 +7912,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="1"/>
         <v>38108</v>
@@ -7946,7 +7939,7 @@
         <v>38110</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>50</v>
@@ -7968,7 +7961,7 @@
         <v>38121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>50</v>
@@ -7990,7 +7983,7 @@
         <v>38132</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>156</v>
@@ -8010,7 +8003,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A166,1)</f>
         <v>38139</v>
@@ -8037,7 +8030,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="1"/>
         <v>38169</v>
@@ -8064,7 +8057,7 @@
         <v>38180</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -8086,7 +8079,7 @@
         <v>38187</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>157</v>
@@ -8106,7 +8099,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A171,1)</f>
         <v>38200</v>
@@ -8133,7 +8126,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>48</v>
@@ -8155,7 +8148,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>59</v>
@@ -8177,7 +8170,7 @@
         <v>38216</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>160</v>
@@ -8197,7 +8190,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="47"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A174,1)</f>
         <v>38231</v>
@@ -8224,7 +8217,7 @@
         <v>38236</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>50</v>
@@ -8246,7 +8239,7 @@
         <v>38253</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>161</v>
@@ -8266,7 +8259,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="47"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38261</v>
@@ -8287,7 +8280,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="1"/>
         <v>38292</v>
@@ -8314,7 +8307,7 @@
         <v>38309</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="1"/>
         <v>38322</v>
@@ -8339,7 +8332,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="46" t="s">
         <v>108</v>
       </c>
@@ -8357,7 +8350,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>38353</v>
@@ -8378,7 +8371,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f t="shared" si="1"/>
         <v>38384</v>
@@ -8399,7 +8392,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -8420,7 +8413,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -8445,7 +8438,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -8466,7 +8459,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -8487,7 +8480,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -8508,7 +8501,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -8529,7 +8522,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -8550,7 +8543,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -8571,7 +8564,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -8592,7 +8585,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -8617,7 +8610,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="46" t="s">
         <v>109</v>
       </c>
@@ -8635,7 +8628,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>38718</v>
@@ -8662,7 +8655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>163</v>
@@ -8684,7 +8677,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>163</v>
@@ -8706,7 +8699,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>38749</v>
@@ -8733,7 +8726,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>168</v>
@@ -8753,7 +8746,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f>EDATE(A201,1)</f>
         <v>38777</v>
@@ -8774,7 +8767,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -8799,7 +8792,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>48</v>
@@ -8821,7 +8814,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>170</v>
@@ -8841,7 +8834,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A204,1)</f>
         <v>38838</v>
@@ -8868,7 +8861,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="15" t="s">
         <v>172</v>
@@ -8888,7 +8881,7 @@
       <c r="J208" s="12"/>
       <c r="K208" s="49"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>38869</v>
@@ -8915,7 +8908,7 @@
         <v>38870</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>173</v>
@@ -8935,7 +8928,7 @@
       <c r="J210" s="12"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f>EDATE(A209,1)</f>
         <v>38899</v>
@@ -8962,7 +8955,7 @@
         <v>38911</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>50</v>
@@ -8984,7 +8977,7 @@
         <v>38922</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>174</v>
@@ -9004,7 +8997,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f>EDATE(A211,1)</f>
         <v>38930</v>
@@ -9029,7 +9022,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f>EDATE(A214,1)</f>
         <v>38961</v>
@@ -9056,7 +9049,7 @@
         <v>38964</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>50</v>
@@ -9078,7 +9071,7 @@
         <v>38994</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>176</v>
@@ -9098,7 +9091,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38991</v>
@@ -9125,7 +9118,7 @@
         <v>39023</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>177</v>
@@ -9145,7 +9138,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="47"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>39022</v>
@@ -9170,7 +9163,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="1"/>
         <v>39052</v>
@@ -9197,7 +9190,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>179</v>
@@ -9217,7 +9210,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>181</v>
@@ -9237,7 +9230,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="46" t="s">
         <v>110</v>
       </c>
@@ -9255,7 +9248,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A221,1)</f>
         <v>39083</v>
@@ -9282,7 +9275,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>50</v>
@@ -9304,7 +9297,7 @@
         <v>39104</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>50</v>
@@ -9326,7 +9319,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>182</v>
@@ -9346,7 +9339,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f>EDATE(A225,1)</f>
         <v>39114</v>
@@ -9371,7 +9364,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="1"/>
         <v>39142</v>
@@ -9396,7 +9389,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="1"/>
         <v>39173</v>
@@ -9423,7 +9416,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>56</v>
@@ -9443,7 +9436,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>56</v>
@@ -9463,7 +9456,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>50</v>
@@ -9485,7 +9478,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>188</v>
@@ -9505,7 +9498,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="47"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A231,1)</f>
         <v>39203</v>
@@ -9532,7 +9525,7 @@
         <v>39209</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9554,7 +9547,7 @@
         <v>39217</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>56</v>
@@ -9574,7 +9567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>67</v>
@@ -9596,7 +9589,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>191</v>
@@ -9616,7 +9609,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f>EDATE(A236,1)</f>
         <v>39234</v>
@@ -9641,7 +9634,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" ref="A242:A423" si="2">EDATE(A241,1)</f>
         <v>39264</v>
@@ -9668,7 +9661,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>194</v>
@@ -9688,7 +9681,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f>EDATE(A242,1)</f>
         <v>39295</v>
@@ -9713,7 +9706,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="2"/>
         <v>39326</v>
@@ -9740,7 +9733,7 @@
         <v>39342</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>50</v>
@@ -9762,7 +9755,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>196</v>
@@ -9782,7 +9775,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f>EDATE(A245,1)</f>
         <v>39356</v>
@@ -9807,7 +9800,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f t="shared" si="2"/>
         <v>39387</v>
@@ -9834,7 +9827,7 @@
         <v>39412</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>138</v>
@@ -9856,7 +9849,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>198</v>
@@ -9876,7 +9869,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f>EDATE(A249,1)</f>
         <v>39417</v>
@@ -9901,7 +9894,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="46" t="s">
         <v>111</v>
       </c>
@@ -9919,7 +9912,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A252,1)</f>
         <v>39448</v>
@@ -9946,7 +9939,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>201</v>
@@ -9966,7 +9959,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="47"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>39479</v>
@@ -9993,7 +9986,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>127</v>
@@ -10013,7 +10006,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>50</v>
@@ -10035,7 +10028,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>203</v>
@@ -10055,7 +10048,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="47"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A256,1)</f>
         <v>39508</v>
@@ -10080,7 +10073,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>48</v>
@@ -10102,7 +10095,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>50</v>
@@ -10124,7 +10117,7 @@
         <v>39535</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>48</v>
@@ -10146,7 +10139,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>205</v>
@@ -10166,7 +10159,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f>EDATE(A260,1)</f>
         <v>39539</v>
@@ -10193,7 +10186,7 @@
         <v>39553</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>48</v>
@@ -10215,7 +10208,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>61</v>
@@ -10237,7 +10230,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>50</v>
@@ -10259,7 +10252,7 @@
         <v>39559</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>208</v>
@@ -10279,7 +10272,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A265,1)</f>
         <v>39569</v>
@@ -10306,7 +10299,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>50</v>
@@ -10328,7 +10321,7 @@
         <v>39575</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>50</v>
@@ -10350,7 +10343,7 @@
         <v>39582</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>48</v>
@@ -10372,7 +10365,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>138</v>
@@ -10394,7 +10387,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>210</v>
@@ -10414,7 +10407,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <f>EDATE(A270,1)</f>
         <v>39600</v>
@@ -10439,7 +10432,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>50</v>
@@ -10459,7 +10452,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>50</v>
@@ -10479,7 +10472,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>178</v>
@@ -10499,7 +10492,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A276,1)</f>
         <v>39630</v>
@@ -10526,7 +10519,7 @@
         <v>39636</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>48</v>
@@ -10552,7 +10545,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>39661</v>
@@ -10579,7 +10572,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>131</v>
@@ -10601,7 +10594,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>131</v>
@@ -10623,7 +10616,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>215</v>
@@ -10643,7 +10636,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A282,1)</f>
         <v>39692</v>
@@ -10670,7 +10663,7 @@
         <v>39713</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>216</v>
@@ -10690,7 +10683,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="47"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39722</v>
@@ -10717,7 +10710,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>131</v>
@@ -10741,7 +10734,7 @@
         <v>39737</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>61</v>
@@ -10763,7 +10756,7 @@
         <v>39749</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>131</v>
@@ -10785,7 +10778,7 @@
         <v>39742</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>131</v>
@@ -10807,7 +10800,7 @@
         <v>39751</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>217</v>
@@ -10827,7 +10820,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A288,1)</f>
         <v>39753</v>
@@ -10858,7 +10851,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>131</v>
@@ -10880,7 +10873,7 @@
         <v>39772</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>131</v>
@@ -10902,7 +10895,7 @@
         <v>39776</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>61</v>
@@ -10924,7 +10917,7 @@
         <v>39790</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>218</v>
@@ -10944,7 +10937,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A294,1)</f>
         <v>39783</v>
@@ -10971,7 +10964,7 @@
         <v>39793</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>220</v>
@@ -10991,7 +10984,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="46" t="s">
         <v>112</v>
       </c>
@@ -11009,7 +11002,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A299,1)</f>
         <v>39814</v>
@@ -11038,7 +11031,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>131</v>
@@ -11060,7 +11053,7 @@
         <v>39822</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>61</v>
@@ -11082,7 +11075,7 @@
         <v>39843</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>221</v>
@@ -11102,7 +11095,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A302,1)</f>
         <v>39845</v>
@@ -11129,7 +11122,7 @@
         <v>39856</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>222</v>
@@ -11153,7 +11146,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>61</v>
@@ -11175,7 +11168,7 @@
         <v>39864</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>223</v>
@@ -11195,7 +11188,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A306,1)</f>
         <v>39873</v>
@@ -11222,7 +11215,7 @@
         <v>39876</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>131</v>
@@ -11242,7 +11235,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>56</v>
@@ -11262,7 +11255,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>131</v>
@@ -11284,7 +11277,7 @@
         <v>39896</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>131</v>
@@ -11306,7 +11299,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -11326,7 +11319,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>226</v>
@@ -11346,7 +11339,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A310,1)</f>
         <v>39904</v>
@@ -11375,7 +11368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>56</v>
@@ -11395,7 +11388,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>131</v>
@@ -11415,7 +11408,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>229</v>
@@ -11435,7 +11428,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A317,1)</f>
         <v>39934</v>
@@ -11464,7 +11457,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>131</v>
@@ -11486,7 +11479,7 @@
         <v>39941</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>131</v>
@@ -11508,7 +11501,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>233</v>
@@ -11530,7 +11523,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="47"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A321,1)</f>
         <v>39965</v>
@@ -11559,7 +11552,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>131</v>
@@ -11581,7 +11574,7 @@
         <v>39980</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>131</v>
@@ -11603,7 +11596,7 @@
         <v>39989</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>234</v>
@@ -11623,7 +11616,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A325,1)</f>
         <v>39995</v>
@@ -11650,7 +11643,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>222</v>
@@ -11674,7 +11667,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>236</v>
@@ -11694,7 +11687,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="47"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A329,1)</f>
         <v>40026</v>
@@ -11721,7 +11714,7 @@
         <v>40039</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>50</v>
@@ -11745,7 +11738,7 @@
         <v>40045</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>238</v>
@@ -11765,7 +11758,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A332,1)</f>
         <v>40057</v>
@@ -11798,7 +11791,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>131</v>
@@ -11822,7 +11815,7 @@
         <v>40074</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>240</v>
@@ -11842,7 +11835,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A335,1)</f>
         <v>40087</v>
@@ -11869,7 +11862,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>131</v>
@@ -11893,7 +11886,7 @@
         <v>40109</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>222</v>
@@ -11919,7 +11912,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>242</v>
@@ -11939,7 +11932,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A338,1)</f>
         <v>40118</v>
@@ -11966,7 +11959,7 @@
         <v>40129</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>131</v>
@@ -11988,7 +11981,7 @@
         <v>40140</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>244</v>
@@ -12008,7 +12001,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="47"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f>EDATE(A342,1)</f>
         <v>40148</v>
@@ -12035,7 +12028,7 @@
         <v>40176</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>245</v>
@@ -12055,7 +12048,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="47"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="46" t="s">
         <v>113</v>
       </c>
@@ -12073,7 +12066,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A345,1)</f>
         <v>40179</v>
@@ -12098,7 +12091,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f t="shared" si="2"/>
         <v>40210</v>
@@ -12123,7 +12116,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>48</v>
@@ -12145,7 +12138,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>50</v>
@@ -12167,7 +12160,7 @@
         <v>40231</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>56</v>
@@ -12187,7 +12180,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>247</v>
@@ -12207,7 +12200,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A349,1)</f>
         <v>40238</v>
@@ -12238,7 +12231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>50</v>
@@ -12260,7 +12253,7 @@
         <v>40266</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>56</v>
@@ -12280,7 +12273,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>250</v>
@@ -12300,7 +12293,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A354,1)</f>
         <v>40269</v>
@@ -12327,7 +12320,7 @@
         <v>40283</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>253</v>
@@ -12347,7 +12340,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="47"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f>EDATE(A358,1)</f>
         <v>40299</v>
@@ -12374,7 +12367,7 @@
         <v>40303</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>50</v>
@@ -12396,7 +12389,7 @@
         <v>40309</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>50</v>
@@ -12418,7 +12411,7 @@
         <v>40311</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>59</v>
@@ -12437,7 +12430,7 @@
         <v>40332</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>254</v>
@@ -12454,7 +12447,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="47"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f>EDATE(A360,1)</f>
         <v>40330</v>
@@ -12481,7 +12474,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>255</v>
@@ -12501,7 +12494,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="47"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A365,1)</f>
         <v>40360</v>
@@ -12528,7 +12521,7 @@
         <v>40386</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>256</v>
@@ -12548,7 +12541,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f>EDATE(A367,1)</f>
         <v>40391</v>
@@ -12575,7 +12568,7 @@
         <v>40407</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>257</v>
@@ -12595,7 +12588,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="47"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>40422</v>
@@ -12622,7 +12615,7 @@
         <v>40436</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>50</v>
@@ -12644,7 +12637,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>258</v>
@@ -12664,7 +12657,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>40452</v>
@@ -12689,7 +12682,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -12716,7 +12709,7 @@
         <v>40484</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>260</v>
@@ -12736,7 +12729,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="47"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>40513</v>
@@ -12763,7 +12756,7 @@
         <v>40519</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>261</v>
@@ -12783,7 +12776,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="46" t="s">
         <v>114</v>
       </c>
@@ -12801,7 +12794,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>40544</v>
@@ -12828,7 +12821,7 @@
         <v>40556</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>50</v>
@@ -12850,7 +12843,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>50</v>
@@ -12872,7 +12865,7 @@
         <v>40576</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>262</v>
@@ -12892,7 +12885,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="47"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A380,1)</f>
         <v>40575</v>
@@ -12919,7 +12912,7 @@
         <v>40595</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>263</v>
@@ -12939,7 +12932,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="47"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f>EDATE(A384,1)</f>
         <v>40603</v>
@@ -12964,7 +12957,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>131</v>
@@ -12986,7 +12979,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>48</v>
@@ -13008,7 +13001,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>56</v>
@@ -13028,7 +13021,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>266</v>
@@ -13048,7 +13041,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A386,1)</f>
         <v>40634</v>
@@ -13081,7 +13074,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>56</v>
@@ -13101,7 +13094,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>50</v>
@@ -13123,7 +13116,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>50</v>
@@ -13145,7 +13138,7 @@
         <v>40658</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>269</v>
@@ -13165,7 +13158,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A391,1)</f>
         <v>40664</v>
@@ -13194,7 +13187,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -13216,7 +13209,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>50</v>
@@ -13238,7 +13231,7 @@
         <v>40679</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>56</v>
@@ -13258,7 +13251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>270</v>
@@ -13278,7 +13271,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f>EDATE(A396,1)</f>
         <v>40695</v>
@@ -13311,7 +13304,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>275</v>
@@ -13333,7 +13326,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f>EDATE(A401,1)</f>
         <v>40725</v>
@@ -13356,7 +13349,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="2"/>
         <v>40756</v>
@@ -13385,7 +13378,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>277</v>
@@ -13407,7 +13400,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f>EDATE(A404,1)</f>
         <v>40787</v>
@@ -13434,7 +13427,7 @@
         <v>40822</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>278</v>
@@ -13454,7 +13447,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="47"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>40817</v>
@@ -13481,7 +13474,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>50</v>
@@ -13503,7 +13496,7 @@
         <v>40843</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>50</v>
@@ -13525,7 +13518,7 @@
         <v>40849</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>279</v>
@@ -13545,7 +13538,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <f>EDATE(A408,1)</f>
         <v>40848</v>
@@ -13570,7 +13563,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f t="shared" si="2"/>
         <v>40878</v>
@@ -13597,7 +13590,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>281</v>
@@ -13619,7 +13612,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="47"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="46" t="s">
         <v>115</v>
       </c>
@@ -13637,7 +13630,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f>EDATE(A413,1)</f>
         <v>40909</v>
@@ -13664,7 +13657,7 @@
         <v>40911</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>56</v>
@@ -13684,7 +13677,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>50</v>
@@ -13706,7 +13699,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>50</v>
@@ -13728,7 +13721,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>84</v>
@@ -13750,7 +13743,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>284</v>
@@ -13772,7 +13765,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f>EDATE(A416,1)</f>
         <v>40940</v>
@@ -13799,7 +13792,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="2"/>
         <v>40969</v>
@@ -13826,7 +13819,7 @@
         <v>40991</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>286</v>
@@ -13848,7 +13841,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="47"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>41000</v>
@@ -13875,7 +13868,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>56</v>
@@ -13893,7 +13886,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>222</v>
@@ -13921,7 +13914,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>289</v>
@@ -13941,7 +13934,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f>EDATE(A425,1)</f>
         <v>41030</v>
@@ -13968,7 +13961,7 @@
         <v>41026</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -13990,7 +13983,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>50</v>
@@ -14012,7 +14005,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>50</v>
@@ -14034,7 +14027,7 @@
         <v>41059</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>290</v>
@@ -14054,7 +14047,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A429,1)</f>
         <v>41061</v>
@@ -14081,7 +14074,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>50</v>
@@ -14103,7 +14096,7 @@
         <v>41079</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>50</v>
@@ -14125,7 +14118,7 @@
         <v>41085</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>50</v>
@@ -14147,7 +14140,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>293</v>
@@ -14167,7 +14160,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="47"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f>EDATE(A434,1)</f>
         <v>41091</v>
@@ -14194,7 +14187,7 @@
         <v>41101</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -14216,7 +14209,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>84</v>
@@ -14238,7 +14231,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>294</v>
@@ -14258,7 +14251,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f>EDATE(A439,1)</f>
         <v>41122</v>
@@ -14285,7 +14278,7 @@
         <v>41129</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>50</v>
@@ -14307,7 +14300,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>297</v>
@@ -14327,7 +14320,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A443,1)</f>
         <v>41153</v>
@@ -14358,7 +14351,7 @@
         <v>41162</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>59</v>
@@ -14380,7 +14373,7 @@
         <v>41173</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>50</v>
@@ -14402,7 +14395,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>275</v>
@@ -14424,7 +14417,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="47"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A446,1)</f>
         <v>41183</v>
@@ -14451,7 +14444,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>50</v>
@@ -14473,7 +14466,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>131</v>
@@ -14495,7 +14488,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="47"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>298</v>
@@ -14517,7 +14510,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="47"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A450,1)</f>
         <v>41214</v>
@@ -14544,7 +14537,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>50</v>
@@ -14566,7 +14559,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>299</v>
@@ -14590,7 +14583,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>41244</v>
@@ -14617,7 +14610,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="46" t="s">
         <v>116</v>
       </c>
@@ -14635,7 +14628,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f>EDATE(A457,1)</f>
         <v>41275</v>
@@ -14662,7 +14655,7 @@
         <v>41276</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>50</v>
@@ -14684,7 +14677,7 @@
         <v>41282</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>222</v>
@@ -14706,7 +14699,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>303</v>
@@ -14726,7 +14719,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A459,1)</f>
         <v>41306</v>
@@ -14755,7 +14748,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20" t="s">
         <v>48</v>
@@ -14777,7 +14770,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>50</v>
@@ -14799,7 +14792,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>50</v>
@@ -14821,7 +14814,7 @@
         <v>41327</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>304</v>
@@ -14841,7 +14834,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f>EDATE(A463,1)</f>
         <v>41334</v>
@@ -14868,7 +14861,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>48</v>
@@ -14892,7 +14885,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>307</v>
@@ -14912,7 +14905,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A468,1)</f>
         <v>41365</v>
@@ -14939,7 +14932,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>56</v>
@@ -14959,7 +14952,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>127</v>
@@ -14979,7 +14972,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>60</v>
@@ -14999,7 +14992,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>309</v>
@@ -15019,7 +15012,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -15048,7 +15041,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>50</v>
@@ -15070,7 +15063,7 @@
         <v>41425</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>48</v>
@@ -15092,7 +15085,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>316</v>
@@ -15112,7 +15105,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="47"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f>EDATE(A476,1)</f>
         <v>41426</v>
@@ -15139,7 +15132,7 @@
         <v>41438</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>316</v>
@@ -15159,7 +15152,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>41456</v>
@@ -15186,7 +15179,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>50</v>
@@ -15208,7 +15201,7 @@
         <v>41470</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>84</v>
@@ -15230,7 +15223,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>48</v>
@@ -15252,7 +15245,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>67</v>
@@ -15274,7 +15267,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>317</v>
@@ -15294,7 +15287,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="47"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -15321,7 +15314,7 @@
         <v>41498</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>321</v>
@@ -15341,7 +15334,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="47"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f>EDATE(A488,1)</f>
         <v>41518</v>
@@ -15368,7 +15361,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>50</v>
@@ -15390,7 +15383,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>322</v>
@@ -15410,7 +15403,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A490,1)</f>
         <v>41548</v>
@@ -15437,7 +15430,7 @@
         <v>41540</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>131</v>
@@ -15461,7 +15454,7 @@
         <v>41550</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>50</v>
@@ -15483,7 +15476,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>323</v>
@@ -15503,7 +15496,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f>EDATE(A493,1)</f>
         <v>41579</v>
@@ -15530,7 +15523,7 @@
         <v>41591</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>324</v>
@@ -15550,7 +15543,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="47"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f>EDATE(A497,1)</f>
         <v>41609</v>
@@ -15577,7 +15570,7 @@
         <v>41624</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>222</v>
@@ -15601,7 +15594,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>326</v>
@@ -15621,7 +15614,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="46" t="s">
         <v>117</v>
       </c>
@@ -15639,7 +15632,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A499,1)</f>
         <v>41640</v>
@@ -15666,7 +15659,7 @@
         <v>41655</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>327</v>
@@ -15686,7 +15679,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="47"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>41671</v>
@@ -15713,7 +15706,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>131</v>
@@ -15739,7 +15732,7 @@
         <v>41680</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>56</v>
@@ -15759,7 +15752,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>48</v>
@@ -15781,7 +15774,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>50</v>
@@ -15803,7 +15796,7 @@
         <v>41712</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>59</v>
@@ -15825,7 +15818,7 @@
         <v>41725</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>56</v>
@@ -15845,7 +15838,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>50</v>
@@ -15867,7 +15860,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>56</v>
@@ -15887,7 +15880,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>328</v>
@@ -15907,7 +15900,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>50</v>
@@ -15929,7 +15922,7 @@
         <v>41752</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f>EDATE(A505,1)</f>
         <v>41699</v>
@@ -15954,7 +15947,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>48</v>
@@ -15976,7 +15969,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f>EDATE(A516,1)</f>
         <v>41730</v>
@@ -16001,7 +15994,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>48</v>
@@ -16023,7 +16016,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <f>EDATE(A518,1)</f>
         <v>41760</v>
@@ -16048,7 +16041,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>48</v>
@@ -16070,7 +16063,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A520,1)</f>
         <v>41791</v>
@@ -16095,7 +16088,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>50</v>
@@ -16115,7 +16108,7 @@
         <v>41783</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f>EDATE(A522,1)</f>
         <v>41821</v>
@@ -16140,7 +16133,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>50</v>
@@ -16162,7 +16155,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>50</v>
@@ -16184,7 +16177,7 @@
         <v>41838</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <f>EDATE(A524,1)</f>
         <v>41852</v>
@@ -16209,7 +16202,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>50</v>
@@ -16231,7 +16224,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <f>EDATE(A527,1)</f>
         <v>41883</v>
@@ -16256,7 +16249,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>50</v>
@@ -16278,7 +16271,7 @@
         <v>41897</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f>EDATE(A529,1)</f>
         <v>41913</v>
@@ -16303,7 +16296,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>50</v>
@@ -16325,7 +16318,7 @@
         <v>41912</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>399</v>
@@ -16347,7 +16340,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -16369,7 +16362,7 @@
         <v>41933</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f>EDATE(A531,1)</f>
         <v>41944</v>
@@ -16394,7 +16387,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>50</v>
@@ -16416,7 +16409,7 @@
         <v>41954</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f>EDATE(A535,1)</f>
         <v>41974</v>
@@ -16443,7 +16436,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>170</v>
@@ -16463,7 +16456,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="46" t="s">
         <v>118</v>
       </c>
@@ -16481,7 +16474,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f>EDATE(A537,1)</f>
         <v>42005</v>
@@ -16508,7 +16501,7 @@
         <v>42012</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>50</v>
@@ -16530,7 +16523,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>56</v>
@@ -16550,7 +16543,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>56</v>
@@ -16570,7 +16563,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f>EDATE(A540,1)</f>
         <v>42036</v>
@@ -16597,7 +16590,7 @@
         <v>42038</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f t="shared" ref="A545:A598" si="3">EDATE(A544,1)</f>
         <v>42064</v>
@@ -16618,7 +16611,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="3"/>
         <v>42095</v>
@@ -16643,7 +16636,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>50</v>
@@ -16665,7 +16658,7 @@
         <v>42097</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <f>EDATE(A546,1)</f>
         <v>42125</v>
@@ -16686,7 +16679,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f t="shared" si="3"/>
         <v>42156</v>
@@ -16713,7 +16706,7 @@
         <v>42180</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f t="shared" si="3"/>
         <v>42186</v>
@@ -16734,7 +16727,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f t="shared" si="3"/>
         <v>42217</v>
@@ -16755,7 +16748,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -16782,7 +16775,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -16809,7 +16802,7 @@
         <v>42296</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f>EDATE(A553,1)</f>
         <v>42309</v>
@@ -16836,7 +16829,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="3"/>
         <v>42339</v>
@@ -16857,7 +16850,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="46" t="s">
         <v>119</v>
       </c>
@@ -16875,7 +16868,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f>EDATE(A555,1)</f>
         <v>42370</v>
@@ -16900,7 +16893,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -16925,7 +16918,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f t="shared" si="3"/>
         <v>42430</v>
@@ -16950,7 +16943,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -16975,7 +16968,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>50</v>
@@ -16997,7 +16990,7 @@
         <v>42479</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>346</v>
@@ -17017,7 +17010,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f>EDATE(A560,1)</f>
         <v>42491</v>
@@ -17042,7 +17035,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -17067,7 +17060,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -17092,7 +17085,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -17117,7 +17110,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -17144,7 +17137,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>50</v>
@@ -17164,7 +17157,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>50</v>
@@ -17186,7 +17179,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>50</v>
@@ -17208,7 +17201,7 @@
         <v>42635</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>84</v>
@@ -17230,7 +17223,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>50</v>
@@ -17252,7 +17245,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>353</v>
@@ -17272,7 +17265,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>354</v>
@@ -17294,7 +17287,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>355</v>
@@ -17316,7 +17309,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f>EDATE(A567,1)</f>
         <v>42644</v>
@@ -17343,7 +17336,7 @@
         <v>42660</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>359</v>
@@ -17363,7 +17356,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>51</v>
@@ -17385,7 +17378,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20" t="s">
         <v>48</v>
@@ -17407,7 +17400,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>50</v>
@@ -17429,7 +17422,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>50</v>
@@ -17451,7 +17444,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <f>EDATE(A576,1)</f>
         <v>42675</v>
@@ -17476,7 +17469,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20" t="s">
         <v>48</v>
@@ -17498,7 +17491,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f>EDATE(A582,1)</f>
         <v>42705</v>
@@ -17523,7 +17516,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="46" t="s">
         <v>120</v>
       </c>
@@ -17541,7 +17534,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <f>EDATE(A584,1)</f>
         <v>42736</v>
@@ -17568,7 +17561,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>84</v>
@@ -17590,7 +17583,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20" t="s">
         <v>84</v>
@@ -17612,7 +17605,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <f>EDATE(A586,1)</f>
         <v>42767</v>
@@ -17633,7 +17626,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <f t="shared" si="3"/>
         <v>42795</v>
@@ -17660,7 +17653,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>84</v>
@@ -17682,7 +17675,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17709,7 +17702,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <f t="shared" si="3"/>
         <v>42856</v>
@@ -17738,7 +17731,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <f t="shared" si="3"/>
         <v>42887</v>
@@ -17763,7 +17756,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <f t="shared" si="3"/>
         <v>42917</v>
@@ -17784,7 +17777,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <f t="shared" si="3"/>
         <v>42948</v>
@@ -17811,7 +17804,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <f t="shared" si="3"/>
         <v>42979</v>
@@ -17838,7 +17831,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <f t="shared" si="3"/>
         <v>43009</v>
@@ -17865,7 +17858,7 @@
         <v>42978</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>50</v>
@@ -17887,7 +17880,7 @@
         <v>42989</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
         <v>50</v>
@@ -17909,7 +17902,7 @@
         <v>43011</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>50</v>
@@ -17931,7 +17924,7 @@
         <v>43038</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <f>EDATE(A598,1)</f>
         <v>43040</v>
@@ -17958,7 +17951,7 @@
         <v>43041</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>131</v>
@@ -17980,7 +17973,7 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43070</v>
@@ -18007,7 +18000,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20" t="s">
         <v>84</v>
@@ -18029,7 +18022,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="46" t="s">
         <v>121</v>
       </c>
@@ -18047,7 +18040,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <f>EDATE(A604,1)</f>
         <v>43101</v>
@@ -18074,7 +18067,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>222</v>
@@ -18100,7 +18093,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <f>EDATE(A607,1)</f>
         <v>43132</v>
@@ -18129,7 +18122,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>84</v>
@@ -18151,7 +18144,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20" t="s">
         <v>48</v>
@@ -18173,7 +18166,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>48</v>
@@ -18195,7 +18188,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20" t="s">
         <v>50</v>
@@ -18217,7 +18210,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -18238,7 +18231,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <f t="shared" ref="A615:A702" si="4">EDATE(A614,1)</f>
         <v>43191</v>
@@ -18259,7 +18252,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <f t="shared" si="4"/>
         <v>43221</v>
@@ -18286,7 +18279,7 @@
         <v>43234</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20" t="s">
         <v>50</v>
@@ -18308,7 +18301,7 @@
         <v>43273</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>50</v>
@@ -18330,7 +18323,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <f>EDATE(A616,1)</f>
         <v>43252</v>
@@ -18355,7 +18348,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <f t="shared" si="4"/>
         <v>43282</v>
@@ -18376,7 +18369,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <f t="shared" si="4"/>
         <v>43313</v>
@@ -18397,7 +18390,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <f t="shared" si="4"/>
         <v>43344</v>
@@ -18418,7 +18411,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <f t="shared" si="4"/>
         <v>43374</v>
@@ -18445,7 +18438,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <f t="shared" si="4"/>
         <v>43405</v>
@@ -18472,7 +18465,7 @@
         <v>43417</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40"/>
       <c r="B625" s="20" t="s">
         <v>50</v>
@@ -18494,7 +18487,7 @@
         <v>43423</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40"/>
       <c r="B626" s="20" t="s">
         <v>50</v>
@@ -18516,7 +18509,7 @@
         <v>43433</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <f>EDATE(A624,1)</f>
         <v>43435</v>
@@ -18543,7 +18536,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40"/>
       <c r="B628" s="20" t="s">
         <v>131</v>
@@ -18567,7 +18560,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="46" t="s">
         <v>122</v>
       </c>
@@ -18585,7 +18578,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -18612,7 +18605,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40"/>
       <c r="B631" s="20" t="s">
         <v>127</v>
@@ -18632,7 +18625,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <f>EDATE(A630,1)</f>
         <v>43497</v>
@@ -18659,7 +18652,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40"/>
       <c r="B633" s="20" t="s">
         <v>131</v>
@@ -18683,7 +18676,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>131</v>
@@ -18705,7 +18698,7 @@
         <v>43151</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>131</v>
@@ -18727,7 +18720,7 @@
         <v>43163</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <f>EDATE(A632,1)</f>
         <v>43525</v>
@@ -18756,7 +18749,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <f t="shared" si="4"/>
         <v>43556</v>
@@ -18783,7 +18776,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>131</v>
@@ -18805,7 +18798,7 @@
         <v>43566</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40"/>
       <c r="B639" s="20" t="s">
         <v>131</v>
@@ -18827,7 +18820,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>50</v>
@@ -18849,7 +18842,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>48</v>
@@ -18871,7 +18864,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>375</v>
@@ -18893,7 +18886,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40"/>
       <c r="B643" s="20" t="s">
         <v>50</v>
@@ -18915,7 +18908,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40"/>
       <c r="B644" s="20" t="s">
         <v>56</v>
@@ -18935,7 +18928,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <f>EDATE(A637,1)</f>
         <v>43586</v>
@@ -18956,7 +18949,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <f t="shared" si="4"/>
         <v>43617</v>
@@ -18977,7 +18970,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <f t="shared" si="4"/>
         <v>43647</v>
@@ -19004,7 +18997,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>50</v>
@@ -19026,7 +19019,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>222</v>
@@ -19048,7 +19041,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>131</v>
@@ -19072,7 +19065,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43678</v>
@@ -19093,7 +19086,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <f t="shared" si="4"/>
         <v>43709</v>
@@ -19120,7 +19113,7 @@
         <v>43727</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40"/>
       <c r="B653" s="20" t="s">
         <v>50</v>
@@ -19142,7 +19135,7 @@
         <v>43710</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40"/>
       <c r="B654" s="20" t="s">
         <v>222</v>
@@ -19164,7 +19157,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40"/>
       <c r="B655" s="20" t="s">
         <v>131</v>
@@ -19188,7 +19181,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40"/>
       <c r="B656" s="20" t="s">
         <v>48</v>
@@ -19210,7 +19203,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
         <f>EDATE(A652,1)</f>
         <v>43739</v>
@@ -19237,7 +19230,7 @@
         <v>43741</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20" t="s">
         <v>50</v>
@@ -19263,7 +19256,7 @@
         <v>43752</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>48</v>
@@ -19285,7 +19278,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <f>EDATE(A657,1)</f>
         <v>43770</v>
@@ -19312,7 +19305,7 @@
         <v>43790</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>131</v>
@@ -19336,7 +19329,7 @@
       </c>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>131</v>
@@ -19358,7 +19351,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>48</v>
@@ -19380,7 +19373,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>43800</v>
@@ -19411,7 +19404,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="46" t="s">
         <v>123</v>
       </c>
@@ -19429,7 +19422,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>43831</v>
@@ -19454,7 +19447,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>384</v>
@@ -19474,7 +19467,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>56</v>
@@ -19494,7 +19487,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20" t="s">
         <v>87</v>
@@ -19516,7 +19509,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40">
         <f>EDATE(A666,1)</f>
         <v>43862</v>
@@ -19537,7 +19530,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <f t="shared" si="4"/>
         <v>43891</v>
@@ -19558,7 +19551,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40">
         <f t="shared" si="4"/>
         <v>43922</v>
@@ -19585,7 +19578,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <f t="shared" si="4"/>
         <v>43952</v>
@@ -19606,7 +19599,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40">
         <f t="shared" si="4"/>
         <v>43983</v>
@@ -19627,7 +19620,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <f t="shared" si="4"/>
         <v>44013</v>
@@ -19654,7 +19647,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <f t="shared" si="4"/>
         <v>44044</v>
@@ -19681,7 +19674,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>50</v>
@@ -19703,7 +19696,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40">
         <f>EDATE(A676,1)</f>
         <v>44075</v>
@@ -19730,7 +19723,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20" t="s">
         <v>50</v>
@@ -19754,7 +19747,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44105</v>
@@ -19781,7 +19774,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <f t="shared" si="4"/>
         <v>44136</v>
@@ -19802,7 +19795,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <f t="shared" si="4"/>
         <v>44166</v>
@@ -19823,7 +19816,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="46" t="s">
         <v>124</v>
       </c>
@@ -19841,7 +19834,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <f>EDATE(A682,1)</f>
         <v>44197</v>
@@ -19862,7 +19855,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <f t="shared" si="4"/>
         <v>44228</v>
@@ -19883,7 +19876,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <f t="shared" si="4"/>
         <v>44256</v>
@@ -19914,7 +19907,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <f t="shared" si="4"/>
         <v>44287</v>
@@ -19935,7 +19928,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <f t="shared" si="4"/>
         <v>44317</v>
@@ -19956,7 +19949,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <f t="shared" si="4"/>
         <v>44348</v>
@@ -19977,7 +19970,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <f t="shared" si="4"/>
         <v>44378</v>
@@ -19998,7 +19991,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <f t="shared" si="4"/>
         <v>44409</v>
@@ -20019,7 +20012,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <f t="shared" si="4"/>
         <v>44440</v>
@@ -20040,7 +20033,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <f t="shared" si="4"/>
         <v>44470</v>
@@ -20061,7 +20054,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <f t="shared" si="4"/>
         <v>44501</v>
@@ -20082,7 +20075,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <f t="shared" si="4"/>
         <v>44531</v>
@@ -20107,7 +20100,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="46" t="s">
         <v>125</v>
       </c>
@@ -20125,7 +20118,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <f>EDATE(A695,1)</f>
         <v>44562</v>
@@ -20146,7 +20139,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <f t="shared" si="4"/>
         <v>44593</v>
@@ -20167,7 +20160,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
         <f t="shared" si="4"/>
         <v>44621</v>
@@ -20194,7 +20187,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <f t="shared" si="4"/>
         <v>44652</v>
@@ -20219,7 +20212,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <f t="shared" si="4"/>
         <v>44682</v>
@@ -20246,7 +20239,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <f t="shared" si="4"/>
         <v>44713</v>
@@ -20267,7 +20260,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <f t="shared" ref="A703" si="5">EDATE(A702,1)</f>
         <v>44743</v>
@@ -20294,7 +20287,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40">
         <v>44774</v>
       </c>
@@ -20314,7 +20307,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40">
         <v>44805</v>
       </c>
@@ -20340,7 +20333,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40">
         <v>44835</v>
       </c>
@@ -20366,7 +20359,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40">
         <v>44866</v>
       </c>
@@ -20392,7 +20385,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40">
         <v>44896</v>
       </c>
@@ -20418,7 +20411,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
         <v>50</v>
@@ -20440,7 +20433,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="46" t="s">
         <v>413</v>
       </c>
@@ -20458,7 +20451,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40">
         <v>44927</v>
       </c>
@@ -20484,7 +20477,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
         <v>50</v>
@@ -20506,7 +20499,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40">
         <v>44958</v>
       </c>
@@ -20532,7 +20525,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40">
         <v>44986</v>
       </c>
@@ -20552,7 +20545,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40">
         <v>45017</v>
       </c>
@@ -20578,7 +20571,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="15" t="s">
         <v>56</v>
@@ -20598,7 +20591,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40">
         <v>45047</v>
       </c>
@@ -20622,7 +20615,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="15" t="s">
         <v>50</v>
@@ -20644,7 +20637,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40">
         <v>45078</v>
       </c>
@@ -20668,7 +20661,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20" t="s">
         <v>59</v>
@@ -20690,11 +20683,11 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A721" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B721" s="20"/>
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A721" s="40"/>
+      <c r="B721" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C721" s="13"/>
       <c r="D721" s="39"/>
       <c r="E721" s="9"/>
@@ -20703,14 +20696,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H721" s="39"/>
+      <c r="H721" s="39">
+        <v>2</v>
+      </c>
       <c r="I721" s="9"/>
       <c r="J721" s="11"/>
-      <c r="K721" s="20"/>
-    </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K721" s="47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20726,9 +20723,9 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20744,9 +20741,9 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20762,41 +20759,59 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B725" s="20"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="39"/>
+      <c r="E725" s="9"/>
+      <c r="F725" s="20"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H725" s="39"/>
+      <c r="I725" s="9"/>
+      <c r="J725" s="11"/>
+      <c r="K725" s="20"/>
+    </row>
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A726" s="40">
         <v>45231</v>
       </c>
-      <c r="B725" s="15"/>
-      <c r="C725" s="41"/>
-      <c r="D725" s="42"/>
-      <c r="E725" s="9"/>
-      <c r="F725" s="15"/>
-      <c r="G725" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H725" s="42"/>
-      <c r="I725" s="9"/>
-      <c r="J725" s="12"/>
-      <c r="K725" s="15"/>
-    </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A726" s="40">
+      <c r="B726" s="15"/>
+      <c r="C726" s="41"/>
+      <c r="D726" s="42"/>
+      <c r="E726" s="9"/>
+      <c r="F726" s="15"/>
+      <c r="G726" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H726" s="42"/>
+      <c r="I726" s="9"/>
+      <c r="J726" s="12"/>
+      <c r="K726" s="15"/>
+    </row>
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A727" s="40">
         <v>45261</v>
       </c>
-      <c r="B726" s="20"/>
-      <c r="C726" s="13"/>
-      <c r="D726" s="39"/>
-      <c r="E726" s="9"/>
-      <c r="F726" s="20"/>
-      <c r="G726" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H726" s="39"/>
-      <c r="I726" s="9"/>
-      <c r="J726" s="11"/>
-      <c r="K726" s="20"/>
+      <c r="B727" s="20"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="39"/>
+      <c r="E727" s="9"/>
+      <c r="F727" s="20"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H727" s="39"/>
+      <c r="I727" s="9"/>
+      <c r="J727" s="11"/>
+      <c r="K727" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -20813,10 +20828,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20839,7 +20854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20847,21 +20862,21 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -20874,7 +20889,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20903,7 +20918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1.208</v>
       </c>
@@ -20931,17 +20946,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>415</v>
       </c>
@@ -20965,10 +20980,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>96.721999999999866</v>
+        <v>94.721999999999866</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -20996,7 +21011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -21022,7 +21037,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -21048,7 +21063,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -21074,7 +21089,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -21100,7 +21115,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -21126,7 +21141,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -21152,7 +21167,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -21178,7 +21193,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -21198,7 +21213,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -21218,7 +21233,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -21238,7 +21253,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -21259,7 +21274,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -21280,7 +21295,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -21301,7 +21316,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -21322,7 +21337,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21343,7 +21358,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21364,7 +21379,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21385,7 +21400,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21406,7 +21421,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21427,7 +21442,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21448,7 +21463,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21469,7 +21484,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21490,7 +21505,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21511,7 +21526,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21532,7 +21547,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21553,7 +21568,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21574,7 +21589,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21595,7 +21610,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21616,7 +21631,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21637,7 +21652,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21658,7 +21673,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21667,7 +21682,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21676,7 +21691,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21685,7 +21700,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21694,7 +21709,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21703,7 +21718,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21712,7 +21727,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21721,7 +21736,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21730,7 +21745,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21739,7 +21754,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21748,7 +21763,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21757,7 +21772,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21766,7 +21781,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21775,7 +21790,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21784,7 +21799,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21793,7 +21808,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21802,7 +21817,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21811,7 +21826,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21820,7 +21835,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21829,7 +21844,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21838,7 +21853,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21847,7 +21862,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21856,7 +21871,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21865,7 +21880,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21874,7 +21889,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21883,7 +21898,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21892,7 +21907,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21901,7 +21916,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21910,7 +21925,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21919,7 +21934,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
